--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso\Superior de Tecnologia em Análise e Desenvolvimento de Sistemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -162,13 +162,43 @@
   </si>
   <si>
     <t>Portfólio</t>
+  </si>
+  <si>
+    <t>Linguagem de Programação</t>
+  </si>
+  <si>
+    <t>Análise Orientada a Objetos</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Orientado ao Objeto</t>
+  </si>
+  <si>
+    <t>Ed - Mindset Ágil</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Direito Eletrônico</t>
+  </si>
+  <si>
+    <t>TI Aplicadas ao Direito</t>
+  </si>
+  <si>
+    <t>Direito, Ética e Propriedade Intelectual</t>
+  </si>
+  <si>
+    <t>Língua Inglesa II</t>
+  </si>
+  <si>
+    <t>Língua Inglesa I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -358,11 +396,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,16 +483,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,10 +787,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +802,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -704,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -715,13 +830,15 @@
         <v>13</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="H2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -732,13 +849,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="H3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -749,7 +868,9 @@
         <v>18</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
@@ -757,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -768,7 +889,9 @@
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="H5" t="s">
         <v>34</v>
@@ -785,13 +908,15 @@
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="H6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -802,13 +927,15 @@
         <v>14</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="H7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -819,13 +946,15 @@
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -835,13 +964,15 @@
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -851,11 +982,13 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -865,8 +998,10 @@
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -879,8 +1014,10 @@
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -893,8 +1030,10 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,8 +1046,10 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="11" t="s">
         <v>40</v>
       </c>
@@ -923,8 +1064,10 @@
       <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -937,8 +1080,10 @@
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,10 +1097,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="8">
-        <v>44053</v>
+        <v>44074</v>
       </c>
       <c r="E17" s="8">
-        <v>44184</v>
+        <v>44077</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -970,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="8">
-        <v>44060</v>
+        <v>44074</v>
       </c>
       <c r="E18" s="8">
-        <v>44170</v>
+        <v>44077</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -990,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="8">
-        <v>44079</v>
+        <v>44074</v>
       </c>
       <c r="E19" s="8">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1011,7 +1156,7 @@
         <v>44074</v>
       </c>
       <c r="E20" s="8">
-        <v>44170</v>
+        <v>44077</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1083,11 +1228,11 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1100,22 +1245,22 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="32" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6"/>
@@ -1126,32 +1271,34 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1162,10 +1309,12 @@
         <v>5</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1176,12 +1325,14 @@
         <v>18</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1192,7 +1343,9 @@
         <v>1</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,10 +1359,12 @@
         <v>9</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1220,10 +1375,12 @@
         <v>14</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1234,10 +1391,12 @@
         <v>6</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1248,12 +1407,14 @@
         <v>19</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1264,10 +1425,12 @@
         <v>2</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1277,11 +1440,13 @@
       <c r="C38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1291,11 +1456,13 @@
       <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1305,13 +1472,15 @@
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1321,8 +1490,10 @@
       <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,22 +1506,28 @@
       <c r="C42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="8">
+        <v>44074</v>
+      </c>
+      <c r="E43" s="15">
+        <v>44077</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,10 +1541,10 @@
         <v>16</v>
       </c>
       <c r="D44" s="8">
-        <v>44053</v>
+        <v>44074</v>
       </c>
       <c r="E44" s="15">
-        <v>44184</v>
+        <v>44077</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -1382,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="8">
-        <v>44060</v>
+        <v>44074</v>
       </c>
       <c r="E45" s="15">
-        <v>44170</v>
+        <v>44077</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>41</v>
@@ -1402,10 +1579,10 @@
         <v>21</v>
       </c>
       <c r="D46" s="8">
-        <v>44079</v>
+        <v>44074</v>
       </c>
       <c r="E46" s="15">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -1423,7 +1600,7 @@
         <v>44074</v>
       </c>
       <c r="E47" s="15">
-        <v>44170</v>
+        <v>44077</v>
       </c>
       <c r="F47" s="4"/>
     </row>
@@ -1512,20 +1689,1653 @@
         <v>44177</v>
       </c>
     </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="8">
+        <v>44074</v>
+      </c>
+      <c r="E55" s="8">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>44074</v>
+      </c>
+      <c r="E56" s="8">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="8">
+        <v>44074</v>
+      </c>
+      <c r="E57" s="8">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>44074</v>
+      </c>
+      <c r="E58" s="8">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="8">
+        <v>44080</v>
+      </c>
+      <c r="E59" s="8">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8">
+        <v>44080</v>
+      </c>
+      <c r="E60" s="8">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="8">
+        <v>44080</v>
+      </c>
+      <c r="E61" s="8">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>44080</v>
+      </c>
+      <c r="E62" s="8">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="8">
+        <v>44080</v>
+      </c>
+      <c r="E63" s="8">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="13">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8">
+        <v>44087</v>
+      </c>
+      <c r="E65" s="8">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="8">
+        <v>44087</v>
+      </c>
+      <c r="E66" s="8">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="8">
+        <v>44087</v>
+      </c>
+      <c r="E67" s="8">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="8">
+        <v>44087</v>
+      </c>
+      <c r="E68" s="8">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="8">
+        <v>44094</v>
+      </c>
+      <c r="E69" s="8">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="8">
+        <v>44094</v>
+      </c>
+      <c r="E70" s="8">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="8">
+        <v>44094</v>
+      </c>
+      <c r="E71" s="8">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8">
+        <v>44094</v>
+      </c>
+      <c r="E72" s="8">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="8">
+        <v>44094</v>
+      </c>
+      <c r="E73" s="8">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="13">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="8">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="8">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="8">
+        <v>44173</v>
+      </c>
+      <c r="E77" s="8">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="8">
+        <v>44173</v>
+      </c>
+      <c r="E78" s="8">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E81" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E82" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E83" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E84" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E85" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E86" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E87" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E88" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E89" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E90" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+      <c r="B91" s="26"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E93" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E94" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E95" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <v>44095</v>
+      </c>
+      <c r="E96" s="8">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E97" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E98" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E99" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E100" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="8">
+        <v>44102</v>
+      </c>
+      <c r="E101" s="8">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="8">
+        <v>44109</v>
+      </c>
+      <c r="E102" s="13">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="8">
+        <v>44109</v>
+      </c>
+      <c r="E103" s="8">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="8">
+        <v>44109</v>
+      </c>
+      <c r="E104" s="8">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="8">
+        <v>44109</v>
+      </c>
+      <c r="E105" s="8">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="8">
+        <v>44109</v>
+      </c>
+      <c r="E106" s="8">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="8">
+        <v>44116</v>
+      </c>
+      <c r="E107" s="8">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="8">
+        <v>44116</v>
+      </c>
+      <c r="E108" s="8">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="8">
+        <v>44116</v>
+      </c>
+      <c r="E109" s="8">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="8">
+        <v>44116</v>
+      </c>
+      <c r="E110" s="8">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="8">
+        <v>44116</v>
+      </c>
+      <c r="E111" s="8">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E112" s="13">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="8">
+        <v>44172</v>
+      </c>
+      <c r="E113" s="8">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="8">
+        <v>44137</v>
+      </c>
+      <c r="E119" s="8">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="8">
+        <v>44137</v>
+      </c>
+      <c r="E120" s="8">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="8">
+        <v>44137</v>
+      </c>
+      <c r="E121" s="8">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="8">
+        <v>44137</v>
+      </c>
+      <c r="E122" s="8">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E123" s="8">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E124" s="8">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E125" s="8">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E126" s="8">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E127" s="8">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="8">
+        <v>44137</v>
+      </c>
+      <c r="E128" s="13">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="8">
+        <v>44151</v>
+      </c>
+      <c r="E129" s="8">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="8">
+        <v>44151</v>
+      </c>
+      <c r="E130" s="8">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="8">
+        <v>44151</v>
+      </c>
+      <c r="E131" s="8">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="8">
+        <v>44151</v>
+      </c>
+      <c r="E132" s="8">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="8">
+        <v>44158</v>
+      </c>
+      <c r="E133" s="8">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="8">
+        <v>44158</v>
+      </c>
+      <c r="E134" s="8">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="8">
+        <v>44158</v>
+      </c>
+      <c r="E135" s="8">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="8">
+        <v>44158</v>
+      </c>
+      <c r="E136" s="8">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="8">
+        <v>44158</v>
+      </c>
+      <c r="E137" s="8">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="8">
+        <v>44165</v>
+      </c>
+      <c r="E138" s="13">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="36"/>
+    </row>
+    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="J170" s="37"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E53">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:E78">
+    <filterColumn colId="4">
       <filters blank="1">
-        <filter val="1º Cham"/>
-        <filter val="2º Cham"/>
-        <filter val="Aap4"/>
-        <filter val="Adg4"/>
-        <filter val="Avsub1"/>
-        <filter val="Avsub2"/>
-        <filter val="Cw4"/>
-        <filter val="Forum1"/>
-        <filter val="Recup"/>
-        <filter val="Ta4"/>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E53">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -789,8 +789,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="J192" sqref="J192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -838,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -935,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -954,7 +954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1086,11 +1086,11 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1099,16 +1099,16 @@
       <c r="D17" s="8">
         <v>44074</v>
       </c>
-      <c r="E17" s="8">
-        <v>44077</v>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1117,8 +1117,8 @@
       <c r="D18" s="8">
         <v>44074</v>
       </c>
-      <c r="E18" s="8">
-        <v>44077</v>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1543,8 +1543,8 @@
       <c r="D44" s="8">
         <v>44074</v>
       </c>
-      <c r="E44" s="15">
-        <v>44077</v>
+      <c r="E44" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F44" s="3"/>
     </row>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$78</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -197,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +262,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -462,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,9 +512,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,22 +788,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -802,7 +812,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -819,7 +829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -838,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -857,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -878,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -897,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -916,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -935,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -954,7 +964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -972,7 +982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -988,7 +998,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1004,7 +1014,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1020,7 +1030,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1036,7 +1046,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1070,7 +1080,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1086,7 +1096,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1104,7 +1114,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1142,7 +1152,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,7 +1170,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1256,7 +1266,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1282,7 +1292,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1298,7 +1308,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1314,7 +1324,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1348,7 +1358,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1364,7 +1374,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1380,7 +1390,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1396,7 +1406,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1414,7 +1424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1430,7 +1440,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1446,7 +1456,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1462,7 +1472,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1496,7 +1506,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1512,7 +1522,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1530,7 +1540,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1548,11 +1558,11 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1561,14 +1571,14 @@
       <c r="D45" s="8">
         <v>44074</v>
       </c>
-      <c r="E45" s="15">
-        <v>44077</v>
+      <c r="E45" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1586,7 +1596,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1604,7 +1614,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1689,19 +1699,19 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1">
       <c r="B54" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="34" t="s">
+    <row r="55" spans="1:5">
+      <c r="B55" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -1714,8 +1724,8 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
+    <row r="56" spans="1:5">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -1728,8 +1738,8 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+    <row r="57" spans="1:5">
+      <c r="B57" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -1742,8 +1752,8 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
+    <row r="58" spans="1:5">
+      <c r="B58" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -1756,8 +1766,8 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+    <row r="59" spans="1:5">
+      <c r="B59" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1770,8 +1780,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="24" t="s">
+    <row r="60" spans="1:5">
+      <c r="B60" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -1784,8 +1794,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="24" t="s">
+    <row r="61" spans="1:5">
+      <c r="B61" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -1798,8 +1808,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="24" t="s">
+    <row r="62" spans="1:5">
+      <c r="B62" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -1812,8 +1822,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -1826,8 +1836,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -1838,8 +1848,8 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="24" t="s">
+    <row r="65" spans="2:5">
+      <c r="B65" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -1852,8 +1862,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="24" t="s">
+    <row r="66" spans="2:5">
+      <c r="B66" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -1866,8 +1876,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
+    <row r="67" spans="2:5">
+      <c r="B67" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -1880,8 +1890,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
+    <row r="68" spans="2:5">
+      <c r="B68" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -1894,7 +1904,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5">
       <c r="B69" s="24" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5">
       <c r="B70" s="24" t="s">
         <v>33</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5">
       <c r="B71" s="24" t="s">
         <v>34</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5">
       <c r="B72" s="24" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5">
       <c r="B73" s="24" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5">
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5">
       <c r="B75" s="6" t="s">
         <v>22</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5">
       <c r="B76" s="6" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5">
       <c r="B77" s="6" t="s">
         <v>23</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5">
       <c r="B78" s="6" t="s">
         <v>23</v>
       </c>
@@ -2028,18 +2038,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="15.75" thickBot="1">
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
     </row>
-    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="15.75" thickBot="1">
       <c r="B80" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="B81" s="34" t="s">
         <v>32</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="B82" s="24" t="s">
         <v>33</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="B83" s="24" t="s">
         <v>34</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="B84" s="24" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="B85" s="24" t="s">
         <v>37</v>
       </c>
@@ -2109,7 +2119,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="B86" s="24" t="s">
         <v>32</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="B87" s="24" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="B88" s="24" t="s">
         <v>34</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="B89" s="24" t="s">
         <v>35</v>
       </c>
@@ -2165,7 +2175,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="B90" s="24" t="s">
         <v>37</v>
       </c>
@@ -2179,16 +2189,16 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A91" s="23"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1">
       <c r="B92" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="B93" s="34" t="s">
         <v>32</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="B94" s="24" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="B95" s="24" t="s">
         <v>34</v>
       </c>
@@ -2230,7 +2240,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="B96" s="24" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="B97" s="24" t="s">
         <v>32</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="B98" s="24" t="s">
         <v>33</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5">
       <c r="B99" s="24" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5">
       <c r="B100" s="24" t="s">
         <v>35</v>
       </c>
@@ -2300,7 +2310,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5">
       <c r="B101" s="24" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2324,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5">
       <c r="B102" s="24" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5">
       <c r="B103" s="24" t="s">
         <v>32</v>
       </c>
@@ -2342,7 +2352,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5">
       <c r="B104" s="24" t="s">
         <v>33</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5">
       <c r="B105" s="24" t="s">
         <v>34</v>
       </c>
@@ -2370,7 +2380,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="B106" s="24" t="s">
         <v>35</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5">
       <c r="B107" s="24" t="s">
         <v>32</v>
       </c>
@@ -2398,7 +2408,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5">
       <c r="B108" s="24" t="s">
         <v>33</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5">
       <c r="B109" s="24" t="s">
         <v>34</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5">
       <c r="B110" s="24" t="s">
         <v>35</v>
       </c>
@@ -2440,7 +2450,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5">
       <c r="B111" s="24" t="s">
         <v>37</v>
       </c>
@@ -2454,7 +2464,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5">
       <c r="B112" s="24" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5">
       <c r="B113" s="6" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5">
       <c r="B114" s="6" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2502,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5">
       <c r="B115" s="6" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +2512,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="B116" s="6" t="s">
         <v>23</v>
       </c>
@@ -2512,13 +2522,13 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="118" spans="2:5" ht="15.75" thickBot="1">
       <c r="B118" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5">
       <c r="B119" s="34" t="s">
         <v>32</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5">
       <c r="B120" s="24" t="s">
         <v>33</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5">
       <c r="B121" s="24" t="s">
         <v>34</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5">
       <c r="B122" s="24" t="s">
         <v>35</v>
       </c>
@@ -2574,7 +2584,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5">
       <c r="B123" s="24" t="s">
         <v>32</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5">
       <c r="B124" s="24" t="s">
         <v>33</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5">
       <c r="B125" s="24" t="s">
         <v>34</v>
       </c>
@@ -2616,7 +2626,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5">
       <c r="B126" s="24" t="s">
         <v>35</v>
       </c>
@@ -2630,7 +2640,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5">
       <c r="B127" s="24" t="s">
         <v>37</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5">
       <c r="B128" s="24" t="s">
         <v>36</v>
       </c>
@@ -2658,7 +2668,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5">
       <c r="B129" s="24" t="s">
         <v>32</v>
       </c>
@@ -2672,7 +2682,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5">
       <c r="B130" s="24" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5">
       <c r="B131" s="24" t="s">
         <v>34</v>
       </c>
@@ -2700,7 +2710,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5">
       <c r="B132" s="24" t="s">
         <v>35</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5">
       <c r="B133" s="24" t="s">
         <v>32</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5">
       <c r="B134" s="24" t="s">
         <v>33</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5">
       <c r="B135" s="24" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2766,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5">
       <c r="B136" s="24" t="s">
         <v>35</v>
       </c>
@@ -2770,7 +2780,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5">
       <c r="B137" s="24" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2794,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5">
       <c r="B138" s="24" t="s">
         <v>22</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5">
       <c r="B139" s="6" t="s">
         <v>22</v>
       </c>
@@ -2808,7 +2818,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5">
       <c r="B140" s="6" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2828,7 @@
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5">
       <c r="B141" s="6" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2838,7 @@
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5">
       <c r="B142" s="31" t="s">
         <v>23</v>
       </c>
@@ -2838,17 +2848,17 @@
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="15.75" thickBot="1">
       <c r="B143" s="36"/>
     </row>
-    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="15.75" thickBot="1">
       <c r="B144" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5">
       <c r="B145" s="34" t="s">
         <v>32</v>
       </c>
@@ -2858,7 +2868,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5">
       <c r="B146" s="24" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2878,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5">
       <c r="B147" s="24" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2888,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5">
       <c r="B148" s="24" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2898,7 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5">
       <c r="B149" s="24" t="s">
         <v>32</v>
       </c>
@@ -2898,7 +2908,7 @@
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5">
       <c r="B150" s="24" t="s">
         <v>34</v>
       </c>
@@ -2908,7 +2918,7 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5">
       <c r="B151" s="24" t="s">
         <v>32</v>
       </c>
@@ -2918,7 +2928,7 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5">
       <c r="B152" s="24" t="s">
         <v>34</v>
       </c>
@@ -2928,7 +2938,7 @@
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5">
       <c r="B153" s="24" t="s">
         <v>37</v>
       </c>
@@ -2938,15 +2948,15 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="155" spans="2:5" ht="15.75" thickBot="1">
       <c r="B155" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="29"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5">
       <c r="B156" s="34" t="s">
         <v>32</v>
       </c>
@@ -2956,7 +2966,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5">
       <c r="B157" s="24" t="s">
         <v>34</v>
       </c>
@@ -2966,7 +2976,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5">
       <c r="B158" s="24" t="s">
         <v>32</v>
       </c>
@@ -2976,7 +2986,7 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5">
       <c r="B159" s="24" t="s">
         <v>34</v>
       </c>
@@ -2986,7 +2996,7 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5">
       <c r="B160" s="24" t="s">
         <v>32</v>
       </c>
@@ -2996,7 +3006,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10">
       <c r="B161" s="24" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3016,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10">
       <c r="B162" s="24" t="s">
         <v>32</v>
       </c>
@@ -3016,7 +3026,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10">
       <c r="B163" s="24" t="s">
         <v>34</v>
       </c>
@@ -3026,7 +3036,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10">
       <c r="B164" s="24" t="s">
         <v>37</v>
       </c>
@@ -3036,15 +3046,15 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="166" spans="2:10" ht="15.75" thickBot="1">
       <c r="B166" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="29"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10">
       <c r="B167" s="34" t="s">
         <v>32</v>
       </c>
@@ -3054,7 +3064,7 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10">
       <c r="B168" s="24" t="s">
         <v>34</v>
       </c>
@@ -3064,7 +3074,7 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10">
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
@@ -3074,7 +3084,7 @@
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:10">
       <c r="B170" s="24" t="s">
         <v>34</v>
       </c>
@@ -3085,7 +3095,7 @@
       <c r="E170" s="6"/>
       <c r="J170" s="37"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10">
       <c r="B171" s="24" t="s">
         <v>32</v>
       </c>
@@ -3095,7 +3105,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:10">
       <c r="B172" s="24" t="s">
         <v>34</v>
       </c>
@@ -3105,7 +3115,7 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:10">
       <c r="B173" s="24" t="s">
         <v>32</v>
       </c>
@@ -3115,7 +3125,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10">
       <c r="B174" s="24" t="s">
         <v>34</v>
       </c>
@@ -3125,7 +3135,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10">
       <c r="B175" s="24" t="s">
         <v>37</v>
       </c>
@@ -3135,15 +3145,15 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="177" spans="2:5" ht="15.75" thickBot="1">
       <c r="B177" s="35" t="s">
         <v>54</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="29"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5">
       <c r="B178" s="34" t="s">
         <v>32</v>
       </c>
@@ -3153,7 +3163,7 @@
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5">
       <c r="B179" s="24" t="s">
         <v>34</v>
       </c>
@@ -3163,7 +3173,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5">
       <c r="B180" s="24" t="s">
         <v>32</v>
       </c>
@@ -3173,7 +3183,7 @@
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5">
       <c r="B181" s="24" t="s">
         <v>34</v>
       </c>
@@ -3183,7 +3193,7 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5">
       <c r="B182" s="24" t="s">
         <v>32</v>
       </c>
@@ -3193,7 +3203,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5">
       <c r="B183" s="24" t="s">
         <v>34</v>
       </c>
@@ -3203,7 +3213,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5">
       <c r="B184" s="24" t="s">
         <v>32</v>
       </c>
@@ -3213,7 +3223,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5">
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
@@ -3223,7 +3233,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5">
       <c r="B186" s="24" t="s">
         <v>37</v>
       </c>
@@ -3233,15 +3243,15 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="188" spans="2:5" ht="15.75" thickBot="1">
       <c r="B188" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5">
       <c r="B189" s="34" t="s">
         <v>32</v>
       </c>
@@ -3251,7 +3261,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5">
       <c r="B190" s="24" t="s">
         <v>34</v>
       </c>
@@ -3261,7 +3271,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5">
       <c r="B191" s="24" t="s">
         <v>32</v>
       </c>
@@ -3271,7 +3281,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5">
       <c r="B192" s="24" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3291,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5">
       <c r="B193" s="24" t="s">
         <v>32</v>
       </c>
@@ -3291,7 +3301,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5">
       <c r="B194" s="24" t="s">
         <v>34</v>
       </c>
@@ -3301,7 +3311,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5">
       <c r="B195" s="24" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3321,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5">
       <c r="B196" s="24" t="s">
         <v>34</v>
       </c>
@@ -3321,7 +3331,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5">
       <c r="B197" s="24" t="s">
         <v>37</v>
       </c>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -192,8 +197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,22 +793,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -812,7 +817,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -829,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -848,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -867,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -888,7 +893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -907,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -926,7 +931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -945,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -964,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -982,7 +987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -998,7 +1003,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1014,7 +1019,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1030,7 +1035,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1046,7 +1051,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1080,7 +1085,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1114,7 +1119,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1152,7 +1157,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1170,7 +1175,7 @@
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1266,7 +1271,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1292,7 +1297,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1308,7 +1313,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1324,7 +1329,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1374,7 +1379,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1406,7 +1411,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1440,7 +1445,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1456,7 +1461,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1472,7 +1477,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1506,7 +1511,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1522,11 +1527,11 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1535,12 +1540,12 @@
       <c r="D43" s="8">
         <v>44074</v>
       </c>
-      <c r="E43" s="15">
-        <v>44077</v>
+      <c r="E43" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1558,7 +1563,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1578,11 +1583,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1591,16 +1596,16 @@
       <c r="D46" s="8">
         <v>44074</v>
       </c>
-      <c r="E46" s="15">
-        <v>44077</v>
+      <c r="E46" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1609,12 +1614,12 @@
       <c r="D47" s="8">
         <v>44074</v>
       </c>
-      <c r="E47" s="15">
-        <v>44077</v>
+      <c r="E47" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1699,18 +1704,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>32</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="40" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="40" t="s">
         <v>33</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="40" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="40" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="38" t="s">
         <v>36</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1881,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="38" t="s">
         <v>35</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="24" t="s">
         <v>32</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
         <v>33</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="24" t="s">
         <v>35</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>22</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>22</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>22</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2029,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>23</v>
       </c>
@@ -2038,18 +2043,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1">
+    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
     </row>
-    <row r="80" spans="2:5" ht="15.75" thickBot="1">
+    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="34" t="s">
         <v>32</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="24" t="s">
         <v>35</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
         <v>37</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="24" t="s">
         <v>32</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="24" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="24" t="s">
         <v>34</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="24" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
         <v>37</v>
       </c>
@@ -2189,16 +2194,16 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="25" customFormat="1" ht="15.75" thickBot="1">
+    <row r="91" spans="1:5" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="34" t="s">
         <v>32</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="24" t="s">
         <v>34</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="24" t="s">
         <v>35</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="24" t="s">
         <v>32</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
         <v>33</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
         <v>34</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
         <v>35</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
         <v>37</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
         <v>36</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="24" t="s">
         <v>33</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
         <v>34</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
         <v>35</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="24" t="s">
         <v>33</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="24" t="s">
         <v>34</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="24" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="24" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2469,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="24" t="s">
         <v>22</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>22</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>23</v>
       </c>
@@ -2512,7 +2517,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>23</v>
       </c>
@@ -2522,13 +2527,13 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="118" spans="2:5" ht="15.75" thickBot="1">
+    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="34" t="s">
         <v>32</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="24" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2561,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="121" spans="2:5">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="24" t="s">
         <v>34</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="122" spans="2:5">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
         <v>35</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="123" spans="2:5">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
         <v>32</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="24" t="s">
         <v>33</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="24" t="s">
         <v>34</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="24" t="s">
         <v>35</v>
       </c>
@@ -2640,7 +2645,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="24" t="s">
         <v>37</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="24" t="s">
         <v>36</v>
       </c>
@@ -2668,7 +2673,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="24" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="24" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="24" t="s">
         <v>34</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="24" t="s">
         <v>35</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="24" t="s">
         <v>32</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="24" t="s">
         <v>33</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="24" t="s">
         <v>34</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="24" t="s">
         <v>35</v>
       </c>
@@ -2780,7 +2785,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="24" t="s">
         <v>37</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="24" t="s">
         <v>22</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2823,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>22</v>
       </c>
@@ -2828,7 +2833,7 @@
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="2:5">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>23</v>
       </c>
@@ -2838,7 +2843,7 @@
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="31" t="s">
         <v>23</v>
       </c>
@@ -2848,17 +2853,17 @@
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="2:5" ht="15.75" thickBot="1">
+    <row r="143" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="36"/>
     </row>
-    <row r="144" spans="2:5" ht="15.75" thickBot="1">
+    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="35" t="s">
         <v>50</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="34" t="s">
         <v>32</v>
       </c>
@@ -2868,7 +2873,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="24" t="s">
         <v>34</v>
       </c>
@@ -2878,7 +2883,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="24" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +2893,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="24" t="s">
         <v>34</v>
       </c>
@@ -2898,7 +2903,7 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="24" t="s">
         <v>32</v>
       </c>
@@ -2908,7 +2913,7 @@
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="24" t="s">
         <v>34</v>
       </c>
@@ -2918,7 +2923,7 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="24" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2933,7 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="24" t="s">
         <v>34</v>
       </c>
@@ -2938,7 +2943,7 @@
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="24" t="s">
         <v>37</v>
       </c>
@@ -2948,15 +2953,15 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="155" spans="2:5" ht="15.75" thickBot="1">
+    <row r="154" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="29"/>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="34" t="s">
         <v>32</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="24" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2981,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="2:5">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="24" t="s">
         <v>32</v>
       </c>
@@ -2986,7 +2991,7 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="24" t="s">
         <v>34</v>
       </c>
@@ -2996,7 +3001,7 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="24" t="s">
         <v>32</v>
       </c>
@@ -3006,7 +3011,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="24" t="s">
         <v>34</v>
       </c>
@@ -3016,7 +3021,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="24" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="24" t="s">
         <v>34</v>
       </c>
@@ -3036,7 +3041,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="24" t="s">
         <v>37</v>
       </c>
@@ -3046,15 +3051,15 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="166" spans="2:10" ht="15.75" thickBot="1">
+    <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="29"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="34" t="s">
         <v>32</v>
       </c>
@@ -3064,7 +3069,7 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
         <v>34</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
@@ -3084,7 +3089,7 @@
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="24" t="s">
         <v>34</v>
       </c>
@@ -3095,7 +3100,7 @@
       <c r="E170" s="6"/>
       <c r="J170" s="37"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="24" t="s">
         <v>32</v>
       </c>
@@ -3105,7 +3110,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="24" t="s">
         <v>34</v>
       </c>
@@ -3115,7 +3120,7 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="24" t="s">
         <v>32</v>
       </c>
@@ -3125,7 +3130,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="24" t="s">
         <v>34</v>
       </c>
@@ -3135,7 +3140,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="24" t="s">
         <v>37</v>
       </c>
@@ -3145,15 +3150,15 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="177" spans="2:5" ht="15.75" thickBot="1">
+    <row r="176" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="35" t="s">
         <v>54</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="29"/>
     </row>
-    <row r="178" spans="2:5">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
         <v>32</v>
       </c>
@@ -3163,7 +3168,7 @@
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="2:5">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="24" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3178,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="24" t="s">
         <v>32</v>
       </c>
@@ -3183,7 +3188,7 @@
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="24" t="s">
         <v>34</v>
       </c>
@@ -3193,7 +3198,7 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="24" t="s">
         <v>32</v>
       </c>
@@ -3203,7 +3208,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="24" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +3218,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="24" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +3228,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="24" t="s">
         <v>34</v>
       </c>
@@ -3233,7 +3238,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="24" t="s">
         <v>37</v>
       </c>
@@ -3243,15 +3248,15 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="188" spans="2:5" ht="15.75" thickBot="1">
+    <row r="187" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29"/>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="34" t="s">
         <v>32</v>
       </c>
@@ -3261,7 +3266,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="24" t="s">
         <v>34</v>
       </c>
@@ -3271,7 +3276,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="24" t="s">
         <v>32</v>
       </c>
@@ -3281,7 +3286,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="24" t="s">
         <v>34</v>
       </c>
@@ -3291,7 +3296,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="24" t="s">
         <v>32</v>
       </c>
@@ -3301,7 +3306,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="24" t="s">
         <v>34</v>
       </c>
@@ -3311,7 +3316,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="24" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3326,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="24" t="s">
         <v>34</v>
       </c>
@@ -3331,7 +3336,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="24" t="s">
         <v>37</v>
       </c>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,7 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -788,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,7 +799,7 @@
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1710,8 +1709,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="39" t="s">
+    <row r="55" spans="1:5" hidden="1">
+      <c r="B55" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -1720,12 +1719,12 @@
       <c r="D55" s="8">
         <v>44074</v>
       </c>
-      <c r="E55" s="8">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="9" t="s">
+      <c r="E55" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
+      <c r="B56" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -1734,8 +1733,8 @@
       <c r="D56" s="8">
         <v>44074</v>
       </c>
-      <c r="E56" s="8">
-        <v>44077</v>
+      <c r="E56" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1767,7 +1766,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1781,7 +1780,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -1795,7 +1794,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -1809,7 +1808,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="6" t="s">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -787,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,7 +799,7 @@
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1291,7 +1291,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1521,11 +1521,11 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1534,8 +1534,8 @@
       <c r="D43" s="8">
         <v>44074</v>
       </c>
-      <c r="E43" s="15">
-        <v>44077</v>
+      <c r="E43" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F43" s="2"/>
     </row>
@@ -1577,11 +1577,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1590,16 +1590,16 @@
       <c r="D46" s="8">
         <v>44074</v>
       </c>
-      <c r="E46" s="15">
-        <v>44077</v>
+      <c r="E46" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1608,8 +1608,8 @@
       <c r="D47" s="8">
         <v>44074</v>
       </c>
-      <c r="E47" s="15">
-        <v>44077</v>
+      <c r="E47" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F47" s="4"/>
     </row>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$197</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="54">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -795,7 +795,7 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,8 +1074,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1084,13 +1084,13 @@
       <c r="C19" s="7">
         <v>44074</v>
       </c>
-      <c r="D19" s="7">
-        <v>44077</v>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1099,8 +1099,8 @@
       <c r="C20" s="7">
         <v>44074</v>
       </c>
-      <c r="D20" s="7">
-        <v>44077</v>
+      <c r="D20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="11"/>
     </row>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$197</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="54">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -194,8 +189,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -510,9 +505,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,22 +779,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -806,7 +802,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -820,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -836,7 +832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -852,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -870,7 +866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -886,7 +882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -902,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -918,7 +914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -934,7 +930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -949,7 +945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -962,7 +958,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -975,7 +971,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -988,7 +984,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +997,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1029,7 +1025,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1042,7 +1038,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1053,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1089,7 +1085,7 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1104,8 +1100,8 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1118,7 +1114,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1128,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1142,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1178,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="30" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="26" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1198,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1211,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1252,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1265,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1278,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -1295,7 +1291,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1323,7 +1319,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="15" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1332,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="16" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1345,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="16" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1373,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -1390,7 +1386,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -1405,7 +1401,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1416,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1467,7 +1463,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1477,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1519,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1537,18 +1533,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
       <c r="A54" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" s="25" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -1576,8 +1572,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:4" hidden="1">
+      <c r="A57" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -1586,12 +1582,12 @@
       <c r="C57" s="7">
         <v>44074</v>
       </c>
-      <c r="D57" s="7">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1">
+      <c r="A58" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -1600,11 +1596,11 @@
       <c r="C58" s="7">
         <v>44074</v>
       </c>
-      <c r="D58" s="7">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="37" t="s">
         <v>31</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="37" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="37" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1642,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="37" t="s">
         <v>34</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="36" t="s">
         <v>36</v>
       </c>
@@ -1674,8 +1670,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -1686,7 +1682,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="36" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1696,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="36" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1710,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="36" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1724,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="36" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="22" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="22" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1766,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="22" t="s">
         <v>33</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="22" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1794,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="22" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="22" t="s">
         <v>22</v>
       </c>
@@ -1824,7 +1820,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -1876,18 +1872,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1">
       <c r="A80" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="32" t="s">
         <v>31</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="22" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1911,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="22" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1925,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="22" t="s">
         <v>34</v>
       </c>
@@ -1943,7 +1939,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="22" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="22" t="s">
         <v>31</v>
       </c>
@@ -1971,7 +1967,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="22" t="s">
         <v>32</v>
       </c>
@@ -1985,7 +1981,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="22" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="22" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2009,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="22" t="s">
         <v>36</v>
       </c>
@@ -2027,15 +2023,15 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="A91" s="24"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.75" thickBot="1">
       <c r="A92" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="32" t="s">
         <v>31</v>
       </c>
@@ -2049,7 +2045,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="22" t="s">
         <v>32</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="22" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="22" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2087,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="22" t="s">
         <v>31</v>
       </c>
@@ -2105,7 +2101,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="22" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="22" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2129,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="22" t="s">
         <v>34</v>
       </c>
@@ -2147,7 +2143,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="22" t="s">
         <v>36</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="22" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="22" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2185,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="22" t="s">
         <v>32</v>
       </c>
@@ -2203,7 +2199,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="22" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="22" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +2227,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="22" t="s">
         <v>31</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="22" t="s">
         <v>32</v>
       </c>
@@ -2259,7 +2255,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="22" t="s">
         <v>33</v>
       </c>
@@ -2273,7 +2269,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="22" t="s">
         <v>34</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="22" t="s">
         <v>36</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="22" t="s">
         <v>22</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2325,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +2335,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
         <v>23</v>
       </c>
@@ -2349,7 +2345,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
         <v>23</v>
       </c>
@@ -2359,13 +2355,13 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1">
       <c r="A118" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="32" t="s">
         <v>31</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="22" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2389,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="22" t="s">
         <v>33</v>
       </c>
@@ -2407,7 +2403,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="22" t="s">
         <v>34</v>
       </c>
@@ -2421,7 +2417,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="22" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2431,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="22" t="s">
         <v>32</v>
       </c>
@@ -2449,7 +2445,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="22" t="s">
         <v>33</v>
       </c>
@@ -2463,7 +2459,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="22" t="s">
         <v>34</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="22" t="s">
         <v>36</v>
       </c>
@@ -2491,7 +2487,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="22" t="s">
         <v>35</v>
       </c>
@@ -2505,7 +2501,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="22" t="s">
         <v>31</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="22" t="s">
         <v>32</v>
       </c>
@@ -2533,7 +2529,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="22" t="s">
         <v>33</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="22" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="22" t="s">
         <v>31</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="22" t="s">
         <v>32</v>
       </c>
@@ -2589,7 +2585,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="22" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2599,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="22" t="s">
         <v>34</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="22" t="s">
         <v>36</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="22" t="s">
         <v>22</v>
       </c>
@@ -2645,7 +2641,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
         <v>22</v>
       </c>
@@ -2655,7 +2651,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
         <v>22</v>
       </c>
@@ -2665,7 +2661,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
         <v>23</v>
       </c>
@@ -2675,7 +2671,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="29" t="s">
         <v>23</v>
       </c>
@@ -2685,17 +2681,17 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.75" thickBot="1">
       <c r="A143" s="34"/>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15.75" thickBot="1">
       <c r="A144" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="32" t="s">
         <v>31</v>
       </c>
@@ -2705,7 +2701,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="22" t="s">
         <v>33</v>
       </c>
@@ -2715,7 +2711,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="22" t="s">
         <v>31</v>
       </c>
@@ -2725,7 +2721,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="22" t="s">
         <v>33</v>
       </c>
@@ -2735,7 +2731,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="22" t="s">
         <v>31</v>
       </c>
@@ -2745,7 +2741,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="22" t="s">
         <v>33</v>
       </c>
@@ -2755,7 +2751,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="22" t="s">
         <v>31</v>
       </c>
@@ -2765,7 +2761,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="22" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2771,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="22" t="s">
         <v>36</v>
       </c>
@@ -2785,15 +2781,15 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1">
       <c r="A155" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C155" s="27"/>
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="32" t="s">
         <v>31</v>
       </c>
@@ -2803,7 +2799,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="22" t="s">
         <v>33</v>
       </c>
@@ -2813,7 +2809,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="22" t="s">
         <v>31</v>
       </c>
@@ -2823,7 +2819,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="22" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2829,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="22" t="s">
         <v>31</v>
       </c>
@@ -2843,7 +2839,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="22" t="s">
         <v>33</v>
       </c>
@@ -2853,7 +2849,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="22" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2859,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="22" t="s">
         <v>33</v>
       </c>
@@ -2873,7 +2869,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="22" t="s">
         <v>36</v>
       </c>
@@ -2883,15 +2879,15 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="166" spans="1:9" ht="15.75" thickBot="1">
       <c r="A166" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="32" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2897,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="22" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2907,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="22" t="s">
         <v>31</v>
       </c>
@@ -2921,7 +2917,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="22" t="s">
         <v>33</v>
       </c>
@@ -2932,7 +2928,7 @@
       <c r="D170" s="5"/>
       <c r="I170" s="35"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="22" t="s">
         <v>31</v>
       </c>
@@ -2942,7 +2938,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="22" t="s">
         <v>33</v>
       </c>
@@ -2952,7 +2948,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="22" t="s">
         <v>31</v>
       </c>
@@ -2962,7 +2958,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="22" t="s">
         <v>33</v>
       </c>
@@ -2972,7 +2968,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="22" t="s">
         <v>36</v>
       </c>
@@ -2982,15 +2978,15 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1">
       <c r="A177" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C177" s="27"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="32" t="s">
         <v>31</v>
       </c>
@@ -3000,7 +2996,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="22" t="s">
         <v>33</v>
       </c>
@@ -3010,7 +3006,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="22" t="s">
         <v>31</v>
       </c>
@@ -3020,7 +3016,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="22" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +3026,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="22" t="s">
         <v>31</v>
       </c>
@@ -3040,7 +3036,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="22" t="s">
         <v>33</v>
       </c>
@@ -3050,7 +3046,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="22" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3056,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="22" t="s">
         <v>33</v>
       </c>
@@ -3070,7 +3066,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="22" t="s">
         <v>36</v>
       </c>
@@ -3080,15 +3076,15 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1">
       <c r="A188" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C188" s="27"/>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="32" t="s">
         <v>31</v>
       </c>
@@ -3098,7 +3094,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="22" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3104,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="22" t="s">
         <v>31</v>
       </c>
@@ -3118,7 +3114,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="22" t="s">
         <v>33</v>
       </c>
@@ -3128,7 +3124,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="22" t="s">
         <v>31</v>
       </c>
@@ -3138,7 +3134,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="22" t="s">
         <v>33</v>
       </c>
@@ -3148,7 +3144,7 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="22" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3154,7 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="22" t="s">
         <v>33</v>
       </c>
@@ -3168,7 +3164,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="22" t="s">
         <v>36</v>
       </c>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Língua Inglesa I</t>
+  </si>
+  <si>
+    <t>np</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -505,7 +508,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,7 +795,7 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,8 +806,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -816,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -832,7 +836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -848,7 +852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -866,7 +870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -898,7 +902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -914,7 +918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -930,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -945,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -971,7 +975,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -984,7 +988,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -997,7 +1001,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1038,7 +1042,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1057,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1100,21 +1104,21 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="38">
         <v>44088</v>
       </c>
-      <c r="D21" s="12">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1124,11 +1128,11 @@
       <c r="C22" s="7">
         <v>44172</v>
       </c>
-      <c r="D22" s="7">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1138,11 +1142,11 @@
       <c r="C23" s="7">
         <v>44179</v>
       </c>
-      <c r="D23" s="7">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1152,11 +1156,11 @@
       <c r="C24" s="7">
         <v>44173</v>
       </c>
-      <c r="D24" s="7">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
@@ -1166,8 +1170,8 @@
       <c r="C25" s="7">
         <v>44173</v>
       </c>
-      <c r="D25" s="7">
-        <v>44177</v>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
@@ -1505,7 +1509,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1515,11 +1519,11 @@
       <c r="C51" s="7">
         <v>44173</v>
       </c>
-      <c r="D51" s="7">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1529,8 +1533,8 @@
       <c r="C52" s="7">
         <v>44173</v>
       </c>
-      <c r="D52" s="7">
-        <v>44177</v>
+      <c r="D52" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1">
@@ -1600,8 +1604,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:4" hidden="1">
+      <c r="A59" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -1610,8 +1614,8 @@
       <c r="C59" s="7">
         <v>44080</v>
       </c>
-      <c r="D59" s="7">
-        <v>44084</v>
+      <c r="D59" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2986,15 +2990,17 @@
       <c r="C177" s="27"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="32" t="s">
+    <row r="178" spans="1:4" hidden="1">
+      <c r="A178" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="22" t="s">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$197</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -192,8 +197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -478,7 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -512,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,22 +787,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -806,8 +810,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -820,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -831,12 +835,12 @@
       <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -847,12 +851,12 @@
       <c r="D3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="G3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -863,14 +867,14 @@
       <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -881,12 +885,12 @@
       <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="G5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -897,12 +901,12 @@
       <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -913,12 +917,12 @@
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="G7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -929,120 +933,120 @@
       <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
       <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1">
-      <c r="A11" s="15" t="s">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1055,9 +1059,9 @@
       <c r="D17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1070,11 +1074,11 @@
       <c r="D18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1087,9 +1091,9 @@
       <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1102,23 +1106,23 @@
       <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>44088</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="D21" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1160,8 +1164,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1174,36 +1178,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A27" s="30" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>44058</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1">
-      <c r="A29" s="25" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1215,7 +1219,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1232,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1260,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1273,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1286,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -1295,7 +1299,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1323,40 +1327,40 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" hidden="1">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" hidden="1">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="5" t="s">
         <v>48</v>
       </c>
@@ -1364,33 +1368,33 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -1400,12 +1404,12 @@
       <c r="C43" s="7">
         <v>44074</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" hidden="1">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -1415,12 +1419,12 @@
       <c r="C44" s="7">
         <v>44074</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -1430,14 +1434,14 @@
       <c r="C45" s="7">
         <v>44074</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -1447,12 +1451,12 @@
       <c r="C46" s="7">
         <v>44074</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1462,26 +1466,26 @@
       <c r="C47" s="7">
         <v>44074</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>44158</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1537,19 +1541,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A54" s="33" t="s">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1562,7 +1566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -1576,8 +1580,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -1590,8 +1594,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -1604,8 +1608,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -1618,8 +1622,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="37" t="s">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -1628,12 +1632,12 @@
       <c r="C60" s="7">
         <v>44080</v>
       </c>
-      <c r="D60" s="7">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="37" t="s">
+      <c r="D60" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1646,8 +1650,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1660,8 +1664,8 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="36" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -1674,7 +1678,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>35</v>
       </c>
@@ -1682,12 +1686,12 @@
         <v>17</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="12">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="36" t="s">
+      <c r="D64" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1700,8 +1704,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="36" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -1714,8 +1718,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="36" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -1728,8 +1732,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="36" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -1742,8 +1746,8 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="22" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1756,8 +1760,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="22" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -1770,8 +1774,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="22" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -1784,8 +1788,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="22" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1798,8 +1802,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -1812,19 +1816,19 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="22" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -1876,19 +1880,19 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A80" s="26" t="s">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="32" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -1901,8 +1905,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -1915,8 +1919,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="22" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1929,8 +1933,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -1943,8 +1947,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="22" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -1957,8 +1961,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -1971,8 +1975,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="22" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1985,8 +1989,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -1999,8 +2003,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="22" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -2013,8 +2017,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -2027,16 +2031,16 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="23" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A91" s="24"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A92" s="26" t="s">
+    <row r="91" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="32" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -2049,8 +2053,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -2063,8 +2067,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -2077,8 +2081,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="22" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -2091,8 +2095,8 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="22" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -2105,8 +2109,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -2119,8 +2123,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="22" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -2133,8 +2137,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="22" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -2147,8 +2151,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="22" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -2161,8 +2165,8 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="22" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -2171,12 +2175,12 @@
       <c r="C102" s="7">
         <v>44109</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="11">
         <v>44130</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="22" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -2189,8 +2193,8 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="22" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -2203,8 +2207,8 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="22" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -2217,8 +2221,8 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="22" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -2231,8 +2235,8 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="22" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -2245,8 +2249,8 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="22" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -2259,8 +2263,8 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="22" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -2273,8 +2277,8 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="22" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -2287,8 +2291,8 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="22" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -2301,8 +2305,8 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="22" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -2311,11 +2315,11 @@
       <c r="C112" s="7">
         <v>44144</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="11">
         <v>44149</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +2343,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>23</v>
       </c>
@@ -2349,7 +2353,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>23</v>
       </c>
@@ -2359,14 +2363,14 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A118" s="33" t="s">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="32" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -2379,8 +2383,8 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="22" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -2393,8 +2397,8 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="22" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -2407,8 +2411,8 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="22" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -2421,8 +2425,8 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="22" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -2435,8 +2439,8 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="22" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -2449,8 +2453,8 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="22" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -2463,8 +2467,8 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="22" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -2477,8 +2481,8 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="22" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -2491,8 +2495,8 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="22" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -2501,12 +2505,12 @@
       <c r="C128" s="7">
         <v>44137</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="11">
         <v>44158</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="22" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -2519,8 +2523,8 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="22" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -2533,8 +2537,8 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="22" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -2547,8 +2551,8 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="22" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -2561,8 +2565,8 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="22" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -2575,8 +2579,8 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="22" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -2589,8 +2593,8 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="22" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -2603,8 +2607,8 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="22" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -2617,8 +2621,8 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="22" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -2631,8 +2635,8 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="22" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -2641,11 +2645,11 @@
       <c r="C138" s="7">
         <v>44165</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="11">
         <v>44170</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>22</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>22</v>
       </c>
@@ -2665,7 +2669,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>23</v>
       </c>
@@ -2675,8 +2679,8 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="29" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -2685,18 +2689,18 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A143" s="34"/>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A144" s="33" t="s">
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="32" t="s">
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -2705,8 +2709,8 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="22" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -2715,8 +2719,8 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="22" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -2725,8 +2729,8 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="22" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -2735,8 +2739,8 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="22" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -2745,8 +2749,8 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="22" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -2755,8 +2759,8 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="22" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -2765,8 +2769,8 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="22" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -2775,8 +2779,8 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="22" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -2785,16 +2789,16 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A155" s="33" t="s">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="32" t="s">
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -2803,8 +2807,8 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="22" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -2813,8 +2817,8 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="22" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -2823,8 +2827,8 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="22" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -2833,8 +2837,8 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="22" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -2843,8 +2847,8 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="22" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -2853,8 +2857,8 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="22" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -2863,8 +2867,8 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="22" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -2873,8 +2877,8 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="22" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -2883,16 +2887,16 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A166" s="33" t="s">
+    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="32" t="s">
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -2901,8 +2905,8 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="22" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -2911,8 +2915,8 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="22" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -2921,8 +2925,8 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="22" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -2930,10 +2934,10 @@
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="I170" s="35"/>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="22" t="s">
+      <c r="I170" s="34"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -2942,8 +2946,8 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="22" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -2952,8 +2956,8 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="22" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -2962,8 +2966,8 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="22" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -2972,8 +2976,8 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="22" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -2982,16 +2986,16 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A177" s="33" t="s">
+    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-    </row>
-    <row r="178" spans="1:4" hidden="1">
-      <c r="A178" s="25" t="s">
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -3002,8 +3006,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="22" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -3012,8 +3016,8 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="22" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -3022,8 +3026,8 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="22" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -3032,8 +3036,8 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="22" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -3042,8 +3046,8 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="22" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -3052,8 +3056,8 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="22" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -3062,8 +3066,8 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="22" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -3072,8 +3076,8 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="22" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -3082,16 +3086,16 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A188" s="33" t="s">
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="32" t="s">
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -3100,8 +3104,8 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="22" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -3110,8 +3114,8 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="22" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -3120,8 +3124,8 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="22" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -3130,8 +3134,8 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="22" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -3140,8 +3144,8 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="22" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -3150,8 +3154,8 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="22" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -3160,8 +3164,8 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="22" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -3170,8 +3174,8 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="22" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B197" s="5" t="s">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$191</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -197,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,7 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,22 +782,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -810,7 +805,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -824,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -840,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -856,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -874,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -890,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -906,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -922,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -938,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -953,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -966,7 +961,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -979,7 +974,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -992,7 +987,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1000,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1033,7 +1028,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1041,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1061,7 +1056,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1088,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1108,7 +1103,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="30" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1181,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="29" t="s">
         <v>43</v>
       </c>
@@ -1198,7 +1193,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1201,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1214,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1227,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1247,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1260,7 +1255,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1273,7 +1268,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1281,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -1299,7 +1294,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1314,7 +1309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1327,7 +1322,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
@@ -1340,7 +1335,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1348,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1381,7 +1376,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -1394,7 +1389,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -1409,7 +1404,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1419,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1451,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1466,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="35" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1480,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1494,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1541,18 +1536,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
       <c r="A54" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" s="15" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" s="15" t="s">
         <v>34</v>
       </c>
@@ -1608,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="15" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="36" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="36" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1659,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="35" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1673,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="6" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="35" t="s">
         <v>33</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="35" t="s">
         <v>34</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +1755,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
         <v>32</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
         <v>33</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="21" t="s">
         <v>34</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="21" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +1811,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="21" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1847,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -1880,19 +1875,19 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1">
       <c r="A80" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="81" spans="1:4" hidden="1">
+      <c r="A81" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -1901,1291 +1896,1207 @@
       <c r="C81" s="7">
         <v>44095</v>
       </c>
-      <c r="D81" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>32</v>
+      <c r="D81" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1">
+      <c r="A82" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C82" s="7">
         <v>44095</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D83" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D84" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A85" s="23"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="7">
+        <v>44095</v>
+      </c>
+      <c r="D87" s="7">
         <v>44099</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="5" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="7">
+        <v>44095</v>
+      </c>
+      <c r="D88" s="7">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C89" s="7">
         <v>44095</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D89" s="7">
         <v>44099</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C90" s="7">
         <v>44095</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D90" s="7">
         <v>44099</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D91" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D92" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D93" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="7">
+        <v>44102</v>
+      </c>
+      <c r="D94" s="7">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="7">
-        <v>44095</v>
-      </c>
-      <c r="D85" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="7">
+      <c r="C95" s="7">
         <v>44102</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D95" s="7">
         <v>44106</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D87" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D88" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D89" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D90" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="7">
-        <v>44095</v>
-      </c>
-      <c r="D93" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="7">
-        <v>44095</v>
-      </c>
-      <c r="D94" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="7">
-        <v>44095</v>
-      </c>
-      <c r="D95" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C96" s="7">
-        <v>44095</v>
-      </c>
-      <c r="D96" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44109</v>
+      </c>
+      <c r="D96" s="11">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97" s="7">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D97" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" s="7">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D98" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="7">
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="D99" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
+        <v>44109</v>
+      </c>
+      <c r="D100" s="7">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="7">
+        <v>44116</v>
+      </c>
+      <c r="D101" s="7">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="7">
+        <v>44116</v>
+      </c>
+      <c r="D102" s="7">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="7">
+        <v>44116</v>
+      </c>
+      <c r="D103" s="7">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="7">
+        <v>44116</v>
+      </c>
+      <c r="D104" s="7">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7">
+        <v>44116</v>
+      </c>
+      <c r="D105" s="7">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D106" s="11">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="7">
+        <v>44172</v>
+      </c>
+      <c r="D107" s="7">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A112" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="7">
+        <v>44137</v>
+      </c>
+      <c r="D113" s="7">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="7">
+        <v>44137</v>
+      </c>
+      <c r="D114" s="7">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="7">
+        <v>44137</v>
+      </c>
+      <c r="D115" s="7">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="7">
+        <v>44137</v>
+      </c>
+      <c r="D116" s="7">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D117" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D118" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D119" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D100" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="C120" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D120" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="7">
-        <v>44102</v>
-      </c>
-      <c r="D101" s="7">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="C121" s="7">
+        <v>44144</v>
+      </c>
+      <c r="D121" s="7">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C102" s="7">
-        <v>44109</v>
-      </c>
-      <c r="D102" s="11">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="7">
-        <v>44109</v>
-      </c>
-      <c r="D103" s="7">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="7">
-        <v>44109</v>
-      </c>
-      <c r="D104" s="7">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="7">
-        <v>44109</v>
-      </c>
-      <c r="D105" s="7">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="7">
-        <v>44109</v>
-      </c>
-      <c r="D106" s="7">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="7">
-        <v>44116</v>
-      </c>
-      <c r="D107" s="7">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="7">
-        <v>44116</v>
-      </c>
-      <c r="D108" s="7">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="7">
-        <v>44116</v>
-      </c>
-      <c r="D109" s="7">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="7">
-        <v>44116</v>
-      </c>
-      <c r="D110" s="7">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="7">
-        <v>44116</v>
-      </c>
-      <c r="D111" s="7">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="7">
-        <v>44144</v>
-      </c>
-      <c r="D112" s="11">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="7">
-        <v>44172</v>
-      </c>
-      <c r="D113" s="7">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="7">
-        <v>44137</v>
-      </c>
-      <c r="D119" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="7">
-        <v>44137</v>
-      </c>
-      <c r="D120" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="7">
-        <v>44137</v>
-      </c>
-      <c r="D121" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C122" s="7">
         <v>44137</v>
       </c>
-      <c r="D122" s="7">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="11">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123" s="7">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="D123" s="7">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" s="7">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="D124" s="7">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C125" s="7">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="D125" s="7">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" s="7">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="D126" s="7">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="7">
+        <v>44158</v>
+      </c>
+      <c r="D127" s="7">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="7">
+        <v>44158</v>
+      </c>
+      <c r="D128" s="7">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="7">
+        <v>44158</v>
+      </c>
+      <c r="D129" s="7">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="7">
+        <v>44158</v>
+      </c>
+      <c r="D130" s="7">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="7">
-        <v>44144</v>
-      </c>
-      <c r="D127" s="7">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="7">
-        <v>44137</v>
-      </c>
-      <c r="D128" s="11">
+      <c r="B131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="7">
         <v>44158</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="7">
-        <v>44151</v>
-      </c>
-      <c r="D129" s="7">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="7">
-        <v>44151</v>
-      </c>
-      <c r="D130" s="7">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="7">
-        <v>44151</v>
-      </c>
       <c r="D131" s="7">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C132" s="7">
-        <v>44151</v>
-      </c>
-      <c r="D132" s="7">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>31</v>
+        <v>44165</v>
+      </c>
+      <c r="D132" s="11">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D133" s="7">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D134" s="7">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D135" s="7">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D136" s="7">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D137" s="7">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="7">
-        <v>44165</v>
-      </c>
-      <c r="D138" s="11">
-        <v>44170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A137" s="33"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A138" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>22</v>
+    <row r="140" spans="1:4">
+      <c r="A140" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>23</v>
+    <row r="141" spans="1:4">
+      <c r="A141" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="28" t="s">
-        <v>23</v>
+    <row r="142" spans="1:4">
+      <c r="A142" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="31" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="21" t="s">
-        <v>33</v>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A149" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="21" t="s">
-        <v>33</v>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A160" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="31" t="s">
+      <c r="I164" s="34"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="I170" s="34"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="21" t="s">
-        <v>33</v>
+    <row r="170" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="171" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A171" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+    </row>
+    <row r="172" spans="1:9" hidden="1">
+      <c r="A172" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D172" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+    <row r="176" spans="1:9">
+      <c r="A176" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="21" t="s">
-        <v>33</v>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A182" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
+    <row r="187" spans="1:4">
+      <c r="A187" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D197">
+  <autoFilter ref="A1:D191">
     <filterColumn colId="3">
       <filters blank="1">
         <dateGroupItem year="2020" dateTimeGrouping="year"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +268,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -469,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -506,9 +500,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -793,8 +789,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +802,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1110,10 +1106,10 @@
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>44088</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1543,7 +1539,7 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1631,8 +1627,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="36" t="s">
+    <row r="61" spans="1:4" hidden="1">
+      <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1641,12 +1637,12 @@
       <c r="C61" s="7">
         <v>44080</v>
       </c>
-      <c r="D61" s="7">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="36" t="s">
+      <c r="D61" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1">
+      <c r="A62" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1655,12 +1651,12 @@
       <c r="C62" s="7">
         <v>44080</v>
       </c>
-      <c r="D62" s="7">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="35" t="s">
+      <c r="D62" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1">
+      <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -1669,8 +1665,8 @@
       <c r="C63" s="7">
         <v>44080</v>
       </c>
-      <c r="D63" s="7">
-        <v>44084</v>
+      <c r="D63" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1">
@@ -1882,7 +1878,7 @@
       <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="39" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1915,7 +1911,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1929,7 +1925,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -1946,12 +1942,12 @@
       <c r="A85" s="23"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1965,7 +1961,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -1979,7 +1975,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -1993,7 +1989,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="5" t="s">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -12,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$191</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -192,8 +197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -504,10 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,22 +782,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -801,7 +805,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -815,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -831,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -847,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -865,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -881,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -897,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -913,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -929,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -944,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -957,7 +961,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -970,7 +974,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -983,7 +987,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -996,7 +1000,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1028,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1041,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +1056,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1088,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1099,7 +1103,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1181,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>43</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
@@ -1197,7 +1201,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
@@ -1210,7 +1214,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1227,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1255,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1264,7 +1268,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1281,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1294,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1318,7 +1322,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1335,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" hidden="1">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
@@ -1344,7 +1348,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1376,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -1385,7 +1389,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" hidden="1">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1419,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1451,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1466,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1532,18 +1536,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>34</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>31</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>31</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>33</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>34</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>31</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>33</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>34</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -1871,18 +1875,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>31</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>36</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>36</v>
       </c>
@@ -1938,16 +1942,16 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1">
+    <row r="85" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="40" t="s">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1956,12 +1960,12 @@
       <c r="C87" s="7">
         <v>44095</v>
       </c>
-      <c r="D87" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="35" t="s">
+      <c r="D87" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -1970,11 +1974,11 @@
       <c r="C88" s="7">
         <v>44095</v>
       </c>
-      <c r="D88" s="7">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>33</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>34</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>31</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>32</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>33</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>34</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>35</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>31</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>33</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>34</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>31</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>32</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>34</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>36</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>22</v>
       </c>
@@ -2250,7 +2254,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2264,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -2270,13 +2274,13 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>31</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>33</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>34</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>31</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>32</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>33</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>34</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>36</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>35</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>31</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>33</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>34</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>32</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>33</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>34</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>36</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2570,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2580,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>23</v>
       </c>
@@ -2586,7 +2590,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>23</v>
       </c>
@@ -2596,17 +2600,17 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1">
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1">
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>31</v>
       </c>
@@ -2616,7 +2620,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>33</v>
       </c>
@@ -2626,7 +2630,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>31</v>
       </c>
@@ -2636,7 +2640,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>33</v>
       </c>
@@ -2646,7 +2650,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>31</v>
       </c>
@@ -2656,7 +2660,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
         <v>33</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>31</v>
       </c>
@@ -2676,7 +2680,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>36</v>
       </c>
@@ -2696,15 +2700,15 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="31" t="s">
         <v>31</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>33</v>
       </c>
@@ -2724,7 +2728,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
         <v>31</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
         <v>33</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
         <v>31</v>
       </c>
@@ -2754,7 +2758,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
         <v>33</v>
       </c>
@@ -2764,7 +2768,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2778,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
         <v>33</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
         <v>36</v>
       </c>
@@ -2794,15 +2798,15 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1">
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
         <v>31</v>
       </c>
@@ -2812,7 +2816,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
         <v>33</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
         <v>31</v>
       </c>
@@ -2832,7 +2836,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
         <v>33</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="D164" s="5"/>
       <c r="I164" s="34"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
         <v>31</v>
       </c>
@@ -2853,7 +2857,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
         <v>33</v>
       </c>
@@ -2863,7 +2867,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
         <v>31</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2887,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
         <v>36</v>
       </c>
@@ -2893,15 +2897,15 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1">
+    <row r="170" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>31</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
         <v>33</v>
       </c>
@@ -2923,7 +2927,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
         <v>31</v>
       </c>
@@ -2933,7 +2937,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
         <v>33</v>
       </c>
@@ -2943,7 +2947,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
         <v>31</v>
       </c>
@@ -2953,7 +2957,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2967,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
         <v>31</v>
       </c>
@@ -2973,7 +2977,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
         <v>33</v>
       </c>
@@ -2983,7 +2987,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
         <v>36</v>
       </c>
@@ -2993,15 +2997,15 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1">
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
         <v>31</v>
       </c>
@@ -3011,7 +3015,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
         <v>33</v>
       </c>
@@ -3021,7 +3025,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
         <v>31</v>
       </c>
@@ -3031,7 +3035,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
         <v>33</v>
       </c>
@@ -3041,7 +3045,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
         <v>31</v>
       </c>
@@ -3051,7 +3055,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
         <v>33</v>
       </c>
@@ -3061,7 +3065,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3075,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
         <v>33</v>
       </c>
@@ -3081,7 +3085,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>36</v>
       </c>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$191</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="55">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -197,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -468,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -509,9 +510,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -782,22 +785,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -805,7 +808,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -819,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -835,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -851,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -869,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -885,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -901,7 +904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -917,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -933,7 +936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -948,7 +951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -961,7 +964,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -974,7 +977,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -987,7 +990,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1000,7 +1003,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1031,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1041,7 +1044,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="30" t="s">
         <v>42</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="29" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1204,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1230,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1255,7 +1258,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1271,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1297,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +1351,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1407,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1422,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +1454,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>34</v>
       </c>
@@ -1466,7 +1469,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="35" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -1536,18 +1539,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
       <c r="A54" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" s="24" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" s="15" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" s="15" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="15" t="s">
         <v>31</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" s="6" t="s">
         <v>34</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="6" t="s">
         <v>35</v>
       </c>
@@ -1685,8 +1688,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+    <row r="65" spans="1:4" hidden="1">
+      <c r="A65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1695,12 +1698,12 @@
       <c r="C65" s="7">
         <v>44087</v>
       </c>
-      <c r="D65" s="7">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+      <c r="D65" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1">
+      <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -1709,12 +1712,12 @@
       <c r="C66" s="7">
         <v>44087</v>
       </c>
-      <c r="D66" s="7">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="D66" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1">
+      <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -1723,12 +1726,12 @@
       <c r="C67" s="7">
         <v>44087</v>
       </c>
-      <c r="D67" s="7">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="D67" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1">
+      <c r="A68" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -1737,12 +1740,12 @@
       <c r="C68" s="7">
         <v>44087</v>
       </c>
-      <c r="D68" s="7">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="D68" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1755,8 +1758,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -1769,8 +1772,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -1783,8 +1786,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1797,8 +1800,8 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -1811,19 +1814,21 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="41">
+        <v>44109</v>
+      </c>
       <c r="D74" s="11">
         <v>44114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -1875,18 +1880,18 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1">
       <c r="A80" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" s="24" t="s">
         <v>31</v>
       </c>
@@ -1900,7 +1905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" s="6" t="s">
         <v>36</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="35" t="s">
         <v>31</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="35" t="s">
         <v>36</v>
       </c>
@@ -1942,15 +1947,15 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" s="22" customFormat="1" ht="15.75" thickBot="1">
       <c r="A85" s="23"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
       <c r="A86" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" s="24" t="s">
         <v>31</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="35" t="s">
         <v>33</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="35" t="s">
         <v>34</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="21" t="s">
         <v>31</v>
       </c>
@@ -2020,7 +2025,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="21" t="s">
         <v>32</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="21" t="s">
         <v>33</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="21" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2067,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="21" t="s">
         <v>36</v>
       </c>
@@ -2076,7 +2081,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="21" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="21" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="21" t="s">
         <v>32</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="21" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="21" t="s">
         <v>34</v>
       </c>
@@ -2146,7 +2151,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="21" t="s">
         <v>31</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="21" t="s">
         <v>32</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="21" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="21" t="s">
         <v>34</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="21" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2221,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="21" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>22</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
         <v>22</v>
       </c>
@@ -2254,7 +2259,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2269,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -2274,13 +2279,13 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
       <c r="A112" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="31" t="s">
         <v>31</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="21" t="s">
         <v>32</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="21" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="21" t="s">
         <v>34</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="21" t="s">
         <v>31</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="21" t="s">
         <v>32</v>
       </c>
@@ -2364,7 +2369,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="21" t="s">
         <v>33</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="21" t="s">
         <v>34</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="21" t="s">
         <v>36</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="21" t="s">
         <v>35</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="21" t="s">
         <v>31</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="21" t="s">
         <v>32</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="21" t="s">
         <v>33</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="21" t="s">
         <v>34</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="21" t="s">
         <v>31</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="21" t="s">
         <v>32</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="21" t="s">
         <v>33</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="21" t="s">
         <v>34</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="21" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="21" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +2575,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
         <v>22</v>
       </c>
@@ -2580,7 +2585,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="5" t="s">
         <v>23</v>
       </c>
@@ -2590,7 +2595,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="28" t="s">
         <v>23</v>
       </c>
@@ -2600,17 +2605,17 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.75" thickBot="1">
       <c r="A137" s="33"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.75" thickBot="1">
       <c r="A138" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="31" t="s">
         <v>31</v>
       </c>
@@ -2620,7 +2625,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="21" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2635,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="21" t="s">
         <v>31</v>
       </c>
@@ -2640,7 +2645,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="21" t="s">
         <v>33</v>
       </c>
@@ -2650,7 +2655,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="21" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2665,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="21" t="s">
         <v>33</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="21" t="s">
         <v>31</v>
       </c>
@@ -2680,7 +2685,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="21" t="s">
         <v>33</v>
       </c>
@@ -2690,7 +2695,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="21" t="s">
         <v>36</v>
       </c>
@@ -2700,15 +2705,15 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1">
       <c r="A149" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="31" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="21" t="s">
         <v>33</v>
       </c>
@@ -2728,7 +2733,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="21" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +2743,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="21" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +2753,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="21" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="21" t="s">
         <v>33</v>
       </c>
@@ -2768,7 +2773,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="21" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="21" t="s">
         <v>33</v>
       </c>
@@ -2788,7 +2793,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="21" t="s">
         <v>36</v>
       </c>
@@ -2798,15 +2803,15 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1">
       <c r="A160" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="31" t="s">
         <v>31</v>
       </c>
@@ -2816,7 +2821,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="21" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +2831,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="21" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2841,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="21" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2852,7 @@
       <c r="D164" s="5"/>
       <c r="I164" s="34"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="21" t="s">
         <v>31</v>
       </c>
@@ -2857,7 +2862,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="21" t="s">
         <v>33</v>
       </c>
@@ -2867,7 +2872,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="21" t="s">
         <v>31</v>
       </c>
@@ -2877,7 +2882,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="21" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2892,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="21" t="s">
         <v>36</v>
       </c>
@@ -2897,15 +2902,15 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="171" spans="1:9" ht="15.75" thickBot="1">
       <c r="A171" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="24" t="s">
         <v>31</v>
       </c>
@@ -2917,7 +2922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="21" t="s">
         <v>33</v>
       </c>
@@ -2927,7 +2932,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="21" t="s">
         <v>31</v>
       </c>
@@ -2937,7 +2942,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="21" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +2952,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="21" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +2962,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="21" t="s">
         <v>33</v>
       </c>
@@ -2967,7 +2972,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="21" t="s">
         <v>31</v>
       </c>
@@ -2977,7 +2982,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="21" t="s">
         <v>33</v>
       </c>
@@ -2987,7 +2992,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="21" t="s">
         <v>36</v>
       </c>
@@ -2997,15 +3002,15 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1">
       <c r="A182" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="31" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3020,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="21" t="s">
         <v>33</v>
       </c>
@@ -3025,7 +3030,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="21" t="s">
         <v>31</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="21" t="s">
         <v>33</v>
       </c>
@@ -3045,7 +3050,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="21" t="s">
         <v>31</v>
       </c>
@@ -3055,7 +3060,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="21" t="s">
         <v>33</v>
       </c>
@@ -3065,7 +3070,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="21" t="s">
         <v>31</v>
       </c>
@@ -3075,7 +3080,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="21" t="s">
         <v>33</v>
       </c>
@@ -3085,7 +3090,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="21" t="s">
         <v>36</v>
       </c>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$D$193</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1392,6 +1392,9 @@
       </rPr>
       <t>AVA ENGAJAMENTO</t>
     </r>
+  </si>
+  <si>
+    <t>31/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1936,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1959,10 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1986,350 +1986,353 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2340,9 +2343,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2628,8 +2630,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,22 +2990,22 @@
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30">
         <v>44058</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="31">
         <v>44142</v>
       </c>
     </row>
@@ -3014,7 +3016,7 @@
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="159" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3282,21 +3284,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="27">
-        <v>44109</v>
-      </c>
-      <c r="D50" s="5">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="158"/>
+      <c r="D50" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
@@ -3304,11 +3304,11 @@
         <v>28</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="4">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3316,8 +3316,8 @@
         <v>29</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="4">
-        <v>44184</v>
+      <c r="D52" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
         <v>44102</v>
       </c>
       <c r="D59" s="4">
-        <v>44106</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,17 +3409,17 @@
         <v>10</v>
       </c>
       <c r="C60" s="4">
-        <v>44102</v>
+        <v>44095</v>
       </c>
       <c r="D60" s="4">
-        <v>44106</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3451,8 +3451,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3461,12 +3461,12 @@
       <c r="C65" s="4">
         <v>44095</v>
       </c>
-      <c r="D65" s="4">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="D65" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3475,8 +3475,8 @@
       <c r="C66" s="4">
         <v>44095</v>
       </c>
-      <c r="D66" s="4">
-        <v>44099</v>
+      <c r="D66" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,8 +3545,8 @@
       <c r="C71" s="4">
         <v>44102</v>
       </c>
-      <c r="D71" s="4">
-        <v>44106</v>
+      <c r="D71" s="6">
+        <v>44137</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,8 +3685,8 @@
       <c r="C81" s="4">
         <v>44116</v>
       </c>
-      <c r="D81" s="4">
-        <v>44120</v>
+      <c r="D81" s="6">
+        <v>44144</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,9 +3757,9 @@
       <c r="A88" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
@@ -4187,7 +4187,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>36</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="C123" s="4">
         <v>44144</v>
       </c>
-      <c r="D123" s="4">
-        <v>44148</v>
+      <c r="D123" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,8 +4337,8 @@
       <c r="C133" s="4">
         <v>44158</v>
       </c>
-      <c r="D133" s="4">
-        <v>44162</v>
+      <c r="D133" s="6">
+        <v>44172</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,1972 +4907,2034 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="37" customWidth="1"/>
-    <col min="15" max="21" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="27.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="34" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="34" customWidth="1"/>
+    <col min="15" max="21" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="153" t="s">
+      <c r="C1" s="136"/>
+      <c r="D1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="153" t="s">
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="115" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="152" t="s">
+      <c r="A2" s="134"/>
+      <c r="B2" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="144"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="116"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="151" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="150" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="149" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="148"/>
-      <c r="W3" s="144"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="116"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="144"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="116"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="143"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="141" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="140" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="139"/>
-      <c r="W5" s="138"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="135" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="132"/>
-      <c r="O6" s="130" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="130" t="s">
+      <c r="P6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="131" t="s">
+      <c r="Q6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="131" t="s">
+      <c r="R6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="131" t="s">
+      <c r="S6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="131" t="s">
+      <c r="T6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="130" t="s">
+      <c r="U6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="130" t="s">
+      <c r="V6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="129" t="s">
+      <c r="W6" s="105" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="124">
+      <c r="A7" s="127"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="103">
         <v>1</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="103">
         <v>2</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="103">
         <v>3</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="103">
         <v>4</v>
       </c>
-      <c r="H7" s="125">
+      <c r="H7" s="104">
         <v>5</v>
       </c>
-      <c r="I7" s="125">
+      <c r="I7" s="104">
         <v>6</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="104">
         <v>7</v>
       </c>
-      <c r="K7" s="125">
+      <c r="K7" s="104">
         <v>8</v>
       </c>
-      <c r="L7" s="124">
+      <c r="L7" s="103">
         <v>9</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="130">
         <v>10</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="124">
+      <c r="N7" s="130"/>
+      <c r="O7" s="103">
         <v>11</v>
       </c>
-      <c r="P7" s="124">
+      <c r="P7" s="103">
         <v>12</v>
       </c>
-      <c r="Q7" s="125">
+      <c r="Q7" s="104">
         <v>13</v>
       </c>
-      <c r="R7" s="125">
+      <c r="R7" s="104">
         <v>14</v>
       </c>
-      <c r="S7" s="125">
+      <c r="S7" s="104">
         <v>15</v>
       </c>
-      <c r="T7" s="125">
+      <c r="T7" s="104">
         <v>16</v>
       </c>
-      <c r="U7" s="124">
+      <c r="U7" s="103">
         <v>17</v>
       </c>
-      <c r="V7" s="124">
+      <c r="V7" s="103">
         <v>18</v>
       </c>
-      <c r="W7" s="123">
+      <c r="W7" s="102">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120"/>
-      <c r="B8" s="122" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="84" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="83" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="81" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="41"/>
+      <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="118" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="76" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="41"/>
+      <c r="W14" s="38"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="74" t="s">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="74" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="114" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="112" t="s">
+      <c r="K16" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="65" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67" t="s">
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="106" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="84" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="60" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="83" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="110" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="109"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="81" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="41"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="79" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="43"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="106" t="s">
+      <c r="A22" s="88"/>
+      <c r="B22" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="76" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="41"/>
+      <c r="W22" s="38"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="74" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="74" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="102" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="104" t="s">
+      <c r="M24" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="102" t="s">
+      <c r="N24" s="147"/>
+      <c r="O24" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="102" t="s">
+      <c r="P24" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="67" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="67" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67" t="s">
+      <c r="M25" s="140"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="60" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="60" t="s">
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="55" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="55" t="s">
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="81" t="s">
+      <c r="B28" s="80"/>
+      <c r="C28" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="81" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="41"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="79" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="76" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="41"/>
+      <c r="W30" s="38"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="74" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="74" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="96" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="R32" s="96" t="s">
+      <c r="R32" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="S32" s="96" t="s">
+      <c r="S32" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="96" t="s">
+      <c r="T32" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="78"/>
+      <c r="C33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="67" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="67" t="s">
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="91" t="s">
+      <c r="A34" s="148"/>
+      <c r="B34" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="60" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="60" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92"/>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="55" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="55" t="s">
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="W35" s="41"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="81" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="81" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="41"/>
+      <c r="W36" s="38"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="79" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92"/>
-      <c r="B38" s="91" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="76" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="41"/>
+      <c r="W38" s="38"/>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="74" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="74" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="E40" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="88" t="s">
+      <c r="G40" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="67" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="67" t="s">
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="77" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="60" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="55" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="81" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="81" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="41"/>
+      <c r="W44" s="38"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="79" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="77" t="s">
+      <c r="A46" s="153"/>
+      <c r="B46" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="76" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="W46" s="41"/>
+      <c r="W46" s="38"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="74" t="s">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="74" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="65" t="s">
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="60" t="s">
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="60" t="s">
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="55" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="55" t="s">
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="145"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="45" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="45" t="s">
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="149"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="38" t="s">
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="151"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="45" t="s">
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="U54" s="45" t="s">
+      <c r="U54" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="38" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="38" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="38" t="s">
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="158" t="s">
+      <c r="A56" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="158"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="158"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="156"/>
+      <c r="Q56" s="156"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="159" t="s">
+      <c r="A57" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="157" t="s">
+      <c r="A58" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="157"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="160" t="s">
+      <c r="A59" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="159" t="s">
+      <c r="A60" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="159"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="159"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="159"/>
-      <c r="O60" s="159"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="159"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="E1:V1"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="W1:W5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:V2"/>
@@ -6882,68 +6944,6 @@
     <mergeCell ref="E4:V4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:T5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="E1:V1"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A60:Q60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -18,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$D$193</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1400,8 +1395,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1936,7 +1931,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2214,6 +2209,86 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -2223,6 +2298,27 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
@@ -2244,110 +2340,10 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -2619,22 +2615,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2642,7 +2638,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2671,7 +2667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2686,7 +2682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +2757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2809,7 +2805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2845,7 +2841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2857,7 +2853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2899,7 +2895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -2913,7 +2909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2941,7 +2937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2983,13 +2979,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="A27" s="27" t="s">
         <v>38</v>
       </c>
@@ -2997,7 +2995,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="28" t="s">
         <v>39</v>
       </c>
@@ -3009,18 +3007,20 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159" t="s">
+      <c r="D29" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A30" s="116" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>31</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -3284,19 +3284,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="158"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -3348,18 +3348,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="D55" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A56" s="160" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>31</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -3387,8 +3389,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A59" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3397,12 +3399,12 @@
       <c r="C59" s="4">
         <v>44102</v>
       </c>
-      <c r="D59" s="4">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="D59" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3411,19 +3413,22 @@
       <c r="C60" s="4">
         <v>44095</v>
       </c>
-      <c r="D60" s="4">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="12"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
       <c r="A62" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" s="13" t="s">
         <v>31</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="10" t="s">
         <v>31</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="10" t="s">
         <v>32</v>
       </c>
@@ -3507,7 +3512,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="10" t="s">
         <v>33</v>
       </c>
@@ -3521,7 +3526,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="10" t="s">
         <v>34</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="10" t="s">
         <v>36</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="10" t="s">
         <v>35</v>
       </c>
@@ -3563,7 +3568,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="10" t="s">
         <v>31</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="10" t="s">
         <v>32</v>
       </c>
@@ -3591,7 +3596,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="10" t="s">
         <v>33</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="10" t="s">
         <v>34</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="10" t="s">
         <v>32</v>
       </c>
@@ -3647,7 +3652,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="10" t="s">
         <v>33</v>
       </c>
@@ -3661,7 +3666,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="10" t="s">
         <v>34</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -3713,11 +3718,11 @@
       <c r="C83" s="4">
         <v>44172</v>
       </c>
-      <c r="D83" s="4">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
@@ -3725,9 +3730,11 @@
         <v>29</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3735,9 +3742,11 @@
         <v>11</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3745,15 +3754,17 @@
         <v>12</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1">
       <c r="A88" s="14" t="s">
         <v>37</v>
       </c>
@@ -3761,7 +3772,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="33"/>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" s="13" t="s">
         <v>31</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="3" t="s">
         <v>32</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -3797,7 +3808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="3" t="s">
         <v>34</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="3" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="3" t="s">
         <v>31</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" s="3" t="s">
         <v>32</v>
       </c>
@@ -3845,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" s="7" t="s">
         <v>35</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" s="8" t="s">
         <v>31</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" s="8" t="s">
         <v>32</v>
       </c>
@@ -3905,7 +3916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" s="3" t="s">
         <v>34</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" s="3" t="s">
         <v>31</v>
       </c>
@@ -3957,7 +3968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" s="3" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" s="3" t="s">
         <v>33</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" s="3" t="s">
         <v>34</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="22" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" s="2" t="s">
         <v>22</v>
       </c>
@@ -4023,11 +4034,11 @@
       <c r="C109" s="4">
         <v>44172</v>
       </c>
-      <c r="D109" s="4">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -4037,11 +4048,11 @@
       <c r="C110" s="4">
         <v>44179</v>
       </c>
-      <c r="D110" s="4">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -4069,13 +4080,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1">
       <c r="A114" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="18" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="10" t="s">
         <v>32</v>
       </c>
@@ -4103,7 +4114,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="10" t="s">
         <v>33</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="10" t="s">
         <v>34</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="10" t="s">
         <v>31</v>
       </c>
@@ -4145,7 +4156,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="10" t="s">
         <v>32</v>
       </c>
@@ -4159,7 +4170,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="10" t="s">
         <v>33</v>
       </c>
@@ -4173,7 +4184,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="10" t="s">
         <v>34</v>
       </c>
@@ -4187,7 +4198,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="10" t="s">
         <v>36</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="10" t="s">
         <v>35</v>
       </c>
@@ -4215,7 +4226,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="10" t="s">
         <v>31</v>
       </c>
@@ -4229,7 +4240,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="10" t="s">
         <v>32</v>
       </c>
@@ -4243,7 +4254,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="10" t="s">
         <v>33</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="10" t="s">
         <v>34</v>
       </c>
@@ -4271,7 +4282,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="10" t="s">
         <v>31</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="10" t="s">
         <v>32</v>
       </c>
@@ -4299,7 +4310,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="10" t="s">
         <v>33</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="10" t="s">
         <v>34</v>
       </c>
@@ -4327,7 +4338,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="10" t="s">
         <v>36</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="10" t="s">
         <v>22</v>
       </c>
@@ -4355,7 +4366,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="2" t="s">
         <v>22</v>
       </c>
@@ -4363,9 +4374,11 @@
         <v>28</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -4373,9 +4386,11 @@
         <v>29</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -4383,9 +4398,11 @@
         <v>11</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="17" t="s">
         <v>23</v>
       </c>
@@ -4393,19 +4410,21 @@
         <v>12</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1">
       <c r="A139" s="20"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.75" thickBot="1">
       <c r="A140" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="18" t="s">
         <v>31</v>
       </c>
@@ -4415,7 +4434,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="10" t="s">
         <v>33</v>
       </c>
@@ -4425,7 +4444,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="10" t="s">
         <v>31</v>
       </c>
@@ -4435,7 +4454,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="10" t="s">
         <v>33</v>
       </c>
@@ -4445,7 +4464,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="10" t="s">
         <v>31</v>
       </c>
@@ -4455,7 +4474,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="10" t="s">
         <v>33</v>
       </c>
@@ -4465,7 +4484,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="10" t="s">
         <v>31</v>
       </c>
@@ -4475,7 +4494,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="10" t="s">
         <v>33</v>
       </c>
@@ -4485,7 +4504,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -4495,15 +4514,15 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1">
       <c r="A151" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="18" t="s">
         <v>31</v>
       </c>
@@ -4513,7 +4532,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="10" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4542,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="10" t="s">
         <v>31</v>
       </c>
@@ -4533,7 +4552,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="10" t="s">
         <v>33</v>
       </c>
@@ -4543,7 +4562,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="10" t="s">
         <v>31</v>
       </c>
@@ -4553,7 +4572,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="10" t="s">
         <v>33</v>
       </c>
@@ -4563,7 +4582,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="10" t="s">
         <v>31</v>
       </c>
@@ -4573,7 +4592,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="10" t="s">
         <v>33</v>
       </c>
@@ -4583,7 +4602,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="10" t="s">
         <v>36</v>
       </c>
@@ -4593,15 +4612,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1">
       <c r="A162" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="18" t="s">
         <v>31</v>
       </c>
@@ -4611,7 +4630,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="10" t="s">
         <v>33</v>
       </c>
@@ -4621,7 +4640,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="10" t="s">
         <v>31</v>
       </c>
@@ -4631,7 +4650,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="10" t="s">
         <v>33</v>
       </c>
@@ -4642,7 +4661,7 @@
       <c r="D166" s="2"/>
       <c r="H166" s="21"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="10" t="s">
         <v>31</v>
       </c>
@@ -4652,7 +4671,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="10" t="s">
         <v>33</v>
       </c>
@@ -4662,7 +4681,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="10" t="s">
         <v>31</v>
       </c>
@@ -4672,7 +4691,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="10" t="s">
         <v>33</v>
       </c>
@@ -4682,7 +4701,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="10" t="s">
         <v>36</v>
       </c>
@@ -4692,15 +4711,15 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="173" spans="1:8" ht="15.75" thickBot="1">
       <c r="A173" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="13" t="s">
         <v>31</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="10" t="s">
         <v>33</v>
       </c>
@@ -4722,7 +4741,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -4732,7 +4751,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="10" t="s">
         <v>33</v>
       </c>
@@ -4742,7 +4761,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="10" t="s">
         <v>31</v>
       </c>
@@ -4752,7 +4771,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="10" t="s">
         <v>33</v>
       </c>
@@ -4762,7 +4781,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="10" t="s">
         <v>31</v>
       </c>
@@ -4772,7 +4791,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="10" t="s">
         <v>33</v>
       </c>
@@ -4782,7 +4801,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="10" t="s">
         <v>36</v>
       </c>
@@ -4792,15 +4811,15 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1">
       <c r="A184" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="18" t="s">
         <v>31</v>
       </c>
@@ -4810,7 +4829,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="10" t="s">
         <v>33</v>
       </c>
@@ -4820,7 +4839,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="10" t="s">
         <v>31</v>
       </c>
@@ -4830,7 +4849,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="10" t="s">
         <v>33</v>
       </c>
@@ -4840,7 +4859,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -4850,7 +4869,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="10" t="s">
         <v>33</v>
       </c>
@@ -4860,7 +4879,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="10" t="s">
         <v>31</v>
       </c>
@@ -4870,7 +4889,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="10" t="s">
         <v>33</v>
       </c>
@@ -4880,7 +4899,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="10" t="s">
         <v>36</v>
       </c>
@@ -4904,14 +4923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -4927,167 +4946,167 @@
     <col min="24" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="115" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="115" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="143" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="118" t="s">
+    <row r="2" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A2" s="140"/>
+      <c r="B2" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="119" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="116"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
-      <c r="B3" s="120" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="144"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A3" s="140"/>
+      <c r="B3" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
       <c r="U3" s="114" t="s">
         <v>147</v>
       </c>
       <c r="V3" s="113"/>
-      <c r="W3" s="116"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="122" t="s">
+      <c r="W3" s="144"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A4" s="140"/>
+      <c r="B4" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="119" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="116"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="123" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="144"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A5" s="141"/>
+      <c r="B5" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="124" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
       <c r="U5" s="112" t="s">
         <v>147</v>
       </c>
       <c r="V5" s="111"/>
-      <c r="W5" s="117"/>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="W5" s="145"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A6" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
       <c r="D6" s="110" t="s">
         <v>145</v>
       </c>
@@ -5115,10 +5134,10 @@
       <c r="L6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="129"/>
+      <c r="N6" s="151"/>
       <c r="O6" s="106" t="s">
         <v>145</v>
       </c>
@@ -5147,10 +5166,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="103">
         <v>1</v>
       </c>
@@ -5178,10 +5197,10 @@
       <c r="L7" s="103">
         <v>9</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="152">
         <v>10</v>
       </c>
-      <c r="N7" s="130"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="103">
         <v>11</v>
       </c>
@@ -5210,7 +5229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1">
       <c r="A8" s="99"/>
       <c r="B8" s="101" t="s">
         <v>107</v>
@@ -5235,8 +5254,8 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="38"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="37"/>
@@ -5247,7 +5266,7 @@
       <c r="V8" s="38"/>
       <c r="W8" s="38"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1">
       <c r="A9" s="96"/>
       <c r="B9" s="99"/>
       <c r="C9" s="54" t="s">
@@ -5266,8 +5285,8 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="38"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="132"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="37"/>
@@ -5278,7 +5297,7 @@
       <c r="V9" s="38"/>
       <c r="W9" s="38"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1">
       <c r="A10" s="96"/>
       <c r="B10" s="95" t="s">
         <v>86</v>
@@ -5299,8 +5318,8 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="132"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="121"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="37"/>
@@ -5311,7 +5330,7 @@
       <c r="V10" s="38"/>
       <c r="W10" s="38"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1">
       <c r="A11" s="95" t="s">
         <v>144</v>
       </c>
@@ -5334,8 +5353,8 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="132"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="37"/>
@@ -5346,7 +5365,7 @@
       <c r="V11" s="38"/>
       <c r="W11" s="38"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1">
       <c r="A12" s="95" t="s">
         <v>142</v>
       </c>
@@ -5363,8 +5382,8 @@
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="132"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="121"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="37"/>
@@ -5377,7 +5396,7 @@
       </c>
       <c r="W12" s="38"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" customHeight="1">
       <c r="A13" s="95" t="s">
         <v>141</v>
       </c>
@@ -5398,8 +5417,8 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="132"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="121"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="37"/>
@@ -5410,7 +5429,7 @@
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16.5" customHeight="1">
       <c r="A14" s="96"/>
       <c r="B14" s="95" t="s">
         <v>92</v>
@@ -5427,8 +5446,8 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="121"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="37"/>
@@ -5441,7 +5460,7 @@
       </c>
       <c r="W14" s="38"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="16.5" customHeight="1">
       <c r="A15" s="94"/>
       <c r="B15" s="94"/>
       <c r="C15" s="61" t="s">
@@ -5456,8 +5475,8 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="132"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="121"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="37"/>
@@ -5470,7 +5489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="16.5" customHeight="1">
       <c r="A16" s="90"/>
       <c r="B16" s="91" t="s">
         <v>107</v>
@@ -5495,8 +5514,8 @@
         <v>136</v>
       </c>
       <c r="L16" s="38"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
@@ -5507,7 +5526,7 @@
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="16.5" customHeight="1">
       <c r="A17" s="88"/>
       <c r="B17" s="90"/>
       <c r="C17" s="54" t="s">
@@ -5526,8 +5545,8 @@
         <v>134</v>
       </c>
       <c r="L17" s="38"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="121"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="37"/>
@@ -5538,7 +5557,7 @@
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="16.5" customHeight="1">
       <c r="A18" s="88"/>
       <c r="B18" s="87" t="s">
         <v>86</v>
@@ -5559,8 +5578,8 @@
       <c r="L18" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="121"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
@@ -5571,7 +5590,7 @@
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="16.5" customHeight="1">
       <c r="A19" s="87" t="s">
         <v>132</v>
       </c>
@@ -5592,10 +5611,10 @@
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="138" t="s">
+      <c r="M19" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="139"/>
+      <c r="N19" s="138"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="37"/>
@@ -5606,7 +5625,7 @@
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="16.5" customHeight="1">
       <c r="A20" s="87" t="s">
         <v>130</v>
       </c>
@@ -5623,8 +5642,8 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="37"/>
@@ -5637,7 +5656,7 @@
       </c>
       <c r="W20" s="38"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="16.5" customHeight="1">
       <c r="A21" s="87" t="s">
         <v>129</v>
       </c>
@@ -5658,8 +5677,8 @@
       <c r="L21" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="131"/>
-      <c r="N21" s="132"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="121"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="37"/>
@@ -5670,7 +5689,7 @@
       <c r="V21" s="38"/>
       <c r="W21" s="38"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="16.5" customHeight="1">
       <c r="A22" s="88"/>
       <c r="B22" s="87" t="s">
         <v>92</v>
@@ -5687,8 +5706,8 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="132"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="121"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="37"/>
@@ -5701,7 +5720,7 @@
       </c>
       <c r="W22" s="38"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="16.5" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
       <c r="C23" s="61" t="s">
@@ -5716,8 +5735,8 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="121"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="37"/>
@@ -5730,7 +5749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="16.5" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85" t="s">
         <v>107</v>
@@ -5749,10 +5768,10 @@
       <c r="L24" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="146" t="s">
+      <c r="M24" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="147"/>
+      <c r="N24" s="136"/>
       <c r="O24" s="85" t="s">
         <v>126</v>
       </c>
@@ -5767,7 +5786,7 @@
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="84"/>
       <c r="C25" s="54" t="s">
@@ -5784,8 +5803,8 @@
       <c r="L25" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="140"/>
-      <c r="N25" s="141"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
       <c r="O25" s="53"/>
       <c r="P25" s="54" t="s">
         <v>102</v>
@@ -5798,7 +5817,7 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="16.5" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="81" t="s">
         <v>86</v>
@@ -5817,8 +5836,8 @@
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="143"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="125"/>
       <c r="O26" s="50"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="49" t="s">
@@ -5831,7 +5850,7 @@
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="16.5" customHeight="1">
       <c r="A27" s="81" t="s">
         <v>123</v>
       </c>
@@ -5852,8 +5871,8 @@
       </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="145"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
@@ -5866,7 +5885,7 @@
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="16.5" customHeight="1">
       <c r="A28" s="81" t="s">
         <v>121</v>
       </c>
@@ -5883,8 +5902,8 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="37"/>
@@ -5897,7 +5916,7 @@
       </c>
       <c r="W28" s="38"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="16.5" customHeight="1">
       <c r="A29" s="81" t="s">
         <v>120</v>
       </c>
@@ -5916,8 +5935,8 @@
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="132"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="121"/>
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
       <c r="Q29" s="37"/>
@@ -5930,7 +5949,7 @@
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="16.5" customHeight="1">
       <c r="A30" s="82"/>
       <c r="B30" s="81" t="s">
         <v>92</v>
@@ -5947,8 +5966,8 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="132"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="121"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="37"/>
@@ -5961,7 +5980,7 @@
       </c>
       <c r="W30" s="38"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="16.5" customHeight="1">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="61" t="s">
@@ -5976,8 +5995,8 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="132"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="121"/>
       <c r="O31" s="38"/>
       <c r="P31" s="38"/>
       <c r="Q31" s="37"/>
@@ -5990,7 +6009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="16.5" customHeight="1">
       <c r="A32" s="78"/>
       <c r="B32" s="79" t="s">
         <v>107</v>
@@ -6007,8 +6026,8 @@
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="132"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="121"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="79" t="s">
@@ -6027,8 +6046,8 @@
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="148" t="s">
+    <row r="33" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A33" s="134" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="78"/>
@@ -6044,8 +6063,8 @@
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="132"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="121"/>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
       <c r="Q33" s="54" t="s">
@@ -6060,8 +6079,8 @@
       <c r="V33" s="38"/>
       <c r="W33" s="38"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="148"/>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A34" s="134"/>
       <c r="B34" s="75" t="s">
         <v>86</v>
       </c>
@@ -6077,8 +6096,8 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="132"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="121"/>
       <c r="O34" s="49" t="s">
         <v>114</v>
       </c>
@@ -6093,7 +6112,7 @@
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="16.5" customHeight="1">
       <c r="A35" s="76"/>
       <c r="B35" s="75" t="s">
         <v>84</v>
@@ -6110,8 +6129,8 @@
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="132"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="121"/>
       <c r="O35" s="46" t="s">
         <v>112</v>
       </c>
@@ -6126,7 +6145,7 @@
       </c>
       <c r="W35" s="38"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="16.5" customHeight="1">
       <c r="A36" s="75" t="s">
         <v>110</v>
       </c>
@@ -6143,8 +6162,8 @@
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="132"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="121"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="37"/>
@@ -6157,7 +6176,7 @@
       </c>
       <c r="W36" s="38"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="16.5" customHeight="1">
       <c r="A37" s="75" t="s">
         <v>109</v>
       </c>
@@ -6176,8 +6195,8 @@
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="121"/>
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
       <c r="Q37" s="37"/>
@@ -6190,7 +6209,7 @@
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="16.5" customHeight="1">
       <c r="A38" s="76"/>
       <c r="B38" s="75" t="s">
         <v>92</v>
@@ -6207,8 +6226,8 @@
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="121"/>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="37"/>
@@ -6221,7 +6240,7 @@
       </c>
       <c r="W38" s="38"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="16.5" customHeight="1">
       <c r="A39" s="74"/>
       <c r="B39" s="74"/>
       <c r="C39" s="61" t="s">
@@ -6236,8 +6255,8 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="132"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="121"/>
       <c r="O39" s="38"/>
       <c r="P39" s="38"/>
       <c r="Q39" s="37"/>
@@ -6250,7 +6269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="16.5" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="73" t="s">
         <v>107</v>
@@ -6275,8 +6294,8 @@
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="132"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="37"/>
@@ -6287,7 +6306,7 @@
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="68"/>
       <c r="B41" s="71"/>
       <c r="C41" s="54" t="s">
@@ -6304,8 +6323,8 @@
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="141"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="133"/>
       <c r="O41" s="53"/>
       <c r="P41" s="54" t="s">
         <v>102</v>
@@ -6318,7 +6337,7 @@
       <c r="V41" s="38"/>
       <c r="W41" s="38"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="16.5" customHeight="1">
       <c r="A42" s="68"/>
       <c r="B42" s="64" t="s">
         <v>86</v>
@@ -6337,8 +6356,8 @@
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="143"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="125"/>
       <c r="O42" s="50"/>
       <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
@@ -6351,7 +6370,7 @@
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="16.5" customHeight="1">
       <c r="A43" s="64" t="s">
         <v>101</v>
       </c>
@@ -6372,8 +6391,8 @@
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
       <c r="L43" s="47"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="145"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="127"/>
       <c r="O43" s="47"/>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -6386,7 +6405,7 @@
       <c r="V43" s="38"/>
       <c r="W43" s="38"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="16.5" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="62"/>
       <c r="C44" s="67" t="s">
@@ -6401,8 +6420,8 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="131"/>
-      <c r="N44" s="132"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="121"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="37"/>
@@ -6415,8 +6434,8 @@
       </c>
       <c r="W44" s="38"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153" t="s">
+    <row r="45" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A45" s="123" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="66" t="s">
@@ -6434,8 +6453,8 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="38"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="132"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="121"/>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="37"/>
@@ -6448,8 +6467,8 @@
       <c r="V45" s="38"/>
       <c r="W45" s="38"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
+    <row r="46" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A46" s="123"/>
       <c r="B46" s="64" t="s">
         <v>92</v>
       </c>
@@ -6465,8 +6484,8 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="38"/>
-      <c r="M46" s="131"/>
-      <c r="N46" s="132"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="121"/>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="37"/>
@@ -6479,7 +6498,7 @@
       </c>
       <c r="W46" s="38"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="16.5" customHeight="1">
       <c r="A47" s="62"/>
       <c r="B47" s="62"/>
       <c r="C47" s="61" t="s">
@@ -6494,8 +6513,8 @@
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="132"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="121"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="37"/>
@@ -6508,7 +6527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="16.5" customHeight="1">
       <c r="A48" s="60" t="s">
         <v>87</v>
       </c>
@@ -6529,8 +6548,8 @@
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="38"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="132"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="121"/>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
       <c r="Q48" s="37"/>
@@ -6541,7 +6560,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="16.5" customHeight="1">
       <c r="A49" s="56"/>
       <c r="B49" s="55" t="s">
         <v>84</v>
@@ -6562,8 +6581,8 @@
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="132"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="37"/>
@@ -6574,7 +6593,7 @@
       <c r="V49" s="38"/>
       <c r="W49" s="38"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16.5" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>81</v>
       </c>
@@ -6595,8 +6614,8 @@
       </c>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="143"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="125"/>
       <c r="O50" s="50"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
@@ -6609,7 +6628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16.5" customHeight="1">
       <c r="A51" s="48" t="s">
         <v>76</v>
       </c>
@@ -6630,8 +6649,8 @@
       </c>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="145"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="127"/>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
@@ -6644,7 +6663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16.5" customHeight="1">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="40" t="s">
@@ -6661,8 +6680,8 @@
       <c r="J52" s="43"/>
       <c r="K52" s="43"/>
       <c r="L52" s="43"/>
-      <c r="M52" s="149"/>
-      <c r="N52" s="150"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="129"/>
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
       <c r="Q52" s="40" t="s">
@@ -6675,7 +6694,7 @@
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16.5" customHeight="1">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
@@ -6696,8 +6715,8 @@
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="152"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="131"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
@@ -6710,7 +6729,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="38"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16.5" customHeight="1">
       <c r="A54" s="41" t="s">
         <v>63</v>
       </c>
@@ -6729,8 +6748,8 @@
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="132"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="121"/>
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
       <c r="Q54" s="37"/>
@@ -6745,7 +6764,7 @@
       <c r="V54" s="38"/>
       <c r="W54" s="38"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="35" t="s">
@@ -6760,8 +6779,8 @@
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="132"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="121"/>
       <c r="O55" s="38"/>
       <c r="P55" s="38"/>
       <c r="Q55" s="37"/>
@@ -6776,155 +6795,112 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="156" t="s">
+    <row r="56" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A56" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="156"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="156"/>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="157" t="s">
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A57" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="155" t="s">
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A58" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="154" t="s">
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A59" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="157" t="s">
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A60" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="157"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-      <c r="P60" s="157"/>
-      <c r="Q60" s="157"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6935,15 +6911,58 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -14,8 +19,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$D$193</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1395,8 +1400,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2211,6 +2216,124 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2220,130 +2343,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -2615,22 +2620,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2638,7 +2643,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2667,7 +2672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2712,7 +2717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2867,7 +2872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2895,7 +2900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -2987,7 +2992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>38</v>
       </c>
@@ -2995,7 +3000,7 @@
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>39</v>
       </c>
@@ -3007,7 +3012,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -3015,12 +3020,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>31</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -3132,7 +3137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3270,7 +3275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>22</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3320,7 +3325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
@@ -3356,12 +3361,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A56" s="160" t="s">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="117" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>31</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
@@ -3417,18 +3422,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="D61" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
@@ -3484,8 +3489,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3494,12 +3499,12 @@
       <c r="C67" s="4">
         <v>44102</v>
       </c>
-      <c r="D67" s="4">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="10" t="s">
+      <c r="D67" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3508,11 +3513,11 @@
       <c r="C68" s="4">
         <v>44102</v>
       </c>
-      <c r="D68" s="4">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>33</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>34</v>
       </c>
@@ -3540,7 +3545,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>36</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>35</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>32</v>
       </c>
@@ -3596,7 +3601,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>33</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>34</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>44113</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3643,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>32</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>33</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>34</v>
       </c>
@@ -3680,7 +3685,7 @@
         <v>44120</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3758,13 +3763,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1">
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>37</v>
       </c>
@@ -3772,7 +3777,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="33"/>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>31</v>
       </c>
@@ -3784,7 +3789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>32</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>34</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>31</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>35</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>31</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>34</v>
       </c>
@@ -3940,7 +3945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>31</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>32</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>33</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>34</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>22</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>22</v>
       </c>
@@ -4038,7 +4043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -4080,13 +4085,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1">
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>32</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>33</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>34</v>
       </c>
@@ -4142,7 +4147,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>31</v>
       </c>
@@ -4156,7 +4161,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>32</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>33</v>
       </c>
@@ -4184,7 +4189,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>34</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>36</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>35</v>
       </c>
@@ -4226,7 +4231,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>31</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>32</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>33</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>34</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>31</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>32</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>33</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>34</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>36</v>
       </c>
@@ -4352,7 +4357,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>22</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>22</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -4390,7 +4395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>23</v>
       </c>
@@ -4414,17 +4419,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1">
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1">
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>31</v>
       </c>
@@ -4434,7 +4439,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>33</v>
       </c>
@@ -4444,7 +4449,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>31</v>
       </c>
@@ -4454,7 +4459,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>33</v>
       </c>
@@ -4464,7 +4469,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>31</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>33</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4499,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>33</v>
       </c>
@@ -4504,7 +4509,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -4514,15 +4519,15 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1">
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>31</v>
       </c>
@@ -4532,7 +4537,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>33</v>
       </c>
@@ -4542,7 +4547,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4557,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>33</v>
       </c>
@@ -4562,7 +4567,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>31</v>
       </c>
@@ -4572,7 +4577,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>33</v>
       </c>
@@ -4582,7 +4587,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>31</v>
       </c>
@@ -4592,7 +4597,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>33</v>
       </c>
@@ -4602,7 +4607,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>36</v>
       </c>
@@ -4612,15 +4617,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
         <v>31</v>
       </c>
@@ -4630,7 +4635,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>33</v>
       </c>
@@ -4640,7 +4645,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4655,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>33</v>
       </c>
@@ -4661,7 +4666,7 @@
       <c r="D166" s="2"/>
       <c r="H166" s="21"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>31</v>
       </c>
@@ -4671,7 +4676,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>33</v>
       </c>
@@ -4681,7 +4686,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>31</v>
       </c>
@@ -4691,7 +4696,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>33</v>
       </c>
@@ -4701,7 +4706,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>36</v>
       </c>
@@ -4711,15 +4716,15 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
     </row>
-    <row r="174" spans="1:8" hidden="1">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>31</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>33</v>
       </c>
@@ -4741,7 +4746,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>31</v>
       </c>
@@ -4751,7 +4756,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>33</v>
       </c>
@@ -4761,7 +4766,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>31</v>
       </c>
@@ -4771,7 +4776,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>33</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>31</v>
       </c>
@@ -4791,7 +4796,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>33</v>
       </c>
@@ -4801,7 +4806,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>36</v>
       </c>
@@ -4811,15 +4816,15 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1">
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>31</v>
       </c>
@@ -4829,7 +4834,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>33</v>
       </c>
@@ -4839,7 +4844,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>31</v>
       </c>
@@ -4849,7 +4854,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>33</v>
       </c>
@@ -4859,7 +4864,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>31</v>
       </c>
@@ -4869,7 +4874,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>33</v>
       </c>
@@ -4879,7 +4884,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>31</v>
       </c>
@@ -4889,7 +4894,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>33</v>
       </c>
@@ -4899,7 +4904,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>36</v>
       </c>
@@ -4923,14 +4928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
@@ -4946,167 +4951,167 @@
     <col min="24" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="143" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="118" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="153" t="s">
+    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129"/>
+      <c r="B2" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="154" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="144"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="155" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="119"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="129"/>
+      <c r="B3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="156" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
       <c r="U3" s="114" t="s">
         <v>147</v>
       </c>
       <c r="V3" s="113"/>
-      <c r="W3" s="144"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="157" t="s">
+      <c r="W3" s="119"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="129"/>
+      <c r="B4" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="154" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="144"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A5" s="141"/>
-      <c r="B5" s="158" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="119"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="130"/>
+      <c r="B5" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="159" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
       <c r="U5" s="112" t="s">
         <v>147</v>
       </c>
       <c r="V5" s="111"/>
-      <c r="W5" s="145"/>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A6" s="147" t="s">
+      <c r="W5" s="120"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="110" t="s">
         <v>145</v>
       </c>
@@ -5134,10 +5139,10 @@
       <c r="L6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="151" t="s">
+      <c r="M6" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="151"/>
+      <c r="N6" s="139"/>
       <c r="O6" s="106" t="s">
         <v>145</v>
       </c>
@@ -5166,10 +5171,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A7" s="149"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="103">
         <v>1</v>
       </c>
@@ -5197,10 +5202,10 @@
       <c r="L7" s="103">
         <v>9</v>
       </c>
-      <c r="M7" s="152">
+      <c r="M7" s="140">
         <v>10</v>
       </c>
-      <c r="N7" s="152"/>
+      <c r="N7" s="140"/>
       <c r="O7" s="103">
         <v>11</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="99"/>
       <c r="B8" s="101" t="s">
         <v>107</v>
@@ -5254,8 +5259,8 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="38"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="134"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="37"/>
@@ -5266,7 +5271,7 @@
       <c r="V8" s="38"/>
       <c r="W8" s="38"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="96"/>
       <c r="B9" s="99"/>
       <c r="C9" s="54" t="s">
@@ -5285,8 +5290,8 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="38"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="134"/>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="37"/>
@@ -5297,7 +5302,7 @@
       <c r="V9" s="38"/>
       <c r="W9" s="38"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="96"/>
       <c r="B10" s="95" t="s">
         <v>86</v>
@@ -5318,8 +5323,8 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="134"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="37"/>
@@ -5330,7 +5335,7 @@
       <c r="V10" s="38"/>
       <c r="W10" s="38"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
         <v>144</v>
       </c>
@@ -5353,8 +5358,8 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="134"/>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="37"/>
@@ -5365,7 +5370,7 @@
       <c r="V11" s="38"/>
       <c r="W11" s="38"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="95" t="s">
         <v>142</v>
       </c>
@@ -5382,8 +5387,8 @@
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="121"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="134"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="37"/>
@@ -5396,7 +5401,7 @@
       </c>
       <c r="W12" s="38"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1">
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="s">
         <v>141</v>
       </c>
@@ -5417,8 +5422,8 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="134"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="37"/>
@@ -5429,7 +5434,7 @@
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1">
+    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="96"/>
       <c r="B14" s="95" t="s">
         <v>92</v>
@@ -5446,8 +5451,8 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="121"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="134"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="37"/>
@@ -5460,7 +5465,7 @@
       </c>
       <c r="W14" s="38"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" customHeight="1">
+    <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="94"/>
       <c r="B15" s="94"/>
       <c r="C15" s="61" t="s">
@@ -5475,8 +5480,8 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="134"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="37"/>
@@ -5489,7 +5494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" customHeight="1">
+    <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90"/>
       <c r="B16" s="91" t="s">
         <v>107</v>
@@ -5514,8 +5519,8 @@
         <v>136</v>
       </c>
       <c r="L16" s="38"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="134"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="37"/>
@@ -5526,7 +5531,7 @@
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1">
+    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="90"/>
       <c r="C17" s="54" t="s">
@@ -5545,8 +5550,8 @@
         <v>134</v>
       </c>
       <c r="L17" s="38"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="121"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="37"/>
@@ -5557,7 +5562,7 @@
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1">
+    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88"/>
       <c r="B18" s="87" t="s">
         <v>86</v>
@@ -5578,8 +5583,8 @@
       <c r="L18" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="37"/>
@@ -5590,7 +5595,7 @@
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1">
+    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
         <v>132</v>
       </c>
@@ -5611,10 +5616,10 @@
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="137" t="s">
+      <c r="M19" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="138"/>
+      <c r="N19" s="142"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="37"/>
@@ -5625,7 +5630,7 @@
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1">
+    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
         <v>130</v>
       </c>
@@ -5642,8 +5647,8 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="134"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="37"/>
@@ -5656,7 +5661,7 @@
       </c>
       <c r="W20" s="38"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1">
+    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
         <v>129</v>
       </c>
@@ -5677,8 +5682,8 @@
       <c r="L21" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="120"/>
-      <c r="N21" s="121"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="134"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="37"/>
@@ -5689,7 +5694,7 @@
       <c r="V21" s="38"/>
       <c r="W21" s="38"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1">
+    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="88"/>
       <c r="B22" s="87" t="s">
         <v>92</v>
@@ -5706,8 +5711,8 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="121"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="134"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="37"/>
@@ -5720,7 +5725,7 @@
       </c>
       <c r="W22" s="38"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
       <c r="C23" s="61" t="s">
@@ -5735,8 +5740,8 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="121"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="134"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="37"/>
@@ -5749,7 +5754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1">
+    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="84"/>
       <c r="B24" s="85" t="s">
         <v>107</v>
@@ -5768,10 +5773,10 @@
       <c r="L24" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="135" t="s">
+      <c r="M24" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="136"/>
+      <c r="N24" s="150"/>
       <c r="O24" s="85" t="s">
         <v>126</v>
       </c>
@@ -5786,7 +5791,7 @@
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="82"/>
       <c r="B25" s="84"/>
       <c r="C25" s="54" t="s">
@@ -5803,8 +5808,8 @@
       <c r="L25" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="144"/>
       <c r="O25" s="53"/>
       <c r="P25" s="54" t="s">
         <v>102</v>
@@ -5817,7 +5822,7 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1">
+    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="82"/>
       <c r="B26" s="81" t="s">
         <v>86</v>
@@ -5836,8 +5841,8 @@
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="125"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="146"/>
       <c r="O26" s="50"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="49" t="s">
@@ -5850,7 +5855,7 @@
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1">
+    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="81" t="s">
         <v>123</v>
       </c>
@@ -5871,8 +5876,8 @@
       </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
@@ -5885,7 +5890,7 @@
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1">
+    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="81" t="s">
         <v>121</v>
       </c>
@@ -5902,8 +5907,8 @@
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="121"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="134"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="37"/>
@@ -5916,7 +5921,7 @@
       </c>
       <c r="W28" s="38"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1">
+    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="81" t="s">
         <v>120</v>
       </c>
@@ -5935,8 +5940,8 @@
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="121"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="134"/>
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
       <c r="Q29" s="37"/>
@@ -5949,7 +5954,7 @@
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" customHeight="1">
+    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="82"/>
       <c r="B30" s="81" t="s">
         <v>92</v>
@@ -5966,8 +5971,8 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="134"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="37"/>
@@ -5980,7 +5985,7 @@
       </c>
       <c r="W30" s="38"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" customHeight="1">
+    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="61" t="s">
@@ -5995,8 +6000,8 @@
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="134"/>
       <c r="O31" s="38"/>
       <c r="P31" s="38"/>
       <c r="Q31" s="37"/>
@@ -6009,7 +6014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5" customHeight="1">
+    <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="79" t="s">
         <v>107</v>
@@ -6026,8 +6031,8 @@
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="121"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="134"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="79" t="s">
@@ -6046,8 +6051,8 @@
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A33" s="134" t="s">
+    <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="151" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="78"/>
@@ -6063,8 +6068,8 @@
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="121"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="134"/>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
       <c r="Q33" s="54" t="s">
@@ -6079,8 +6084,8 @@
       <c r="V33" s="38"/>
       <c r="W33" s="38"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A34" s="134"/>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="151"/>
       <c r="B34" s="75" t="s">
         <v>86</v>
       </c>
@@ -6096,8 +6101,8 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="121"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="134"/>
       <c r="O34" s="49" t="s">
         <v>114</v>
       </c>
@@ -6112,7 +6117,7 @@
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1">
+    <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="76"/>
       <c r="B35" s="75" t="s">
         <v>84</v>
@@ -6129,8 +6134,8 @@
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="121"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="134"/>
       <c r="O35" s="46" t="s">
         <v>112</v>
       </c>
@@ -6145,7 +6150,7 @@
       </c>
       <c r="W35" s="38"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1">
+    <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="75" t="s">
         <v>110</v>
       </c>
@@ -6162,8 +6167,8 @@
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="121"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="134"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="37"/>
@@ -6176,7 +6181,7 @@
       </c>
       <c r="W36" s="38"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1">
+    <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="75" t="s">
         <v>109</v>
       </c>
@@ -6195,8 +6200,8 @@
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="121"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="134"/>
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
       <c r="Q37" s="37"/>
@@ -6209,7 +6214,7 @@
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1">
+    <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="76"/>
       <c r="B38" s="75" t="s">
         <v>92</v>
@@ -6226,8 +6231,8 @@
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="121"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="134"/>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="37"/>
@@ -6240,7 +6245,7 @@
       </c>
       <c r="W38" s="38"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" customHeight="1">
+    <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="74"/>
       <c r="B39" s="74"/>
       <c r="C39" s="61" t="s">
@@ -6255,8 +6260,8 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="121"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="134"/>
       <c r="O39" s="38"/>
       <c r="P39" s="38"/>
       <c r="Q39" s="37"/>
@@ -6269,7 +6274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1">
+    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71"/>
       <c r="B40" s="73" t="s">
         <v>107</v>
@@ -6294,8 +6299,8 @@
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="134"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="37"/>
@@ -6306,7 +6311,7 @@
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" customHeight="1">
+    <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68"/>
       <c r="B41" s="71"/>
       <c r="C41" s="54" t="s">
@@ -6323,8 +6328,8 @@
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="133"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="144"/>
       <c r="O41" s="53"/>
       <c r="P41" s="54" t="s">
         <v>102</v>
@@ -6337,7 +6342,7 @@
       <c r="V41" s="38"/>
       <c r="W41" s="38"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" customHeight="1">
+    <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="68"/>
       <c r="B42" s="64" t="s">
         <v>86</v>
@@ -6356,8 +6361,8 @@
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="125"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="146"/>
       <c r="O42" s="50"/>
       <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
@@ -6370,7 +6375,7 @@
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" customHeight="1">
+    <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
         <v>101</v>
       </c>
@@ -6391,8 +6396,8 @@
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
       <c r="L43" s="47"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="127"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="148"/>
       <c r="O43" s="47"/>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -6405,7 +6410,7 @@
       <c r="V43" s="38"/>
       <c r="W43" s="38"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" customHeight="1">
+    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="62"/>
       <c r="C44" s="67" t="s">
@@ -6420,8 +6425,8 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="121"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="134"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="37"/>
@@ -6434,8 +6439,8 @@
       </c>
       <c r="W44" s="38"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A45" s="123" t="s">
+    <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="156" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="66" t="s">
@@ -6453,8 +6458,8 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="38"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="121"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="134"/>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="37"/>
@@ -6467,8 +6472,8 @@
       <c r="V45" s="38"/>
       <c r="W45" s="38"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A46" s="123"/>
+    <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="156"/>
       <c r="B46" s="64" t="s">
         <v>92</v>
       </c>
@@ -6484,8 +6489,8 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="38"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="121"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="134"/>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="37"/>
@@ -6498,7 +6503,7 @@
       </c>
       <c r="W46" s="38"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" customHeight="1">
+    <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
       <c r="B47" s="62"/>
       <c r="C47" s="61" t="s">
@@ -6513,8 +6518,8 @@
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="121"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="134"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="37"/>
@@ -6527,7 +6532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.5" customHeight="1">
+    <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="60" t="s">
         <v>87</v>
       </c>
@@ -6548,8 +6553,8 @@
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="38"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="121"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="134"/>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
       <c r="Q48" s="37"/>
@@ -6560,7 +6565,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" customHeight="1">
+    <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="55" t="s">
         <v>84</v>
@@ -6581,8 +6586,8 @@
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="121"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="134"/>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="37"/>
@@ -6593,7 +6598,7 @@
       <c r="V49" s="38"/>
       <c r="W49" s="38"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" customHeight="1">
+    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="51" t="s">
         <v>81</v>
       </c>
@@ -6614,8 +6619,8 @@
       </c>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="125"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="146"/>
       <c r="O50" s="50"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
@@ -6628,7 +6633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16.5" customHeight="1">
+    <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>76</v>
       </c>
@@ -6649,8 +6654,8 @@
       </c>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="127"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="148"/>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
@@ -6663,7 +6668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16.5" customHeight="1">
+    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="40" t="s">
@@ -6680,8 +6685,8 @@
       <c r="J52" s="43"/>
       <c r="K52" s="43"/>
       <c r="L52" s="43"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="129"/>
+      <c r="M52" s="152"/>
+      <c r="N52" s="153"/>
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
       <c r="Q52" s="40" t="s">
@@ -6694,7 +6699,7 @@
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" customHeight="1">
+    <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
@@ -6715,8 +6720,8 @@
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="131"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="155"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
@@ -6729,7 +6734,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="38"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" customHeight="1">
+    <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
         <v>63</v>
       </c>
@@ -6748,8 +6753,8 @@
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="38"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="121"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="134"/>
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
       <c r="Q54" s="37"/>
@@ -6764,7 +6769,7 @@
       <c r="V54" s="38"/>
       <c r="W54" s="38"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" customHeight="1">
+    <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="35" t="s">
@@ -6779,8 +6784,8 @@
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="38"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="121"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="134"/>
       <c r="O55" s="38"/>
       <c r="P55" s="38"/>
       <c r="Q55" s="37"/>
@@ -6795,112 +6800,155 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A56" s="122" t="s">
+    <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A57" s="117" t="s">
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="160"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A58" s="119" t="s">
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A59" s="118" t="s">
+      <c r="B58" s="159"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="159"/>
+      <c r="M58" s="159"/>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A60" s="117" t="s">
+      <c r="B59" s="159"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="159"/>
+      <c r="M59" s="159"/>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6911,58 +6959,15 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1967,7 +1967,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2217,6 +2216,84 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -2226,6 +2303,27 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
@@ -2247,105 +2345,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2631,8 +2631,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,10 +3005,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="30">
+      <c r="C28" s="160">
         <v>44058</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>44142</v>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="115" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="115"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="116" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3517,8 +3517,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3527,12 +3527,12 @@
       <c r="C69" s="4">
         <v>44102</v>
       </c>
-      <c r="D69" s="4">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="D69" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3541,8 +3541,8 @@
       <c r="C70" s="4">
         <v>44102</v>
       </c>
-      <c r="D70" s="4">
-        <v>44106</v>
+      <c r="D70" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,9 +3773,9 @@
       <c r="A88" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
@@ -4718,7 +4718,7 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="115" t="s">
         <v>49</v>
       </c>
       <c r="C173" s="15"/>
@@ -4736,85 +4736,101 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+      <c r="D175" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
+      <c r="D176" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+      <c r="D177" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="D178" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="10" t="s">
+      <c r="D179" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+      <c r="D180" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
+      <c r="D181" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4937,2018 +4953,1975 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="34" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="34" customWidth="1"/>
-    <col min="15" max="21" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="27.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="33" customWidth="1"/>
+    <col min="15" max="21" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="118" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="118" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="143" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="121" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="122" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="119"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="144"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129"/>
-      <c r="B3" s="123" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="124" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="114" t="s">
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="113"/>
-      <c r="W3" s="119"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="144"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="122" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="119"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="144"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130"/>
-      <c r="B5" s="126" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="127" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="112" t="s">
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="111"/>
-      <c r="W5" s="120"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="145"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="110" t="s">
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="108" t="s">
+      <c r="I6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="139"/>
-      <c r="O6" s="106" t="s">
+      <c r="N6" s="151"/>
+      <c r="O6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="106" t="s">
+      <c r="P6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="106" t="s">
+      <c r="U6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="106" t="s">
+      <c r="V6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="105" t="s">
+      <c r="W6" s="104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="103">
+      <c r="A7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="102">
         <v>1</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="102">
         <v>2</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="102">
         <v>3</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="102">
         <v>4</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="103">
         <v>5</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="103">
         <v>6</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="103">
         <v>7</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="103">
         <v>8</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="102">
         <v>9</v>
       </c>
-      <c r="M7" s="140">
+      <c r="M7" s="152">
         <v>10</v>
       </c>
-      <c r="N7" s="140"/>
-      <c r="O7" s="103">
+      <c r="N7" s="152"/>
+      <c r="O7" s="102">
         <v>11</v>
       </c>
-      <c r="P7" s="103">
+      <c r="P7" s="102">
         <v>12</v>
       </c>
-      <c r="Q7" s="104">
+      <c r="Q7" s="103">
         <v>13</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="103">
         <v>14</v>
       </c>
-      <c r="S7" s="104">
+      <c r="S7" s="103">
         <v>15</v>
       </c>
-      <c r="T7" s="104">
+      <c r="T7" s="103">
         <v>16</v>
       </c>
-      <c r="U7" s="103">
+      <c r="U7" s="102">
         <v>17</v>
       </c>
-      <c r="V7" s="103">
+      <c r="V7" s="102">
         <v>18</v>
       </c>
-      <c r="W7" s="102">
+      <c r="W7" s="101">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="54" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="70" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="69" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="67" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="38"/>
+      <c r="W12" s="37"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="97" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="63" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="38"/>
+      <c r="W14" s="37"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="61" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="93" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="52" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54" t="s">
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="70" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="49" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="69" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="141" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="67" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="38"/>
+      <c r="W20" s="37"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="65" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="63" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="38"/>
+      <c r="W22" s="37"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="61" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="61" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="85" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="150"/>
-      <c r="O24" s="85" t="s">
+      <c r="N24" s="136"/>
+      <c r="O24" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="85" t="s">
+      <c r="P24" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="54" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="54" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="143"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54" t="s">
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="81" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="49" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="49" t="s">
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="46" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="46" t="s">
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="67" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="38"/>
+      <c r="W28" s="37"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="65" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="81" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="63" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="38"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="61" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="61" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="79" t="s">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="R32" s="79" t="s">
+      <c r="R32" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="S32" s="79" t="s">
+      <c r="S32" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="79" t="s">
+      <c r="T32" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="54" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="54" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54" t="s">
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="134"/>
+      <c r="B34" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="49" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="49" t="s">
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="75" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="134"/>
-      <c r="O35" s="46" t="s">
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="46" t="s">
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="W35" s="38"/>
+      <c r="W35" s="37"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="67" t="s">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="38"/>
+      <c r="W36" s="37"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="65" t="s">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="63" t="s">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="38"/>
+      <c r="W38" s="37"/>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="61" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="61" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73" t="s">
+      <c r="A40" s="70"/>
+      <c r="B40" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="54" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="49" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="148"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="46" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="67" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="67" t="s">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="38"/>
+      <c r="W44" s="37"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="65" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
-      <c r="B46" s="64" t="s">
+      <c r="A46" s="123"/>
+      <c r="B46" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="63" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W46" s="38"/>
+      <c r="W46" s="37"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="61" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="134"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="61" t="s">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="133"/>
-      <c r="N48" s="134"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="52" t="s">
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="49" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="146"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="49" t="s">
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="46" t="s">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="147"/>
-      <c r="N51" s="148"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="46" t="s">
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="127"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="40" t="s">
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="35" t="s">
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="40" t="s">
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="U54" s="40" t="s">
+      <c r="U54" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="35" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="35" t="s">
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="35" t="s">
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="160"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="160"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="157" t="s">
+      <c r="A57" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="159" t="s">
+      <c r="A58" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="159"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="159"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="158" t="s">
+      <c r="A59" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="159"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="159"/>
-      <c r="I59" s="159"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="159"/>
-      <c r="M59" s="159"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="157" t="s">
+      <c r="A60" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="157"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-      <c r="P60" s="157"/>
-      <c r="Q60" s="157"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6959,15 +6932,58 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$D$193</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1493,7 +1493,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1638,6 +1638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1936,7 +1942,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1951,7 +1957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1959,13 +1964,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2216,6 +2219,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2345,7 +2351,8 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2631,8 +2638,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,7 +2651,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2865,9 +2872,7 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
@@ -2879,9 +2884,7 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
@@ -2893,9 +2896,7 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2907,9 +2908,7 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
@@ -2921,10 +2920,10 @@
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>44088</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2935,9 +2934,7 @@
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4">
-        <v>44172</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
@@ -2949,9 +2946,7 @@
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4">
-        <v>44179</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
@@ -2963,9 +2958,7 @@
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
-        <v>44173</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
@@ -2977,51 +2970,49 @@
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4">
-        <v>44173</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="160">
+      <c r="B28" s="26"/>
+      <c r="C28" s="114">
         <v>44058</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="27">
         <v>44142</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="112" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3032,9 +3023,7 @@
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>44</v>
       </c>
@@ -3046,9 +3035,7 @@
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3060,9 +3047,7 @@
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
         <v>44</v>
       </c>
@@ -3074,9 +3059,7 @@
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
         <v>44</v>
       </c>
@@ -3088,9 +3071,7 @@
       <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
-        <v>44080</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
         <v>44</v>
       </c>
@@ -3102,9 +3083,7 @@
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="4">
-        <v>44080</v>
-      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
         <v>44</v>
       </c>
@@ -3116,9 +3095,7 @@
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="4">
-        <v>44080</v>
-      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
         <v>44</v>
       </c>
@@ -3130,9 +3107,7 @@
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4">
-        <v>44080</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
         <v>44</v>
       </c>
@@ -3144,9 +3119,7 @@
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="4">
-        <v>44080</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
         <v>44</v>
       </c>
@@ -3170,9 +3143,7 @@
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="4">
-        <v>44087</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
         <v>44</v>
       </c>
@@ -3184,9 +3155,7 @@
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="4">
-        <v>44087</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>44</v>
       </c>
@@ -3198,9 +3167,7 @@
       <c r="B43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="4">
-        <v>44087</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
         <v>44</v>
       </c>
@@ -3212,9 +3179,7 @@
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="4">
-        <v>44087</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>44</v>
       </c>
@@ -3226,9 +3191,7 @@
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="4">
-        <v>44094</v>
-      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
         <v>44</v>
       </c>
@@ -3240,9 +3203,7 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="4">
-        <v>44094</v>
-      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>44</v>
       </c>
@@ -3254,9 +3215,7 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="4">
-        <v>44094</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
         <v>44</v>
       </c>
@@ -3268,9 +3227,7 @@
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="4">
-        <v>44094</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
         <v>44</v>
       </c>
@@ -3282,9 +3239,7 @@
       <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="4">
-        <v>44094</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>44</v>
       </c>
@@ -3296,7 +3251,7 @@
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="114"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
@@ -3332,9 +3287,7 @@
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="4">
-        <v>44173</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>50</v>
       </c>
@@ -3346,23 +3299,21 @@
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="4">
-        <v>44173</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="113" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3429,7 +3380,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="115" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3440,9 +3391,7 @@
       <c r="B63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="4">
-        <v>44095</v>
-      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>44</v>
       </c>
@@ -3454,9 +3403,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="4">
-        <v>44095</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
         <v>44</v>
       </c>
@@ -3468,9 +3415,7 @@
       <c r="B65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="4">
-        <v>44095</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
         <v>44</v>
       </c>
@@ -3482,9 +3427,7 @@
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="4">
-        <v>44095</v>
-      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
         <v>44</v>
       </c>
@@ -3496,9 +3439,7 @@
       <c r="B67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="4">
-        <v>44102</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
         <v>44</v>
       </c>
@@ -3510,9 +3451,7 @@
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4">
-        <v>44102</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
         <v>44</v>
       </c>
@@ -3524,9 +3463,7 @@
       <c r="B69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="4">
-        <v>44102</v>
-      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
         <v>44</v>
       </c>
@@ -3538,67 +3475,57 @@
       <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="4">
-        <v>44102</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="4">
-        <v>44102</v>
-      </c>
-      <c r="D71" s="6">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="4">
-        <v>44109</v>
-      </c>
-      <c r="D72" s="5">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="4">
-        <v>44109</v>
-      </c>
-      <c r="D73" s="4">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="4">
-        <v>44109</v>
-      </c>
-      <c r="D74" s="4">
-        <v>44113</v>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3608,11 +3535,9 @@
       <c r="B75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="4">
-        <v>44109</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="4">
-        <v>44113</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,9 +3547,7 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="4">
-        <v>44109</v>
-      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="4">
         <v>44113</v>
       </c>
@@ -3636,9 +3559,7 @@
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="4">
-        <v>44116</v>
-      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="4">
         <v>44120</v>
       </c>
@@ -3650,9 +3571,7 @@
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="4">
-        <v>44116</v>
-      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="4">
         <v>44120</v>
       </c>
@@ -3664,11 +3583,9 @@
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="4">
-        <v>44116</v>
-      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="4">
-        <v>44120</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,9 +3595,7 @@
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="4">
-        <v>44116</v>
-      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="4">
         <v>44120</v>
       </c>
@@ -3699,7 +3614,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3713,7 +3628,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -3727,7 +3642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3751,7 +3666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3763,19 +3678,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+    <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
@@ -3952,9 +3869,7 @@
       <c r="B103" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>44</v>
       </c>
@@ -3966,9 +3881,7 @@
       <c r="B104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>44</v>
       </c>
@@ -3980,9 +3893,7 @@
       <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>44</v>
       </c>
@@ -3994,9 +3905,7 @@
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C106" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
         <v>44</v>
       </c>
@@ -4008,15 +3917,13 @@
       <c r="B107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="4">
-        <v>44074</v>
-      </c>
+      <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -4029,7 +3936,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +3950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -4057,7 +3964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4071,7 +3978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -4085,22 +3992,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="116" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="4">
-        <v>44137</v>
-      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="4">
         <v>44141</v>
       </c>
@@ -4112,9 +4021,7 @@
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="4">
-        <v>44137</v>
-      </c>
+      <c r="C116" s="4"/>
       <c r="D116" s="4">
         <v>44141</v>
       </c>
@@ -4126,9 +4033,7 @@
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="4">
-        <v>44137</v>
-      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="4">
         <v>44141</v>
       </c>
@@ -4140,9 +4045,7 @@
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="4">
-        <v>44137</v>
-      </c>
+      <c r="C118" s="4"/>
       <c r="D118" s="4">
         <v>44141</v>
       </c>
@@ -4154,9 +4057,7 @@
       <c r="B119" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="4">
-        <v>44144</v>
-      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="4">
         <v>44148</v>
       </c>
@@ -4168,9 +4069,7 @@
       <c r="B120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="4">
-        <v>44144</v>
-      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="4">
         <v>44148</v>
       </c>
@@ -4182,9 +4081,7 @@
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="4">
-        <v>44144</v>
-      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="4">
         <v>44148</v>
       </c>
@@ -4196,14 +4093,12 @@
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="4">
-        <v>44144</v>
-      </c>
+      <c r="C122" s="4"/>
       <c r="D122" s="4">
         <v>44148</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>36</v>
       </c>
@@ -4224,9 +4119,7 @@
       <c r="B124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="4">
-        <v>44137</v>
-      </c>
+      <c r="C124" s="4"/>
       <c r="D124" s="5">
         <v>44158</v>
       </c>
@@ -4238,9 +4131,7 @@
       <c r="B125" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="4">
-        <v>44151</v>
-      </c>
+      <c r="C125" s="4"/>
       <c r="D125" s="4">
         <v>44155</v>
       </c>
@@ -4252,9 +4143,7 @@
       <c r="B126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="4">
-        <v>44151</v>
-      </c>
+      <c r="C126" s="4"/>
       <c r="D126" s="4">
         <v>44155</v>
       </c>
@@ -4266,9 +4155,7 @@
       <c r="B127" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="4">
-        <v>44151</v>
-      </c>
+      <c r="C127" s="4"/>
       <c r="D127" s="4">
         <v>44155</v>
       </c>
@@ -4280,9 +4167,7 @@
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="4">
-        <v>44151</v>
-      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="4">
         <v>44155</v>
       </c>
@@ -4294,9 +4179,7 @@
       <c r="B129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="4">
-        <v>44158</v>
-      </c>
+      <c r="C129" s="4"/>
       <c r="D129" s="4">
         <v>44162</v>
       </c>
@@ -4308,9 +4191,7 @@
       <c r="B130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="4">
-        <v>44158</v>
-      </c>
+      <c r="C130" s="4"/>
       <c r="D130" s="4">
         <v>44162</v>
       </c>
@@ -4322,9 +4203,7 @@
       <c r="B131" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C131" s="4">
-        <v>44158</v>
-      </c>
+      <c r="C131" s="4"/>
       <c r="D131" s="4">
         <v>44162</v>
       </c>
@@ -4336,9 +4215,7 @@
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="4">
-        <v>44158</v>
-      </c>
+      <c r="C132" s="4"/>
       <c r="D132" s="4">
         <v>44162</v>
       </c>
@@ -4408,7 +4285,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4420,17 +4297,17 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="20"/>
+      <c r="A139" s="19"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4509,7 +4386,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -4519,16 +4396,20 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4607,7 +4488,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>36</v>
       </c>
@@ -4617,16 +4498,20 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4664,7 +4549,7 @@
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="H166" s="21"/>
+      <c r="H166" s="20"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
@@ -4718,13 +4603,13 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="115" t="s">
+      <c r="A173" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>31</v>
       </c>
@@ -4736,7 +4621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>33</v>
       </c>
@@ -4748,7 +4633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
@@ -4760,7 +4645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>33</v>
       </c>
@@ -4772,7 +4657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>31</v>
       </c>
@@ -4784,7 +4669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>33</v>
       </c>
@@ -4796,7 +4681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>31</v>
       </c>
@@ -4808,7 +4693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>33</v>
       </c>
@@ -4820,7 +4705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>36</v>
       </c>
@@ -4832,16 +4717,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="19" t="s">
+      <c r="A184" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4934,6 +4823,7 @@
   <autoFilter ref="A1:D193">
     <filterColumn colId="3">
       <filters blank="1">
+        <filter val="31/11/2020"/>
         <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
@@ -4953,18 +4843,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="33" customWidth="1"/>
-    <col min="15" max="21" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="27.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="30" customWidth="1"/>
+    <col min="15" max="21" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,10 +4946,10 @@
       <c r="R3" s="156"/>
       <c r="S3" s="156"/>
       <c r="T3" s="156"/>
-      <c r="U3" s="113" t="s">
+      <c r="U3" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="112"/>
+      <c r="V3" s="109"/>
       <c r="W3" s="144"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5116,10 +5006,10 @@
       <c r="R5" s="159"/>
       <c r="S5" s="159"/>
       <c r="T5" s="159"/>
-      <c r="U5" s="111" t="s">
+      <c r="U5" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="110"/>
+      <c r="V5" s="107"/>
       <c r="W5" s="145"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5128,62 +5018,62 @@
       </c>
       <c r="B6" s="148"/>
       <c r="C6" s="148"/>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="102" t="s">
         <v>145</v>
       </c>
       <c r="M6" s="151" t="s">
         <v>145</v>
       </c>
       <c r="N6" s="151"/>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="106" t="s">
+      <c r="Q6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="106" t="s">
+      <c r="R6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="106" t="s">
+      <c r="S6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="106" t="s">
+      <c r="T6" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="105" t="s">
+      <c r="U6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="104" t="s">
+      <c r="W6" s="101" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5191,1628 +5081,1628 @@
       <c r="A7" s="149"/>
       <c r="B7" s="150"/>
       <c r="C7" s="150"/>
-      <c r="D7" s="102">
+      <c r="D7" s="99">
         <v>1</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="99">
         <v>2</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="99">
         <v>3</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="99">
         <v>4</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="100">
         <v>5</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="100">
         <v>6</v>
       </c>
-      <c r="J7" s="103">
+      <c r="J7" s="100">
         <v>7</v>
       </c>
-      <c r="K7" s="103">
+      <c r="K7" s="100">
         <v>8</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="99">
         <v>9</v>
       </c>
       <c r="M7" s="152">
         <v>10</v>
       </c>
       <c r="N7" s="152"/>
-      <c r="O7" s="102">
+      <c r="O7" s="99">
         <v>11</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="99">
         <v>12</v>
       </c>
-      <c r="Q7" s="103">
+      <c r="Q7" s="100">
         <v>13</v>
       </c>
-      <c r="R7" s="103">
+      <c r="R7" s="100">
         <v>14</v>
       </c>
-      <c r="S7" s="103">
+      <c r="S7" s="100">
         <v>15</v>
       </c>
-      <c r="T7" s="103">
+      <c r="T7" s="100">
         <v>16</v>
       </c>
-      <c r="U7" s="102">
+      <c r="U7" s="99">
         <v>17</v>
       </c>
-      <c r="V7" s="102">
+      <c r="V7" s="99">
         <v>18</v>
       </c>
-      <c r="W7" s="101">
+      <c r="W7" s="98">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G8" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="120"/>
       <c r="N8" s="121"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="120"/>
       <c r="N9" s="121"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
-      <c r="B10" s="94" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="69" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="120"/>
       <c r="N10" s="121"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="68" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="120"/>
       <c r="N11" s="121"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="120"/>
       <c r="N12" s="121"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="66" t="s">
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="37"/>
+      <c r="W12" s="34"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="96" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="120"/>
       <c r="N13" s="121"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95"/>
-      <c r="B14" s="94" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="120"/>
       <c r="N14" s="121"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="62" t="s">
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="37"/>
+      <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="60" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="120"/>
       <c r="N15" s="121"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="60" t="s">
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="92" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="120"/>
       <c r="N16" s="121"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="51" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="120"/>
       <c r="N17" s="121"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="69" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="48" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45" t="s">
         <v>124</v>
       </c>
       <c r="M18" s="120"/>
       <c r="N18" s="121"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="68" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="137" t="s">
         <v>112</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="66" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="120"/>
       <c r="N20" s="121"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="66" t="s">
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="37"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="64" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="61" t="s">
         <v>128</v>
       </c>
       <c r="M21" s="120"/>
       <c r="N21" s="121"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="86" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="120"/>
       <c r="N22" s="121"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="62" t="s">
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="37"/>
+      <c r="W22" s="34"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="60" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="120"/>
       <c r="N23" s="121"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="60" t="s">
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="84" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="81" t="s">
         <v>128</v>
       </c>
       <c r="M24" s="135" t="s">
         <v>127</v>
       </c>
       <c r="N24" s="136"/>
-      <c r="O24" s="84" t="s">
+      <c r="O24" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="84" t="s">
+      <c r="P24" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="53" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="50" t="s">
         <v>124</v>
       </c>
       <c r="M25" s="132"/>
       <c r="N25" s="133"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53" t="s">
+      <c r="O25" s="49"/>
+      <c r="P25" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
-      <c r="B26" s="80" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="48" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="124"/>
       <c r="N26" s="125"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="48" t="s">
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="45" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
       <c r="M27" s="126"/>
       <c r="N27" s="127"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="45" t="s">
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="66" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34"/>
       <c r="M28" s="120"/>
       <c r="N28" s="121"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="66" t="s">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="37"/>
+      <c r="W28" s="34"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="120"/>
       <c r="N29" s="121"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="64" t="s">
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="120"/>
       <c r="N30" s="121"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="62" t="s">
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="37"/>
+      <c r="W30" s="34"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="60" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
       <c r="M31" s="120"/>
       <c r="N31" s="121"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="60" t="s">
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="120"/>
       <c r="N32" s="121"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="78" t="s">
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="R32" s="78" t="s">
+      <c r="R32" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="S32" s="78" t="s">
+      <c r="S32" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="78" t="s">
+      <c r="T32" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="120"/>
       <c r="N33" s="121"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="53" t="s">
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="53" t="s">
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="134"/>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="120"/>
       <c r="N34" s="121"/>
-      <c r="O34" s="48" t="s">
+      <c r="O34" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="48" t="s">
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="74" t="s">
+      <c r="A35" s="72"/>
+      <c r="B35" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="120"/>
       <c r="N35" s="121"/>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="45" t="s">
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="W35" s="37"/>
+      <c r="W35" s="34"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="66" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
       <c r="M36" s="120"/>
       <c r="N36" s="121"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="66" t="s">
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="37"/>
+      <c r="W36" s="34"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="34"/>
       <c r="M37" s="120"/>
       <c r="N37" s="121"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="64" t="s">
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="74" t="s">
+      <c r="A38" s="72"/>
+      <c r="B38" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="37"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
       <c r="M38" s="120"/>
       <c r="N38" s="121"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="62" t="s">
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="37"/>
+      <c r="W38" s="34"/>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="60" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="34"/>
       <c r="M39" s="120"/>
       <c r="N39" s="121"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="60" t="s">
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="72" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="71" t="s">
+      <c r="G40" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
       <c r="M40" s="120"/>
       <c r="N40" s="121"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="53" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
       <c r="M41" s="132"/>
       <c r="N41" s="133"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="53" t="s">
+      <c r="O41" s="49"/>
+      <c r="P41" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
-      <c r="B42" s="63" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="124"/>
       <c r="N42" s="125"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="48" t="s">
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
       <c r="M43" s="126"/>
       <c r="N43" s="127"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="45" t="s">
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="66" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
       <c r="M44" s="120"/>
       <c r="N44" s="121"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="66" t="s">
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="37"/>
+      <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="37"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
       <c r="M45" s="120"/>
       <c r="N45" s="121"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="64" t="s">
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="123"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
       <c r="M46" s="120"/>
       <c r="N46" s="121"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="62" t="s">
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W46" s="37"/>
+      <c r="W46" s="34"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="60" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="37"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="120"/>
       <c r="N47" s="121"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="60" t="s">
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
       <c r="M48" s="120"/>
       <c r="N48" s="121"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="51" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="120"/>
       <c r="N49" s="121"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="48" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
       <c r="M50" s="124"/>
       <c r="N50" s="125"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="48" t="s">
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="45" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="126"/>
       <c r="N51" s="127"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="45" t="s">
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="39" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="128"/>
       <c r="N52" s="129"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="39" t="s">
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="130"/>
       <c r="N53" s="131"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="34" t="s">
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="37"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
       <c r="M54" s="120"/>
       <c r="N54" s="121"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="39" t="s">
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U54" s="39" t="s">
+      <c r="U54" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="34" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
       <c r="M55" s="120"/>
       <c r="N55" s="121"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="34" t="s">
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="34" t="s">
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="31" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -2222,6 +2222,125 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2231,128 +2350,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2639,7 +2639,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +2992,7 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="26"/>
@@ -3528,28 +3528,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="D75" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4">
-        <v>44113</v>
+      <c r="D76" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
       <c r="A139" s="19"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="161" t="s">
+      <c r="A140" s="118" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="14"/>
@@ -4723,7 +4723,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="161" t="s">
+      <c r="A184" s="118" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="14"/>
@@ -4858,166 +4858,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="143" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="119" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="153" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="154" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="144"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="120"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140"/>
-      <c r="B3" s="155" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="156" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
       <c r="U3" s="110" t="s">
         <v>147</v>
       </c>
       <c r="V3" s="109"/>
-      <c r="W3" s="144"/>
+      <c r="W3" s="120"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="157" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="154" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="144"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="120"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="141"/>
-      <c r="B5" s="158" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="159" t="s">
+      <c r="C5" s="127"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
       <c r="U5" s="108" t="s">
         <v>147</v>
       </c>
       <c r="V5" s="107"/>
-      <c r="W5" s="145"/>
+      <c r="W5" s="121"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="106" t="s">
         <v>145</v>
       </c>
@@ -5045,10 +5045,10 @@
       <c r="L6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="151" t="s">
+      <c r="M6" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="151"/>
+      <c r="N6" s="140"/>
       <c r="O6" s="102" t="s">
         <v>145</v>
       </c>
@@ -5078,9 +5078,9 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="99">
         <v>1</v>
       </c>
@@ -5108,10 +5108,10 @@
       <c r="L7" s="99">
         <v>9</v>
       </c>
-      <c r="M7" s="152">
+      <c r="M7" s="141">
         <v>10</v>
       </c>
-      <c r="N7" s="152"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="99">
         <v>11</v>
       </c>
@@ -5165,8 +5165,8 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="33"/>
@@ -5196,8 +5196,8 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="135"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="33"/>
@@ -5229,8 +5229,8 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="121"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="135"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="33"/>
@@ -5264,8 +5264,8 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="135"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="33"/>
@@ -5293,8 +5293,8 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="121"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="33"/>
@@ -5328,8 +5328,8 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="121"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="33"/>
@@ -5357,8 +5357,8 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="121"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="135"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="33"/>
@@ -5386,8 +5386,8 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="135"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="33"/>
@@ -5425,8 +5425,8 @@
         <v>136</v>
       </c>
       <c r="L16" s="34"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="33"/>
@@ -5456,8 +5456,8 @@
         <v>134</v>
       </c>
       <c r="L17" s="34"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="121"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="33"/>
@@ -5489,8 +5489,8 @@
       <c r="L18" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="135"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="33"/>
@@ -5522,10 +5522,10 @@
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="137" t="s">
+      <c r="M19" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="138"/>
+      <c r="N19" s="143"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="33"/>
@@ -5553,8 +5553,8 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="135"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="33"/>
@@ -5588,8 +5588,8 @@
       <c r="L21" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="120"/>
-      <c r="N21" s="121"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="135"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="33"/>
@@ -5617,8 +5617,8 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="121"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="135"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="33"/>
@@ -5646,8 +5646,8 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="121"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="135"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="33"/>
@@ -5679,10 +5679,10 @@
       <c r="L24" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="135" t="s">
+      <c r="M24" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="136"/>
+      <c r="N24" s="151"/>
       <c r="O24" s="81" t="s">
         <v>126</v>
       </c>
@@ -5714,8 +5714,8 @@
       <c r="L25" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="145"/>
       <c r="O25" s="49"/>
       <c r="P25" s="50" t="s">
         <v>102</v>
@@ -5747,8 +5747,8 @@
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="125"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="45" t="s">
@@ -5782,8 +5782,8 @@
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="43"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
@@ -5813,8 +5813,8 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="121"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="33"/>
@@ -5846,8 +5846,8 @@
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="121"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="135"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="33"/>
@@ -5877,8 +5877,8 @@
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="135"/>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
       <c r="Q30" s="33"/>
@@ -5906,8 +5906,8 @@
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="135"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
       <c r="Q31" s="33"/>
@@ -5937,8 +5937,8 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="121"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="135"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
       <c r="Q32" s="75" t="s">
@@ -5958,7 +5958,7 @@
       <c r="W32" s="34"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="152" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="74"/>
@@ -5974,8 +5974,8 @@
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
       <c r="L33" s="34"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="121"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="135"/>
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="50" t="s">
@@ -5991,7 +5991,7 @@
       <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="71" t="s">
         <v>86</v>
       </c>
@@ -6007,8 +6007,8 @@
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="34"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="121"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="135"/>
       <c r="O34" s="45" t="s">
         <v>114</v>
       </c>
@@ -6040,8 +6040,8 @@
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="121"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="135"/>
       <c r="O35" s="42" t="s">
         <v>112</v>
       </c>
@@ -6073,8 +6073,8 @@
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="34"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="121"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="135"/>
       <c r="O36" s="34"/>
       <c r="P36" s="34"/>
       <c r="Q36" s="33"/>
@@ -6106,8 +6106,8 @@
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="121"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="135"/>
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
       <c r="Q37" s="33"/>
@@ -6137,8 +6137,8 @@
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="121"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="135"/>
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="33"/>
@@ -6166,8 +6166,8 @@
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="121"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="135"/>
       <c r="O39" s="34"/>
       <c r="P39" s="34"/>
       <c r="Q39" s="33"/>
@@ -6205,8 +6205,8 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="135"/>
       <c r="O40" s="34"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="33"/>
@@ -6234,8 +6234,8 @@
       <c r="J41" s="49"/>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="133"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="145"/>
       <c r="O41" s="49"/>
       <c r="P41" s="50" t="s">
         <v>102</v>
@@ -6267,8 +6267,8 @@
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="125"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="147"/>
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
@@ -6302,8 +6302,8 @@
       <c r="J43" s="43"/>
       <c r="K43" s="43"/>
       <c r="L43" s="43"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="127"/>
+      <c r="M43" s="148"/>
+      <c r="N43" s="149"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
@@ -6331,8 +6331,8 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="34"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="121"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="135"/>
       <c r="O44" s="34"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="33"/>
@@ -6346,7 +6346,7 @@
       <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="157" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="62" t="s">
@@ -6364,8 +6364,8 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="34"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="121"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="135"/>
       <c r="O45" s="34"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="33"/>
@@ -6379,7 +6379,7 @@
       <c r="W45" s="34"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="123"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="60" t="s">
         <v>92</v>
       </c>
@@ -6395,8 +6395,8 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="34"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="121"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="135"/>
       <c r="O46" s="34"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="33"/>
@@ -6424,8 +6424,8 @@
       <c r="J47" s="33"/>
       <c r="K47" s="33"/>
       <c r="L47" s="34"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="121"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="135"/>
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="33"/>
@@ -6459,8 +6459,8 @@
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
       <c r="L48" s="34"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="121"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="135"/>
       <c r="O48" s="34"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="33"/>
@@ -6492,8 +6492,8 @@
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="34"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="121"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="135"/>
       <c r="O49" s="34"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="33"/>
@@ -6525,8 +6525,8 @@
       </c>
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="125"/>
+      <c r="M50" s="146"/>
+      <c r="N50" s="147"/>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
@@ -6560,8 +6560,8 @@
       </c>
       <c r="K51" s="43"/>
       <c r="L51" s="43"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="127"/>
+      <c r="M51" s="148"/>
+      <c r="N51" s="149"/>
       <c r="O51" s="43"/>
       <c r="P51" s="43"/>
       <c r="Q51" s="43"/>
@@ -6591,8 +6591,8 @@
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="129"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
       <c r="Q52" s="36" t="s">
@@ -6626,8 +6626,8 @@
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="131"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="156"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
@@ -6659,8 +6659,8 @@
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="121"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="135"/>
       <c r="O54" s="34"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="33"/>
@@ -6690,8 +6690,8 @@
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="121"/>
+      <c r="M55" s="134"/>
+      <c r="N55" s="135"/>
       <c r="O55" s="34"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="33"/>
@@ -6707,111 +6707,154 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="161"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="158"/>
+      <c r="K57" s="158"/>
+      <c r="L57" s="158"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="160"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="160"/>
+      <c r="M59" s="160"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6822,58 +6865,15 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1493,7 +1493,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,12 +1508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1521,12 +1515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,15 +1930,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1966,48 +1953,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2015,111 +2008,147 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2127,132 +2156,120 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
@@ -2263,96 +2280,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2639,7 +2625,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2637,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2776,7 +2762,7 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2788,19 +2774,19 @@
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2812,7 +2798,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2824,7 +2810,7 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2836,7 +2822,7 @@
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2848,7 +2834,7 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2846,7 @@
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2920,10 +2906,10 @@
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>44088</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2976,48 +2962,46 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="114">
-        <v>44058</v>
-      </c>
-      <c r="D28" s="27">
-        <v>44142</v>
+      <c r="B28" s="23"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="108" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3041,7 +3025,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3053,7 +3037,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3065,7 +3049,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3132,7 +3116,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3245,14 +3229,14 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="107"/>
+      <c r="D50" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3305,20 +3289,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="109" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3373,19 +3357,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="11" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="D61" s="11" t="s">
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="D61" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="110" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3488,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3500,7 +3484,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3552,76 +3536,74 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="D77" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="D78" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="D79" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="D80" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="4">
-        <v>44116</v>
-      </c>
-      <c r="D81" s="6">
-        <v>44144</v>
+      <c r="C81" s="4"/>
+      <c r="D81" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="5">
         <v>44144</v>
       </c>
       <c r="D82" s="5">
@@ -3679,23 +3661,23 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14" t="s">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3803,37 +3785,37 @@
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="2" t="s">
         <v>44</v>
       </c>
@@ -3845,7 +3827,7 @@
       <c r="B101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="8"/>
       <c r="D101" s="2" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3839,7 @@
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="8"/>
       <c r="D102" s="2" t="s">
         <v>44</v>
       </c>
@@ -3923,13 +3905,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="157">
         <v>44158</v>
       </c>
       <c r="D108" s="5">
@@ -3998,60 +3980,60 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="116" t="s">
+      <c r="A114" s="111" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="D115" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="D116" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="4">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="D117" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="4">
-        <v>44141</v>
+      <c r="D118" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -4063,7 +4045,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4075,7 +4057,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4087,7 +4069,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4099,7 +4081,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -4108,12 +4090,12 @@
       <c r="C123" s="4">
         <v>44144</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="157" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -4125,7 +4107,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4137,7 +4119,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4149,7 +4131,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -4161,7 +4143,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4173,7 +4155,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4185,7 +4167,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4197,7 +4179,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4209,7 +4191,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4221,7 +4203,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4230,12 +4212,12 @@
       <c r="C133" s="4">
         <v>44158</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="157">
         <v>44172</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4285,7 +4267,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4297,17 +4279,17 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19"/>
+      <c r="A139" s="18"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="118" t="s">
+      <c r="A140" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4317,7 +4299,7 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4327,7 +4309,7 @@
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4337,7 +4319,7 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4347,7 +4329,7 @@
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4357,7 +4339,7 @@
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4367,7 +4349,7 @@
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4377,7 +4359,7 @@
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4387,7 +4369,7 @@
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4402,14 +4384,14 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4419,7 +4401,7 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4429,7 +4411,7 @@
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4439,7 +4421,7 @@
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4449,7 +4431,7 @@
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4459,7 +4441,7 @@
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -4469,7 +4451,7 @@
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4479,7 +4461,7 @@
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4489,7 +4471,7 @@
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4504,14 +4486,14 @@
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4521,7 +4503,7 @@
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4531,7 +4513,7 @@
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4541,7 +4523,7 @@
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4549,10 +4531,10 @@
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="H166" s="20"/>
+      <c r="H166" s="19"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4562,7 +4544,7 @@
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4572,7 +4554,7 @@
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4582,7 +4564,7 @@
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4592,7 +4574,7 @@
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4603,14 +4585,14 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="112" t="s">
+      <c r="A173" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4723,14 +4705,14 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="118" t="s">
+      <c r="A184" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4740,7 +4722,7 @@
       <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4750,7 +4732,7 @@
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4760,7 +4742,7 @@
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4770,7 +4752,7 @@
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4780,7 +4762,7 @@
       <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4790,7 +4772,7 @@
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4800,7 +4782,7 @@
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4810,7 +4792,7 @@
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4837,2024 +4819,1981 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="30" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="30" customWidth="1"/>
-    <col min="15" max="21" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="27.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="26" customWidth="1"/>
+    <col min="15" max="21" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="119" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="119" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="138" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="122" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="123" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="120"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="139"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="124" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="125" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="110" t="s">
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="120"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="139"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="126" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="123" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="120"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="139"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
-      <c r="B5" s="127" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="128" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="108" t="s">
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="121"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="140"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="106" t="s">
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="140"/>
-      <c r="O6" s="102" t="s">
+      <c r="N6" s="146"/>
+      <c r="O6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="103" t="s">
+      <c r="R6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="103" t="s">
+      <c r="S6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="103" t="s">
+      <c r="T6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="102" t="s">
+      <c r="U6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="101" t="s">
+      <c r="W6" s="97" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="99">
+      <c r="A7" s="144"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="95">
         <v>1</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="95">
         <v>2</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="95">
         <v>3</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="95">
         <v>4</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="96">
         <v>5</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="96">
         <v>6</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="96">
         <v>7</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="96">
         <v>8</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="95">
         <v>9</v>
       </c>
-      <c r="M7" s="141">
+      <c r="M7" s="147">
         <v>10</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="99">
+      <c r="N7" s="147"/>
+      <c r="O7" s="95">
         <v>11</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="95">
         <v>12</v>
       </c>
-      <c r="Q7" s="100">
+      <c r="Q7" s="96">
         <v>13</v>
       </c>
-      <c r="R7" s="100">
+      <c r="R7" s="96">
         <v>14</v>
       </c>
-      <c r="S7" s="100">
+      <c r="S7" s="96">
         <v>15</v>
       </c>
-      <c r="T7" s="100">
+      <c r="T7" s="96">
         <v>16</v>
       </c>
-      <c r="U7" s="99">
+      <c r="U7" s="95">
         <v>17</v>
       </c>
-      <c r="V7" s="99">
+      <c r="V7" s="95">
         <v>18</v>
       </c>
-      <c r="W7" s="98">
+      <c r="W7" s="94">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="50" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="48" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
-      <c r="B10" s="91" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="66" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="65" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="63" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="34"/>
+      <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="93" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="59" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="34"/>
+      <c r="W14" s="30"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="57" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="57" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="89" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="88" t="s">
+      <c r="I16" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="50" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="48" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="83" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="66" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="45" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="134"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="65" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="142" t="s">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="63" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="34"/>
+      <c r="W20" s="30"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="61" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="134"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="59" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="34"/>
+      <c r="W22" s="30"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="57" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="81" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="150" t="s">
+      <c r="M24" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="151"/>
-      <c r="O24" s="81" t="s">
+      <c r="N24" s="131"/>
+      <c r="O24" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="81" t="s">
+      <c r="P24" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="50" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="50" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="144"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50" t="s">
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="77" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="45" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="45" t="s">
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="42" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="42" t="s">
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="63" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="63" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="34"/>
+      <c r="W28" s="30"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="61" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
-      <c r="B30" s="77" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="59" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="34"/>
+      <c r="W30" s="30"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="57" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="57" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="75" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="R32" s="75" t="s">
+      <c r="R32" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="S32" s="75" t="s">
+      <c r="S32" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="75" t="s">
+      <c r="T32" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="50" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="50" t="s">
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152"/>
-      <c r="B34" s="71" t="s">
+      <c r="A34" s="129"/>
+      <c r="B34" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="45" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="45" t="s">
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="71" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="134"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="42" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="42" t="s">
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="W35" s="34"/>
+      <c r="W35" s="30"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="63" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="63" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="34"/>
+      <c r="W36" s="30"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="61" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="71" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="135"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="59" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="34"/>
+      <c r="W38" s="30"/>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="57" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="50" t="s">
+      <c r="A41" s="60"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="50" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="60" t="s">
+      <c r="A42" s="60"/>
+      <c r="B42" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="45" t="s">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="148"/>
-      <c r="N43" s="149"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="42" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="63" t="s">
+      <c r="A44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="135"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="63" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="34"/>
+      <c r="W44" s="30"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="61" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="157"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="118"/>
+      <c r="B46" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="59" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="W46" s="34"/>
+      <c r="W46" s="30"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="57" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="57" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="134"/>
-      <c r="N48" s="135"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="48" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="135"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="115"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="45" t="s">
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="146"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="45" t="s">
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="42" t="s">
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="148"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="42" t="s">
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="36" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="36" t="s">
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="31" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="135"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="36" t="s">
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="U54" s="36" t="s">
+      <c r="U54" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="31" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="135"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="31" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="31" t="s">
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="161"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="161"/>
-      <c r="M56" s="161"/>
-      <c r="N56" s="161"/>
-      <c r="O56" s="161"/>
-      <c r="P56" s="161"/>
-      <c r="Q56" s="161"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="160" t="s">
+      <c r="A58" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="160"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="160"/>
-      <c r="M58" s="160"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="159" t="s">
+      <c r="A59" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="160"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="160"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="160"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="158" t="s">
+      <c r="A60" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="158"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="158"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="158"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6865,15 +6804,58 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="160">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -2205,140 +2205,140 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2625,7 +2625,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,20 +2970,20 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="115" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3364,11 +3364,11 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>34</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>32</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>33</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>34</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>36</v>
       </c>
@@ -3596,18 +3596,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="5">
-        <v>44144</v>
-      </c>
-      <c r="D82" s="5">
-        <v>44149</v>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3911,7 +3909,7 @@
       <c r="B108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="157">
+      <c r="C108" s="114">
         <v>44158</v>
       </c>
       <c r="D108" s="5">
@@ -4032,7 +4030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>31</v>
       </c>
@@ -4040,11 +4038,11 @@
         <v>14</v>
       </c>
       <c r="C119" s="4"/>
-      <c r="D119" s="4">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>32</v>
       </c>
@@ -4052,11 +4050,11 @@
         <v>6</v>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" s="4">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>33</v>
       </c>
@@ -4064,11 +4062,11 @@
         <v>19</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="D121" s="4">
-        <v>44148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>34</v>
       </c>
@@ -4076,8 +4074,8 @@
         <v>2</v>
       </c>
       <c r="C122" s="4"/>
-      <c r="D122" s="4">
-        <v>44148</v>
+      <c r="D122" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,7 +4088,7 @@
       <c r="C123" s="4">
         <v>44144</v>
       </c>
-      <c r="D123" s="157" t="s">
+      <c r="D123" s="114" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4212,7 +4210,7 @@
       <c r="C133" s="4">
         <v>44158</v>
       </c>
-      <c r="D133" s="157">
+      <c r="D133" s="114">
         <v>44172</v>
       </c>
     </row>
@@ -4840,166 +4838,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="130"/>
+      <c r="D1" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="138" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="117" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="149" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="139"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="118"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="150" t="s">
+      <c r="A3" s="128"/>
+      <c r="B3" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="151" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
       <c r="U3" s="106" t="s">
         <v>147</v>
       </c>
       <c r="V3" s="105"/>
-      <c r="W3" s="139"/>
+      <c r="W3" s="118"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="152" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="149" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="139"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="118"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136"/>
-      <c r="B5" s="153" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="154" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
       <c r="U5" s="104" t="s">
         <v>147</v>
       </c>
       <c r="V5" s="103"/>
-      <c r="W5" s="140"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="102" t="s">
         <v>145</v>
       </c>
@@ -5027,10 +5025,10 @@
       <c r="L6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="146" t="s">
+      <c r="M6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="146"/>
+      <c r="N6" s="138"/>
       <c r="O6" s="98" t="s">
         <v>145</v>
       </c>
@@ -5060,9 +5058,9 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="95">
         <v>1</v>
       </c>
@@ -5090,10 +5088,10 @@
       <c r="L7" s="95">
         <v>9</v>
       </c>
-      <c r="M7" s="147">
+      <c r="M7" s="139">
         <v>10</v>
       </c>
-      <c r="N7" s="147"/>
+      <c r="N7" s="139"/>
       <c r="O7" s="95">
         <v>11</v>
       </c>
@@ -5147,8 +5145,8 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="29"/>
@@ -5178,8 +5176,8 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="29"/>
@@ -5211,8 +5209,8 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="133"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="29"/>
@@ -5246,8 +5244,8 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="29"/>
@@ -5275,8 +5273,8 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="29"/>
@@ -5310,8 +5308,8 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="29"/>
@@ -5339,8 +5337,8 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="29"/>
@@ -5368,8 +5366,8 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="29"/>
@@ -5407,8 +5405,8 @@
         <v>136</v>
       </c>
       <c r="L16" s="30"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="133"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="29"/>
@@ -5438,8 +5436,8 @@
         <v>134</v>
       </c>
       <c r="L17" s="30"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="29"/>
@@ -5471,8 +5469,8 @@
       <c r="L18" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="29"/>
@@ -5504,10 +5502,10 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="132" t="s">
+      <c r="M19" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="133"/>
+      <c r="N19" s="141"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="29"/>
@@ -5535,8 +5533,8 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="29"/>
@@ -5570,8 +5568,8 @@
       <c r="L21" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="29"/>
@@ -5599,8 +5597,8 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="29"/>
@@ -5628,8 +5626,8 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="116"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="29"/>
@@ -5661,10 +5659,10 @@
       <c r="L24" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="130" t="s">
+      <c r="M24" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="131"/>
+      <c r="N24" s="149"/>
       <c r="O24" s="77" t="s">
         <v>126</v>
       </c>
@@ -5696,8 +5694,8 @@
       <c r="L25" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="143"/>
       <c r="O25" s="45"/>
       <c r="P25" s="46" t="s">
         <v>102</v>
@@ -5729,8 +5727,8 @@
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="120"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="145"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="41" t="s">
@@ -5764,8 +5762,8 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -5795,8 +5793,8 @@
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="116"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="29"/>
@@ -5828,8 +5826,8 @@
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="116"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="133"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="29"/>
@@ -5859,8 +5857,8 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="116"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="133"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="29"/>
@@ -5888,8 +5886,8 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="116"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="133"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="29"/>
@@ -5919,8 +5917,8 @@
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="116"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="133"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="71" t="s">
@@ -5940,7 +5938,7 @@
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="150" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="70"/>
@@ -5956,8 +5954,8 @@
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="116"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="133"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="46" t="s">
@@ -5973,7 +5971,7 @@
       <c r="W33" s="30"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="129"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="67" t="s">
         <v>86</v>
       </c>
@@ -5989,8 +5987,8 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="133"/>
       <c r="O34" s="41" t="s">
         <v>114</v>
       </c>
@@ -6022,8 +6020,8 @@
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="133"/>
       <c r="O35" s="38" t="s">
         <v>112</v>
       </c>
@@ -6055,8 +6053,8 @@
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="116"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="133"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29"/>
@@ -6088,8 +6086,8 @@
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="116"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="133"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
@@ -6119,8 +6117,8 @@
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="133"/>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="29"/>
@@ -6148,8 +6146,8 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="133"/>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="29"/>
@@ -6187,8 +6185,8 @@
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="133"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="29"/>
@@ -6216,8 +6214,8 @@
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="128"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="143"/>
       <c r="O41" s="45"/>
       <c r="P41" s="46" t="s">
         <v>102</v>
@@ -6249,8 +6247,8 @@
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="120"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="145"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
@@ -6284,8 +6282,8 @@
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="122"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="147"/>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
@@ -6313,8 +6311,8 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="30"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="133"/>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="29"/>
@@ -6328,7 +6326,7 @@
       <c r="W44" s="30"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="155" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="58" t="s">
@@ -6346,8 +6344,8 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="30"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="133"/>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="29"/>
@@ -6361,7 +6359,7 @@
       <c r="W45" s="30"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="118"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="56" t="s">
         <v>92</v>
       </c>
@@ -6377,8 +6375,8 @@
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="30"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="133"/>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="29"/>
@@ -6406,8 +6404,8 @@
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="30"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="116"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="133"/>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="29"/>
@@ -6441,8 +6439,8 @@
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="116"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="133"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="29"/>
@@ -6474,8 +6472,8 @@
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="116"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="133"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="29"/>
@@ -6507,8 +6505,8 @@
       </c>
       <c r="K50" s="42"/>
       <c r="L50" s="42"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="120"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="145"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
@@ -6542,8 +6540,8 @@
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="122"/>
+      <c r="M51" s="146"/>
+      <c r="N51" s="147"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
       <c r="Q51" s="39"/>
@@ -6573,8 +6571,8 @@
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="124"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="152"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="32" t="s">
@@ -6608,8 +6606,8 @@
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="126"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
       <c r="Q53" s="28"/>
@@ -6641,8 +6639,8 @@
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="116"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="133"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
       <c r="Q54" s="29"/>
@@ -6672,8 +6670,8 @@
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="30"/>
-      <c r="M55" s="115"/>
-      <c r="N55" s="116"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="133"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="29"/>
@@ -6689,111 +6687,154 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="117"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="159"/>
+      <c r="M56" s="159"/>
+      <c r="N56" s="159"/>
+      <c r="O56" s="159"/>
+      <c r="P56" s="159"/>
+      <c r="Q56" s="159"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="112"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6804,58 +6845,15 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\GitHub\Curso_ADS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
@@ -18,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cronograma!$A$1:$D$193</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="159">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1392,16 +1387,13 @@
       </rPr>
       <t>AVA ENGAJAMENTO</t>
     </r>
-  </si>
-  <si>
-    <t>31/11/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1930,7 +1922,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2210,6 +2202,85 @@
     <xf numFmtId="14" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -2219,6 +2290,27 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
@@ -2240,108 +2332,9 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -2613,22 +2606,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+      <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2636,7 +2629,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2665,7 +2658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2695,7 +2688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2710,7 +2703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2725,7 +2718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2740,7 +2733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +2772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -2815,7 +2808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +2820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2851,7 +2844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2875,7 +2868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -2899,7 +2892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2913,7 +2906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2925,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2937,7 +2930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2961,7 +2954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -2969,7 +2962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="A27" s="115" t="s">
         <v>38</v>
       </c>
@@ -2977,7 +2970,7 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="116" t="s">
         <v>39</v>
       </c>
@@ -2987,7 +2980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -2995,12 +2988,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
@@ -3012,7 +3005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3048,7 +3041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -3072,7 +3065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -3084,7 +3077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -3096,7 +3089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -3108,7 +3101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -3120,7 +3113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
@@ -3144,7 +3137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
@@ -3168,7 +3161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3192,7 +3185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -3204,7 +3197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -3228,7 +3221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>22</v>
       </c>
@@ -3240,7 +3233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
@@ -3252,7 +3245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -3288,7 +3281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3296,12 +3289,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
       <c r="A56" s="109" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="12" t="s">
         <v>31</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -3329,7 +3322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
@@ -3357,18 +3350,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="11"/>
       <c r="D61" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
       <c r="A62" s="109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A63" s="12" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -3392,7 +3385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -3404,7 +3397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>34</v>
       </c>
@@ -3464,7 +3457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3488,7 +3481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -3500,7 +3493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -3512,7 +3505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="9" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +3541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="9" t="s">
         <v>32</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="9" t="s">
         <v>33</v>
       </c>
@@ -3572,7 +3565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="9" t="s">
         <v>34</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="9" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="9" t="s">
         <v>22</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
@@ -3634,7 +3627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3646,7 +3639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3666,7 +3659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1">
       <c r="A88" s="110" t="s">
         <v>37</v>
       </c>
@@ -3674,7 +3667,7 @@
       <c r="C88" s="24"/>
       <c r="D88" s="25"/>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" s="12" t="s">
         <v>31</v>
       </c>
@@ -3686,7 +3679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="3" t="s">
         <v>32</v>
       </c>
@@ -3698,7 +3691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -3710,7 +3703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="3" t="s">
         <v>34</v>
       </c>
@@ -3722,7 +3715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="3" t="s">
         <v>36</v>
       </c>
@@ -3734,7 +3727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="3" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" s="3" t="s">
         <v>32</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -3770,7 +3763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -3782,7 +3775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" s="6" t="s">
         <v>35</v>
       </c>
@@ -3794,7 +3787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" s="7" t="s">
         <v>31</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3830,7 +3823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" s="3" t="s">
         <v>34</v>
       </c>
@@ -3842,7 +3835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -3854,7 +3847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" s="3" t="s">
         <v>31</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" s="3" t="s">
         <v>32</v>
       </c>
@@ -3878,7 +3871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" s="3" t="s">
         <v>33</v>
       </c>
@@ -3890,7 +3883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" s="3" t="s">
         <v>34</v>
       </c>
@@ -3902,21 +3895,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
+    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A108" s="117" t="s">
         <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="114">
+      <c r="C108" s="5">
         <v>44158</v>
       </c>
       <c r="D108" s="5">
         <v>44163</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>22</v>
       </c>
@@ -3930,7 +3923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="2" t="s">
         <v>22</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -3958,7 +3951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -3972,17 +3965,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="D113" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.75" thickBot="1">
       <c r="A114" s="111" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" s="16" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +3987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" s="9" t="s">
         <v>32</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="9" t="s">
         <v>33</v>
       </c>
@@ -4018,7 +4011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" s="9" t="s">
         <v>34</v>
       </c>
@@ -4030,7 +4023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" s="9" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +4035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" s="9" t="s">
         <v>32</v>
       </c>
@@ -4054,7 +4047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" s="9" t="s">
         <v>33</v>
       </c>
@@ -4066,7 +4059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1">
       <c r="A122" s="9" t="s">
         <v>34</v>
       </c>
@@ -4078,21 +4071,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="4">
-        <v>44144</v>
-      </c>
-      <c r="D123" s="114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="4"/>
+      <c r="D123" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" s="9" t="s">
         <v>35</v>
       </c>
@@ -4100,11 +4091,11 @@
         <v>17</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="5">
-        <v>44158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" s="9" t="s">
         <v>31</v>
       </c>
@@ -4112,11 +4103,11 @@
         <v>15</v>
       </c>
       <c r="C125" s="4"/>
-      <c r="D125" s="4">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1">
       <c r="A126" s="9" t="s">
         <v>32</v>
       </c>
@@ -4124,11 +4115,11 @@
         <v>7</v>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" s="4">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="9" t="s">
         <v>33</v>
       </c>
@@ -4136,11 +4127,11 @@
         <v>20</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="4">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="9" t="s">
         <v>34</v>
       </c>
@@ -4148,11 +4139,11 @@
         <v>3</v>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" s="4">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>31</v>
       </c>
@@ -4164,7 +4155,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>32</v>
       </c>
@@ -4176,7 +4167,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>33</v>
       </c>
@@ -4188,7 +4179,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>34</v>
       </c>
@@ -4200,7 +4191,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>36</v>
       </c>
@@ -4214,21 +4205,21 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="114">
         <v>44165</v>
       </c>
       <c r="D134" s="5">
         <v>44170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="2" t="s">
         <v>22</v>
       </c>
@@ -4240,7 +4231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -4252,7 +4243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -4264,7 +4255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="15" t="s">
         <v>23</v>
       </c>
@@ -4276,17 +4267,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.75" thickBot="1">
       <c r="A139" s="18"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.75" thickBot="1">
       <c r="A140" s="111" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="16" t="s">
         <v>31</v>
       </c>
@@ -4296,7 +4287,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="9" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4297,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>31</v>
       </c>
@@ -4316,7 +4307,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>33</v>
       </c>
@@ -4326,7 +4317,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>31</v>
       </c>
@@ -4336,7 +4327,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>33</v>
       </c>
@@ -4346,7 +4337,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>31</v>
       </c>
@@ -4356,7 +4347,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>33</v>
       </c>
@@ -4366,7 +4357,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1">
       <c r="A149" s="9" t="s">
         <v>36</v>
       </c>
@@ -4376,19 +4367,19 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="D150" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.75" thickBot="1">
       <c r="A151" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="16" t="s">
         <v>31</v>
       </c>
@@ -4398,7 +4389,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>33</v>
       </c>
@@ -4408,7 +4399,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>31</v>
       </c>
@@ -4418,7 +4409,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>33</v>
       </c>
@@ -4428,7 +4419,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>31</v>
       </c>
@@ -4438,7 +4429,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>33</v>
       </c>
@@ -4448,7 +4439,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>31</v>
       </c>
@@ -4458,7 +4449,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="9" t="s">
         <v>33</v>
       </c>
@@ -4468,7 +4459,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="15.75" thickBot="1">
       <c r="A160" s="9" t="s">
         <v>36</v>
       </c>
@@ -4478,19 +4469,19 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="D161" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1">
       <c r="A162" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="16" t="s">
         <v>31</v>
       </c>
@@ -4500,7 +4491,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="9" t="s">
         <v>33</v>
       </c>
@@ -4510,7 +4501,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="9" t="s">
         <v>31</v>
       </c>
@@ -4520,7 +4511,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="9" t="s">
         <v>33</v>
       </c>
@@ -4531,7 +4522,7 @@
       <c r="D166" s="2"/>
       <c r="H166" s="19"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="9" t="s">
         <v>31</v>
       </c>
@@ -4541,7 +4532,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="9" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4542,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="9" t="s">
         <v>31</v>
       </c>
@@ -4561,7 +4552,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="9" t="s">
         <v>33</v>
       </c>
@@ -4571,7 +4562,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="9" t="s">
         <v>36</v>
       </c>
@@ -4581,15 +4572,15 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="173" spans="1:8" ht="15.75" thickBot="1">
       <c r="A173" s="108" t="s">
         <v>49</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
     </row>
-    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A174" s="12" t="s">
         <v>31</v>
       </c>
@@ -4601,7 +4592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A175" s="3" t="s">
         <v>33</v>
       </c>
@@ -4613,7 +4604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A176" s="3" t="s">
         <v>31</v>
       </c>
@@ -4625,7 +4616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A177" s="3" t="s">
         <v>33</v>
       </c>
@@ -4637,7 +4628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="3" t="s">
         <v>31</v>
       </c>
@@ -4649,7 +4640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="3" t="s">
         <v>33</v>
       </c>
@@ -4661,7 +4652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A180" s="3" t="s">
         <v>31</v>
       </c>
@@ -4673,7 +4664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="3" t="s">
         <v>33</v>
       </c>
@@ -4685,7 +4676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="A182" s="3" t="s">
         <v>36</v>
       </c>
@@ -4697,19 +4688,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15.75" hidden="1" thickBot="1">
       <c r="D183" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15.75" thickBot="1">
       <c r="A184" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" s="16" t="s">
         <v>31</v>
       </c>
@@ -4717,9 +4708,11 @@
         <v>13</v>
       </c>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" s="9" t="s">
         <v>33</v>
       </c>
@@ -4727,9 +4720,11 @@
         <v>18</v>
       </c>
       <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" s="9" t="s">
         <v>31</v>
       </c>
@@ -4737,9 +4732,11 @@
         <v>14</v>
       </c>
       <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" s="9" t="s">
         <v>33</v>
       </c>
@@ -4747,9 +4744,11 @@
         <v>19</v>
       </c>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" s="9" t="s">
         <v>31</v>
       </c>
@@ -4757,9 +4756,11 @@
         <v>15</v>
       </c>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" s="9" t="s">
         <v>33</v>
       </c>
@@ -4767,9 +4768,11 @@
         <v>20</v>
       </c>
       <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="9" t="s">
         <v>31</v>
       </c>
@@ -4779,7 +4782,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="9" t="s">
         <v>33</v>
       </c>
@@ -4789,7 +4792,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="9" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4806,6 @@
   <autoFilter ref="A1:D193">
     <filterColumn colId="3">
       <filters blank="1">
-        <filter val="31/11/2020"/>
         <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
@@ -4814,14 +4816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
@@ -4837,167 +4839,167 @@
     <col min="24" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A1" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="117" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="117" t="s">
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="144" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="120" t="s">
+    <row r="2" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="118"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="122" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="145"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A3" s="141"/>
+      <c r="B3" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="156"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
       <c r="U3" s="106" t="s">
         <v>147</v>
       </c>
       <c r="V3" s="105"/>
-      <c r="W3" s="118"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="124" t="s">
+      <c r="W3" s="145"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A4" s="141"/>
+      <c r="B4" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="121" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="118"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="125" t="s">
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="145"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A5" s="142"/>
+      <c r="B5" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="126" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="160" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
       <c r="U5" s="104" t="s">
         <v>147</v>
       </c>
       <c r="V5" s="103"/>
-      <c r="W5" s="119"/>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="W5" s="146"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A6" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="102" t="s">
         <v>145</v>
       </c>
@@ -5025,10 +5027,10 @@
       <c r="L6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="138" t="s">
+      <c r="M6" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="138"/>
+      <c r="N6" s="152"/>
       <c r="O6" s="98" t="s">
         <v>145</v>
       </c>
@@ -5057,10 +5059,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="95">
         <v>1</v>
       </c>
@@ -5088,10 +5090,10 @@
       <c r="L7" s="95">
         <v>9</v>
       </c>
-      <c r="M7" s="139">
+      <c r="M7" s="153">
         <v>10</v>
       </c>
-      <c r="N7" s="139"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="95">
         <v>11</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1">
       <c r="A8" s="91"/>
       <c r="B8" s="93" t="s">
         <v>107</v>
@@ -5145,8 +5147,8 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="133"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="122"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="29"/>
@@ -5157,7 +5159,7 @@
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1">
       <c r="A9" s="88"/>
       <c r="B9" s="91"/>
       <c r="C9" s="46" t="s">
@@ -5176,8 +5178,8 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="133"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="122"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="29"/>
@@ -5188,7 +5190,7 @@
       <c r="V9" s="30"/>
       <c r="W9" s="30"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1">
       <c r="A10" s="88"/>
       <c r="B10" s="87" t="s">
         <v>86</v>
@@ -5209,8 +5211,8 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="133"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="122"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="29"/>
@@ -5221,7 +5223,7 @@
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1">
       <c r="A11" s="87" t="s">
         <v>144</v>
       </c>
@@ -5244,8 +5246,8 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="133"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="122"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="29"/>
@@ -5256,7 +5258,7 @@
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1">
       <c r="A12" s="87" t="s">
         <v>142</v>
       </c>
@@ -5273,8 +5275,8 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="133"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="29"/>
@@ -5287,7 +5289,7 @@
       </c>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" customHeight="1">
       <c r="A13" s="87" t="s">
         <v>141</v>
       </c>
@@ -5308,8 +5310,8 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="133"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="29"/>
@@ -5320,7 +5322,7 @@
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16.5" customHeight="1">
       <c r="A14" s="88"/>
       <c r="B14" s="87" t="s">
         <v>92</v>
@@ -5337,8 +5339,8 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="30"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="133"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="29"/>
@@ -5351,7 +5353,7 @@
       </c>
       <c r="W14" s="30"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="16.5" customHeight="1">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="53" t="s">
@@ -5366,8 +5368,8 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="133"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="29"/>
@@ -5380,7 +5382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="16.5" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83" t="s">
         <v>107</v>
@@ -5405,8 +5407,8 @@
         <v>136</v>
       </c>
       <c r="L16" s="30"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="133"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="29"/>
@@ -5417,7 +5419,7 @@
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="16.5" customHeight="1">
       <c r="A17" s="80"/>
       <c r="B17" s="82"/>
       <c r="C17" s="46" t="s">
@@ -5436,8 +5438,8 @@
         <v>134</v>
       </c>
       <c r="L17" s="30"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="122"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="29"/>
@@ -5448,7 +5450,7 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="16.5" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="79" t="s">
         <v>86</v>
@@ -5469,8 +5471,8 @@
       <c r="L18" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="29"/>
@@ -5481,7 +5483,7 @@
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="16.5" customHeight="1">
       <c r="A19" s="79" t="s">
         <v>132</v>
       </c>
@@ -5502,10 +5504,10 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="140" t="s">
+      <c r="M19" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="141"/>
+      <c r="N19" s="139"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="29"/>
@@ -5516,7 +5518,7 @@
       <c r="V19" s="30"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="16.5" customHeight="1">
       <c r="A20" s="79" t="s">
         <v>130</v>
       </c>
@@ -5533,8 +5535,8 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="29"/>
@@ -5547,7 +5549,7 @@
       </c>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="16.5" customHeight="1">
       <c r="A21" s="79" t="s">
         <v>129</v>
       </c>
@@ -5568,8 +5570,8 @@
       <c r="L21" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="122"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="29"/>
@@ -5580,7 +5582,7 @@
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="16.5" customHeight="1">
       <c r="A22" s="80"/>
       <c r="B22" s="79" t="s">
         <v>92</v>
@@ -5597,8 +5599,8 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="29"/>
@@ -5611,7 +5613,7 @@
       </c>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="16.5" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="78"/>
       <c r="C23" s="53" t="s">
@@ -5626,8 +5628,8 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="30"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="122"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="29"/>
@@ -5640,7 +5642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="16.5" customHeight="1">
       <c r="A24" s="76"/>
       <c r="B24" s="77" t="s">
         <v>107</v>
@@ -5659,10 +5661,10 @@
       <c r="L24" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="148" t="s">
+      <c r="M24" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="149"/>
+      <c r="N24" s="137"/>
       <c r="O24" s="77" t="s">
         <v>126</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="76"/>
       <c r="C25" s="46" t="s">
@@ -5694,8 +5696,8 @@
       <c r="L25" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="142"/>
-      <c r="N25" s="143"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="134"/>
       <c r="O25" s="45"/>
       <c r="P25" s="46" t="s">
         <v>102</v>
@@ -5708,7 +5710,7 @@
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="16.5" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="73" t="s">
         <v>86</v>
@@ -5727,8 +5729,8 @@
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="145"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="126"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="41" t="s">
@@ -5741,7 +5743,7 @@
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="16.5" customHeight="1">
       <c r="A27" s="73" t="s">
         <v>123</v>
       </c>
@@ -5762,8 +5764,8 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="147"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -5776,7 +5778,7 @@
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="16.5" customHeight="1">
       <c r="A28" s="73" t="s">
         <v>121</v>
       </c>
@@ -5793,8 +5795,8 @@
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="122"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="29"/>
@@ -5807,7 +5809,7 @@
       </c>
       <c r="W28" s="30"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="16.5" customHeight="1">
       <c r="A29" s="73" t="s">
         <v>120</v>
       </c>
@@ -5826,8 +5828,8 @@
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="133"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="122"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="29"/>
@@ -5840,7 +5842,7 @@
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="16.5" customHeight="1">
       <c r="A30" s="74"/>
       <c r="B30" s="73" t="s">
         <v>92</v>
@@ -5857,8 +5859,8 @@
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="133"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="29"/>
@@ -5871,7 +5873,7 @@
       </c>
       <c r="W30" s="30"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="16.5" customHeight="1">
       <c r="A31" s="72"/>
       <c r="B31" s="72"/>
       <c r="C31" s="53" t="s">
@@ -5886,8 +5888,8 @@
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="133"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="29"/>
@@ -5900,7 +5902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="16.5" customHeight="1">
       <c r="A32" s="70"/>
       <c r="B32" s="71" t="s">
         <v>107</v>
@@ -5917,8 +5919,8 @@
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="133"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="71" t="s">
@@ -5937,8 +5939,8 @@
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="150" t="s">
+    <row r="33" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A33" s="135" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="70"/>
@@ -5954,8 +5956,8 @@
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="133"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="46" t="s">
@@ -5970,8 +5972,8 @@
       <c r="V33" s="30"/>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="150"/>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A34" s="135"/>
       <c r="B34" s="67" t="s">
         <v>86</v>
       </c>
@@ -5987,8 +5989,8 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="133"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="122"/>
       <c r="O34" s="41" t="s">
         <v>114</v>
       </c>
@@ -6003,7 +6005,7 @@
       <c r="V34" s="30"/>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="16.5" customHeight="1">
       <c r="A35" s="68"/>
       <c r="B35" s="67" t="s">
         <v>84</v>
@@ -6020,8 +6022,8 @@
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="133"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="122"/>
       <c r="O35" s="38" t="s">
         <v>112</v>
       </c>
@@ -6036,7 +6038,7 @@
       </c>
       <c r="W35" s="30"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="16.5" customHeight="1">
       <c r="A36" s="67" t="s">
         <v>110</v>
       </c>
@@ -6053,8 +6055,8 @@
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="30"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="133"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="122"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="29"/>
@@ -6067,7 +6069,7 @@
       </c>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="16.5" customHeight="1">
       <c r="A37" s="67" t="s">
         <v>109</v>
       </c>
@@ -6086,8 +6088,8 @@
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="133"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="122"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
@@ -6100,7 +6102,7 @@
       <c r="V37" s="30"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="16.5" customHeight="1">
       <c r="A38" s="68"/>
       <c r="B38" s="67" t="s">
         <v>92</v>
@@ -6117,8 +6119,8 @@
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="30"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="133"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="122"/>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="29"/>
@@ -6131,7 +6133,7 @@
       </c>
       <c r="W38" s="30"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="16.5" customHeight="1">
       <c r="A39" s="66"/>
       <c r="B39" s="66"/>
       <c r="C39" s="53" t="s">
@@ -6146,8 +6148,8 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="133"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="122"/>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="29"/>
@@ -6160,7 +6162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="16.5" customHeight="1">
       <c r="A40" s="63"/>
       <c r="B40" s="65" t="s">
         <v>107</v>
@@ -6185,8 +6187,8 @@
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="133"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="122"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="29"/>
@@ -6197,7 +6199,7 @@
       <c r="V40" s="30"/>
       <c r="W40" s="30"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="16.5" customHeight="1">
       <c r="A41" s="60"/>
       <c r="B41" s="63"/>
       <c r="C41" s="46" t="s">
@@ -6214,8 +6216,8 @@
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="143"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="134"/>
       <c r="O41" s="45"/>
       <c r="P41" s="46" t="s">
         <v>102</v>
@@ -6228,7 +6230,7 @@
       <c r="V41" s="30"/>
       <c r="W41" s="30"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="16.5" customHeight="1">
       <c r="A42" s="60"/>
       <c r="B42" s="56" t="s">
         <v>86</v>
@@ -6247,8 +6249,8 @@
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="145"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="126"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
@@ -6261,7 +6263,7 @@
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="16.5" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>101</v>
       </c>
@@ -6282,8 +6284,8 @@
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="147"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="128"/>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
@@ -6296,7 +6298,7 @@
       <c r="V43" s="30"/>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="16.5" customHeight="1">
       <c r="A44" s="60"/>
       <c r="B44" s="54"/>
       <c r="C44" s="59" t="s">
@@ -6311,8 +6313,8 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="30"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="133"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="122"/>
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="29"/>
@@ -6325,8 +6327,8 @@
       </c>
       <c r="W44" s="30"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="155" t="s">
+    <row r="45" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A45" s="124" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="58" t="s">
@@ -6344,8 +6346,8 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="30"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="133"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="122"/>
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="29"/>
@@ -6358,8 +6360,8 @@
       <c r="V45" s="30"/>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="155"/>
+    <row r="46" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A46" s="124"/>
       <c r="B46" s="56" t="s">
         <v>92</v>
       </c>
@@ -6375,8 +6377,8 @@
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="30"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="133"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="122"/>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="29"/>
@@ -6389,7 +6391,7 @@
       </c>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="16.5" customHeight="1">
       <c r="A47" s="54"/>
       <c r="B47" s="54"/>
       <c r="C47" s="53" t="s">
@@ -6404,8 +6406,8 @@
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="30"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="133"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="122"/>
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="29"/>
@@ -6418,7 +6420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="16.5" customHeight="1">
       <c r="A48" s="52" t="s">
         <v>87</v>
       </c>
@@ -6439,8 +6441,8 @@
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="133"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="122"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="29"/>
@@ -6451,7 +6453,7 @@
       <c r="V48" s="30"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="16.5" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="47" t="s">
         <v>84</v>
@@ -6472,8 +6474,8 @@
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="133"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="122"/>
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="29"/>
@@ -6484,7 +6486,7 @@
       <c r="V49" s="30"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16.5" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>81</v>
       </c>
@@ -6505,8 +6507,8 @@
       </c>
       <c r="K50" s="42"/>
       <c r="L50" s="42"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="145"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="126"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
@@ -6519,7 +6521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16.5" customHeight="1">
       <c r="A51" s="40" t="s">
         <v>76</v>
       </c>
@@ -6540,8 +6542,8 @@
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
-      <c r="M51" s="146"/>
-      <c r="N51" s="147"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="128"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
       <c r="Q51" s="39"/>
@@ -6554,7 +6556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16.5" customHeight="1">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="32" t="s">
@@ -6571,8 +6573,8 @@
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="152"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="130"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="32" t="s">
@@ -6585,7 +6587,7 @@
       <c r="V52" s="30"/>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16.5" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>68</v>
       </c>
@@ -6606,8 +6608,8 @@
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="153"/>
-      <c r="N53" s="154"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="132"/>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
       <c r="Q53" s="28"/>
@@ -6620,7 +6622,7 @@
       <c r="V53" s="30"/>
       <c r="W53" s="30"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16.5" customHeight="1">
       <c r="A54" s="33" t="s">
         <v>63</v>
       </c>
@@ -6639,8 +6641,8 @@
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="133"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="122"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
       <c r="Q54" s="29"/>
@@ -6655,7 +6657,7 @@
       <c r="V54" s="30"/>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16.5" customHeight="1">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="27" t="s">
@@ -6670,8 +6672,8 @@
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="30"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="133"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="122"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="29"/>
@@ -6686,155 +6688,112 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="159" t="s">
+    <row r="56" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A56" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
-      <c r="O56" s="159"/>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="159"/>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="156" t="s">
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
+      <c r="Q56" s="123"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A57" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="158" t="s">
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A58" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="158"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="158"/>
-      <c r="M58" s="158"/>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="157" t="s">
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A59" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="158"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-      <c r="M59" s="158"/>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="156" t="s">
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A60" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="156"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="156"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6845,15 +6804,58 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="159">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1485,7 +1485,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1501,12 +1501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,24 +1621,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1922,287 +1903,397 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2212,126 +2303,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2606,7 +2585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2618,7 +2597,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T131" sqref="T131"/>
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2630,7 +2609,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2644,7 +2623,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2659,7 +2638,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2674,7 +2653,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2689,7 +2668,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2704,7 +2683,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2719,7 +2698,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2734,7 +2713,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2749,103 +2728,103 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2857,7 +2836,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2869,7 +2848,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2881,7 +2860,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2893,16 +2872,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20">
-        <v>44088</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2955,46 +2932,46 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3006,7 +2983,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3018,7 +2995,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="157" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3030,7 +3007,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="157" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3042,7 +3019,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="157" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3054,7 +3031,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3066,7 +3043,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3078,7 +3055,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3090,7 +3067,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3102,19 +3079,19 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3126,7 +3103,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3138,7 +3115,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3150,7 +3127,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3162,7 +3139,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3174,7 +3151,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3186,7 +3163,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3198,7 +3175,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3210,7 +3187,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3222,14 +3199,14 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="157" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="103"/>
+      <c r="D50" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3282,20 +3259,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="105" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3309,7 +3286,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3323,7 +3300,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3337,7 +3314,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3350,19 +3327,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="15.75" hidden="1" thickBot="1">
-      <c r="A61" s="11"/>
-      <c r="D61" s="10" t="s">
+    <row r="61" spans="1:4" s="8" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="A61" s="9"/>
+      <c r="D61" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="105" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3374,7 +3351,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3386,7 +3363,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3398,7 +3375,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3410,7 +3387,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3422,7 +3399,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3434,7 +3411,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3446,7 +3423,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3458,31 +3435,31 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3494,7 +3471,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3506,7 +3483,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3518,7 +3495,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3530,7 +3507,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3542,7 +3519,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3554,7 +3531,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3566,7 +3543,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3578,26 +3555,26 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3608,9 +3585,7 @@
       <c r="B83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="4">
-        <v>44172</v>
-      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>50</v>
       </c>
@@ -3652,23 +3627,23 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="1:4" hidden="1">
-      <c r="A89" s="12" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A89" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3679,8 +3654,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A90" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3691,8 +3666,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A91" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3703,8 +3678,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A92" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3715,8 +3690,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3727,8 +3702,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3739,8 +3714,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3751,8 +3726,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3763,8 +3738,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A97" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3775,68 +3750,68 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A98" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A99" s="157" t="s">
         <v>31</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="8"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A100" s="157" t="s">
         <v>32</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="8"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A102" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="8"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A103" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3847,8 +3822,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A104" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3859,8 +3834,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A105" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3871,8 +3846,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A106" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3883,8 +3858,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A107" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3895,18 +3870,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A108" s="117" t="s">
+    <row r="108" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A108" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="5">
-        <v>44158</v>
-      </c>
-      <c r="D108" s="5">
-        <v>44163</v>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" hidden="1" thickBot="1">
@@ -3971,24 +3944,26 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A114" s="111" t="s">
+      <c r="A114" s="106" t="s">
         <v>42</v>
       </c>
+      <c r="B114" s="156"/>
+      <c r="C114" s="156"/>
     </row>
     <row r="115" spans="1:4" hidden="1">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="4"/>
+      <c r="C115" s="155"/>
       <c r="D115" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -4000,7 +3975,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4012,7 +3987,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -4024,7 +3999,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -4036,7 +4011,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4048,7 +4023,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4060,7 +4035,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4072,31 +4047,31 @@
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="107" t="s">
+      <c r="D124" s="103" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4108,7 +4083,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4120,7 +4095,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -4132,7 +4107,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4144,7 +4119,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4156,7 +4131,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4168,7 +4143,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4180,7 +4155,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4192,7 +4167,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4201,18 +4176,18 @@
       <c r="C133" s="4">
         <v>44158</v>
       </c>
-      <c r="D133" s="114">
+      <c r="D133" s="109">
         <v>44172</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="114">
+      <c r="C134" s="109">
         <v>44165</v>
       </c>
       <c r="D134" s="5">
@@ -4256,7 +4231,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4268,320 +4243,378 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A139" s="18"/>
+      <c r="A139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A140" s="111" t="s">
+      <c r="A140" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="16" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" hidden="1">
+      <c r="A141" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="9" t="s">
+      <c r="D141" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1">
+      <c r="A142" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="9" t="s">
+      <c r="D142" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1">
+      <c r="A143" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="9" t="s">
+      <c r="D143" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1">
+      <c r="A144" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="9" t="s">
+      <c r="D144" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1">
+      <c r="A145" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="9" t="s">
+      <c r="D145" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1">
+      <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="9" t="s">
+      <c r="D146" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1">
+      <c r="A147" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="9" t="s">
+      <c r="D147" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1">
+      <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A149" s="9" t="s">
+      <c r="D148" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1">
+      <c r="A149" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="D149" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1">
       <c r="D150" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A151" s="17" t="s">
+    <row r="151" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A151" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="16" t="s">
+      <c r="C151" s="11"/>
+      <c r="D151" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1">
+      <c r="A152" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="9" t="s">
+      <c r="D152" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1">
+      <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="9" t="s">
+      <c r="D153" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1">
+      <c r="A154" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="9" t="s">
+      <c r="D154" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1">
+      <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="9" t="s">
+      <c r="D155" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1">
+      <c r="A156" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="9" t="s">
+      <c r="D156" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1">
+      <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="9" t="s">
+      <c r="D157" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1">
+      <c r="A158" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="9" t="s">
+      <c r="D158" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1">
+      <c r="A159" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A160" s="9" t="s">
+      <c r="D159" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1">
+      <c r="A160" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="D160" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1">
       <c r="D161" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A162" s="17" t="s">
+    <row r="162" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A162" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="16" t="s">
+      <c r="C162" s="11"/>
+      <c r="D162" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1">
+      <c r="A163" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="9" t="s">
+      <c r="D163" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1">
+      <c r="A164" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="9" t="s">
+      <c r="D164" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1">
+      <c r="A165" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="9" t="s">
+      <c r="D165" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1">
+      <c r="A166" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="H166" s="19"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="9" t="s">
+      <c r="D166" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H166" s="17"/>
+    </row>
+    <row r="167" spans="1:8" hidden="1">
+      <c r="A167" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="9" t="s">
+      <c r="D167" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1">
+      <c r="A168" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="9" t="s">
+      <c r="D168" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1">
+      <c r="A169" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="9" t="s">
+      <c r="D169" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1">
+      <c r="A170" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="9" t="s">
+      <c r="D170" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1">
+      <c r="A171" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="173" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A173" s="108" t="s">
+      <c r="A173" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4694,14 +4727,14 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A184" s="111" t="s">
+      <c r="A184" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" hidden="1">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4713,7 +4746,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" hidden="1">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4725,7 +4758,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4737,7 +4770,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4749,7 +4782,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" hidden="1">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4761,7 +4794,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" hidden="1">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4773,7 +4806,7 @@
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4783,7 +4816,7 @@
       <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4793,7 +4826,7 @@
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4825,1975 +4858,2018 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="26" customWidth="1"/>
-    <col min="15" max="21" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="27.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="22" customWidth="1"/>
+    <col min="15" max="21" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="144" t="s">
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="111" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="154" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="155" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="145"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="112"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="156" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="157" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="106" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="105"/>
-      <c r="W3" s="145"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="112"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A4" s="141"/>
-      <c r="B4" s="158" t="s">
+      <c r="A4" s="122"/>
+      <c r="B4" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="155" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="145"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="112"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="159" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="160" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="104" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="103"/>
-      <c r="W5" s="146"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="113"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="102" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="J6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="152" t="s">
+      <c r="M6" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="152"/>
-      <c r="O6" s="98" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="99" t="s">
+      <c r="Q6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="R6" s="99" t="s">
+      <c r="R6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="99" t="s">
+      <c r="T6" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="W6" s="97" t="s">
+      <c r="W6" s="93" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="95">
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="91">
         <v>1</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="91">
         <v>2</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="91">
         <v>3</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="91">
         <v>4</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="92">
         <v>5</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="92">
         <v>6</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="92">
         <v>7</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="92">
         <v>8</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L7" s="91">
         <v>9</v>
       </c>
-      <c r="M7" s="153">
+      <c r="M7" s="133">
         <v>10</v>
       </c>
-      <c r="N7" s="153"/>
-      <c r="O7" s="95">
+      <c r="N7" s="133"/>
+      <c r="O7" s="91">
         <v>11</v>
       </c>
-      <c r="P7" s="95">
+      <c r="P7" s="91">
         <v>12</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="92">
         <v>13</v>
       </c>
-      <c r="R7" s="96">
+      <c r="R7" s="92">
         <v>14</v>
       </c>
-      <c r="S7" s="96">
+      <c r="S7" s="92">
         <v>15</v>
       </c>
-      <c r="T7" s="96">
+      <c r="T7" s="92">
         <v>16</v>
       </c>
-      <c r="U7" s="95">
+      <c r="U7" s="91">
         <v>17</v>
       </c>
-      <c r="V7" s="95">
+      <c r="V7" s="91">
         <v>18</v>
       </c>
-      <c r="W7" s="94">
+      <c r="W7" s="90">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="93" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="62" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="61" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="59" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="30"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="89" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="55" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="30"/>
+      <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="53" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="85" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="44" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46" t="s">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="62" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="41" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="121"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="61" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="138" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="139"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="59" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="30"/>
+      <c r="W20" s="26"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="57" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="55" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="30"/>
+      <c r="W22" s="26"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="53" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="77" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="136" t="s">
+      <c r="M24" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="N24" s="137"/>
-      <c r="O24" s="77" t="s">
+      <c r="N24" s="143"/>
+      <c r="O24" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="46" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46" t="s">
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="41" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="41" t="s">
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="38" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="38" t="s">
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="59" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="59" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="30"/>
+      <c r="W28" s="26"/>
     </row>
     <row r="29" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="57" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
     </row>
     <row r="30" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="70"/>
+      <c r="B30" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="55" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="30"/>
+      <c r="W30" s="26"/>
     </row>
     <row r="31" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="53" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="71" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="R32" s="71" t="s">
+      <c r="R32" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="S32" s="71" t="s">
+      <c r="S32" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="71" t="s">
+      <c r="T32" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A33" s="135" t="s">
+      <c r="A33" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="46" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46" t="s">
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="144"/>
+      <c r="B34" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="41" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="41" t="s">
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="67" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="38" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="38" t="s">
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="W35" s="30"/>
+      <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="59" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="59" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="30"/>
+      <c r="W36" s="26"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="57" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="67" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="55" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="30"/>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="53" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="53" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="46" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="46" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="41" t="s">
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="38" t="s">
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
     </row>
     <row r="44" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="59" t="s">
+      <c r="A44" s="56"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="59" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="30"/>
+      <c r="W44" s="26"/>
     </row>
     <row r="45" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="57" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="149"/>
+      <c r="B46" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="55" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="W46" s="30"/>
+      <c r="W46" s="26"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="53" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="44" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
     </row>
     <row r="50" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="41" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="41" t="s">
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="38" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="127"/>
-      <c r="N51" s="128"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="38" t="s">
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="32" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="32" t="s">
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="27" t="s">
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="147"/>
+      <c r="N53" s="148"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
     </row>
     <row r="54" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="32" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="U54" s="32" t="s">
+      <c r="U54" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="27" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="27" t="s">
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A56" s="123" t="s">
+      <c r="A56" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
-      <c r="K56" s="123"/>
-      <c r="L56" s="123"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="123"/>
-      <c r="O56" s="123"/>
-      <c r="P56" s="123"/>
-      <c r="Q56" s="123"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="153"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="153"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
     </row>
     <row r="58" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="152"/>
     </row>
     <row r="59" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
     </row>
     <row r="60" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="150"/>
+      <c r="O60" s="150"/>
+      <c r="P60" s="150"/>
+      <c r="Q60" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W1:W5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="A60:Q60"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D5"/>
@@ -6804,58 +6880,15 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A60:Q60"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A56:Q56"/>
-    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="7020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1ºSem" sheetId="1" r:id="rId1"/>
     <sheet name="2ºSem" sheetId="2" r:id="rId2"/>
     <sheet name="3ºSem" sheetId="4" r:id="rId3"/>
-    <sheet name="Calendario" sheetId="5" r:id="rId4"/>
+    <sheet name="Cal. 2021.2" sheetId="5" r:id="rId4"/>
+    <sheet name="Cal. 2021.2 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1ºSem'!$A$1:$D$164</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="144">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -412,6 +413,54 @@
   <si>
     <t>RECUPERAÇÃO</t>
   </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>14-19</t>
+  </si>
+  <si>
+    <t>21-26</t>
+  </si>
+  <si>
+    <t>28-5</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>28-2</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E PROGRAMAÇÃO ESTRUTURADA</t>
+  </si>
+  <si>
+    <t>ANÁLISE E MODELAGEM DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>ARQUITETURA E ORGANIZAÇÃO DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed - CULTURA DIGITAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÓGICA COMPUTACIONAL </t>
+  </si>
+  <si>
+    <t>MODELAGEM BANCO DE DADOS</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -885,28 +934,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -964,12 +991,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1013,8 +1121,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1038,13 +1144,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,19 +1221,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,13 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,12 +1282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,8 +1320,49 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8885,8 +9030,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9228,14 +9373,14 @@
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" s="25" t="s">
         <v>43</v>
       </c>
@@ -9243,9 +9388,11 @@
         <v>62</v>
       </c>
       <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" s="18" t="s">
         <v>71</v>
       </c>
@@ -9253,15 +9400,19 @@
         <v>72</v>
       </c>
       <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1">
       <c r="A31" s="27"/>
@@ -9572,14 +9723,14 @@
       <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="18" t="s">
         <v>31</v>
       </c>
@@ -9587,9 +9738,11 @@
         <v>13</v>
       </c>
       <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" s="18" t="s">
         <v>32</v>
       </c>
@@ -9597,9 +9750,11 @@
         <v>5</v>
       </c>
       <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="18" t="s">
         <v>33</v>
       </c>
@@ -9607,9 +9762,11 @@
         <v>18</v>
       </c>
       <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" s="18" t="s">
         <v>34</v>
       </c>
@@ -9617,9 +9774,11 @@
         <v>1</v>
       </c>
       <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" s="18" t="s">
         <v>31</v>
       </c>
@@ -9627,9 +9786,11 @@
         <v>14</v>
       </c>
       <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="18" t="s">
         <v>32</v>
       </c>
@@ -9637,9 +9798,11 @@
         <v>6</v>
       </c>
       <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" s="18" t="s">
         <v>33</v>
       </c>
@@ -9647,9 +9810,11 @@
         <v>19</v>
       </c>
       <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" s="18" t="s">
         <v>34</v>
       </c>
@@ -9657,9 +9822,11 @@
         <v>2</v>
       </c>
       <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" s="18" t="s">
         <v>36</v>
       </c>
@@ -9667,9 +9834,11 @@
         <v>9</v>
       </c>
       <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" s="18" t="s">
         <v>35</v>
       </c>
@@ -9677,9 +9846,11 @@
         <v>17</v>
       </c>
       <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" s="18" t="s">
         <v>31</v>
       </c>
@@ -9687,9 +9858,11 @@
         <v>15</v>
       </c>
       <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" s="18" t="s">
         <v>32</v>
       </c>
@@ -9697,9 +9870,11 @@
         <v>7</v>
       </c>
       <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" s="18" t="s">
         <v>33</v>
       </c>
@@ -9707,9 +9882,11 @@
         <v>20</v>
       </c>
       <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" s="18" t="s">
         <v>34</v>
       </c>
@@ -9717,9 +9894,11 @@
         <v>3</v>
       </c>
       <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" s="18" t="s">
         <v>31</v>
       </c>
@@ -9727,9 +9906,11 @@
         <v>16</v>
       </c>
       <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" s="18" t="s">
         <v>32</v>
       </c>
@@ -9737,9 +9918,11 @@
         <v>8</v>
       </c>
       <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" s="18" t="s">
         <v>33</v>
       </c>
@@ -9747,9 +9930,11 @@
         <v>21</v>
       </c>
       <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" s="18" t="s">
         <v>34</v>
       </c>
@@ -9757,9 +9942,11 @@
         <v>4</v>
       </c>
       <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="18" t="s">
         <v>36</v>
       </c>
@@ -9767,9 +9954,11 @@
         <v>10</v>
       </c>
       <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" s="18" t="s">
         <v>22</v>
       </c>
@@ -9777,7 +9966,9 @@
         <v>27</v>
       </c>
       <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="D78" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="79" spans="1:4" hidden="1">
       <c r="A79" s="18" t="s">
@@ -9834,14 +10025,14 @@
       <c r="D83" s="33"/>
     </row>
     <row r="84" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" s="25" t="s">
         <v>31</v>
       </c>
@@ -9849,9 +10040,11 @@
         <v>13</v>
       </c>
       <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="18" t="s">
         <v>32</v>
       </c>
@@ -9859,9 +10052,11 @@
         <v>5</v>
       </c>
       <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" s="18" t="s">
         <v>33</v>
       </c>
@@ -9869,9 +10064,11 @@
         <v>18</v>
       </c>
       <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" s="18" t="s">
         <v>34</v>
       </c>
@@ -9879,9 +10076,11 @@
         <v>1</v>
       </c>
       <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" s="18" t="s">
         <v>36</v>
       </c>
@@ -9889,9 +10088,11 @@
         <v>9</v>
       </c>
       <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="18" t="s">
         <v>31</v>
       </c>
@@ -9899,9 +10100,11 @@
         <v>14</v>
       </c>
       <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="D90" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" s="18" t="s">
         <v>32</v>
       </c>
@@ -9909,9 +10112,11 @@
         <v>6</v>
       </c>
       <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="D91" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="18" t="s">
         <v>33</v>
       </c>
@@ -9919,9 +10124,11 @@
         <v>19</v>
       </c>
       <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="D92" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="18" t="s">
         <v>34</v>
       </c>
@@ -9929,9 +10136,11 @@
         <v>2</v>
       </c>
       <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="D93" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="18" t="s">
         <v>36</v>
       </c>
@@ -9939,7 +10148,9 @@
         <v>10</v>
       </c>
       <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="D94" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1">
       <c r="A95" s="35"/>
@@ -9948,14 +10159,14 @@
       <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" s="18" t="s">
         <v>31</v>
       </c>
@@ -9963,9 +10174,11 @@
         <v>13</v>
       </c>
       <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="D97" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" s="18" t="s">
         <v>32</v>
       </c>
@@ -9973,9 +10186,11 @@
         <v>5</v>
       </c>
       <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" s="18" t="s">
         <v>33</v>
       </c>
@@ -9983,9 +10198,11 @@
         <v>18</v>
       </c>
       <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="D99" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" s="18" t="s">
         <v>34</v>
       </c>
@@ -9993,9 +10210,11 @@
         <v>1</v>
       </c>
       <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" s="18" t="s">
         <v>31</v>
       </c>
@@ -10003,9 +10222,11 @@
         <v>14</v>
       </c>
       <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" s="18" t="s">
         <v>32</v>
       </c>
@@ -10013,9 +10234,11 @@
         <v>6</v>
       </c>
       <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="D102" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" s="18" t="s">
         <v>33</v>
       </c>
@@ -10023,9 +10246,11 @@
         <v>19</v>
       </c>
       <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" s="18" t="s">
         <v>34</v>
       </c>
@@ -10033,9 +10258,11 @@
         <v>2</v>
       </c>
       <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" s="18" t="s">
         <v>36</v>
       </c>
@@ -10043,9 +10270,11 @@
         <v>9</v>
       </c>
       <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="D105" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" s="18" t="s">
         <v>35</v>
       </c>
@@ -10053,9 +10282,11 @@
         <v>17</v>
       </c>
       <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="D106" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" s="18" t="s">
         <v>31</v>
       </c>
@@ -10063,9 +10294,11 @@
         <v>15</v>
       </c>
       <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D107" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" s="18" t="s">
         <v>32</v>
       </c>
@@ -10073,9 +10306,11 @@
         <v>7</v>
       </c>
       <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="D108" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" s="18" t="s">
         <v>33</v>
       </c>
@@ -10083,9 +10318,11 @@
         <v>20</v>
       </c>
       <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="D109" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" s="18" t="s">
         <v>34</v>
       </c>
@@ -10093,9 +10330,11 @@
         <v>3</v>
       </c>
       <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" s="18" t="s">
         <v>31</v>
       </c>
@@ -10103,9 +10342,11 @@
         <v>16</v>
       </c>
       <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="D111" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" s="18" t="s">
         <v>32</v>
       </c>
@@ -10113,9 +10354,11 @@
         <v>8</v>
       </c>
       <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" s="18" t="s">
         <v>33</v>
       </c>
@@ -10123,9 +10366,11 @@
         <v>21</v>
       </c>
       <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="D113" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" s="18" t="s">
         <v>34</v>
       </c>
@@ -10133,9 +10378,11 @@
         <v>4</v>
       </c>
       <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="D114" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" s="18" t="s">
         <v>36</v>
       </c>
@@ -10143,9 +10390,11 @@
         <v>10</v>
       </c>
       <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="D115" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" s="18" t="s">
         <v>22</v>
       </c>
@@ -10153,7 +10402,9 @@
         <v>27</v>
       </c>
       <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
+      <c r="D116" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="18" t="s">
@@ -10209,14 +10460,14 @@
       <c r="D121" s="33"/>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A122" s="45" t="s">
+      <c r="A122" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B122" s="27"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" s="25" t="s">
         <v>31</v>
       </c>
@@ -10224,9 +10475,11 @@
         <v>13</v>
       </c>
       <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="D123" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1">
       <c r="A124" s="18" t="s">
         <v>32</v>
       </c>
@@ -10234,9 +10487,11 @@
         <v>5</v>
       </c>
       <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="D124" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" s="18" t="s">
         <v>33</v>
       </c>
@@ -10244,9 +10499,11 @@
         <v>18</v>
       </c>
       <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1">
       <c r="A126" s="18" t="s">
         <v>34</v>
       </c>
@@ -10254,9 +10511,11 @@
         <v>1</v>
       </c>
       <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="18" t="s">
         <v>31</v>
       </c>
@@ -10264,9 +10523,11 @@
         <v>14</v>
       </c>
       <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="D127" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="18" t="s">
         <v>32</v>
       </c>
@@ -10274,9 +10535,11 @@
         <v>6</v>
       </c>
       <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="D128" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="18" t="s">
         <v>33</v>
       </c>
@@ -10284,9 +10547,11 @@
         <v>19</v>
       </c>
       <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="D129" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="18" t="s">
         <v>34</v>
       </c>
@@ -10294,9 +10559,11 @@
         <v>2</v>
       </c>
       <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="18" t="s">
         <v>36</v>
       </c>
@@ -10304,9 +10571,11 @@
         <v>9</v>
       </c>
       <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" s="18" t="s">
         <v>35</v>
       </c>
@@ -10314,7 +10583,9 @@
         <v>17</v>
       </c>
       <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
+      <c r="D132" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="18" t="s">
@@ -10416,7 +10687,7 @@
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="18" t="s">
         <v>22</v>
       </c>
@@ -10424,9 +10695,11 @@
         <v>28</v>
       </c>
       <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="18" t="s">
         <v>22</v>
       </c>
@@ -10434,9 +10707,11 @@
         <v>29</v>
       </c>
       <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="D144" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" s="18" t="s">
         <v>23</v>
       </c>
@@ -10444,9 +10719,11 @@
         <v>11</v>
       </c>
       <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="D145" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" s="20" t="s">
         <v>23</v>
       </c>
@@ -10454,7 +10731,9 @@
         <v>12</v>
       </c>
       <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
+      <c r="D146" s="31" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="26"/>
@@ -14139,184 +14418,181 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V31"/>
+  <dimension ref="B1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:22">
-      <c r="B2" s="46"/>
-      <c r="C2" s="108" t="s">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:21">
+      <c r="B2" s="44"/>
+      <c r="C2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="47" t="s">
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+    <row r="3" spans="2:21">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="49" t="s">
+      <c r="S3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="T3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51" t="s">
+    <row r="4" spans="2:21">
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="52" t="s">
+      <c r="S4" s="50" t="s">
         <v>114</v>
       </c>
+      <c r="T4" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="U4" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="88" t="s">
+    <row r="5" spans="2:21">
+      <c r="B5" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -14332,17 +14608,16 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="9"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="89"/>
-      <c r="C6" s="93" t="s">
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="91"/>
+      <c r="C6" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -14357,18 +14632,17 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="89"/>
-      <c r="C7" s="95" t="s">
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="91"/>
+      <c r="C7" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -14382,16 +14656,15 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="90"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="92"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="52" t="s">
         <v>120</v>
       </c>
       <c r="H8" s="22"/>
@@ -14407,11 +14680,10 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="97" t="s">
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="99" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="22"/>
@@ -14434,11 +14706,10 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="98"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="99"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -14459,11 +14730,10 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="98"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="99"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -14484,10 +14754,9 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="2:22">
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="99"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -14497,7 +14766,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="53" t="s">
         <v>120</v>
       </c>
       <c r="L12" s="22"/>
@@ -14509,11 +14778,10 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="80" t="s">
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="82" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="22"/>
@@ -14524,11 +14792,11 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -14536,61 +14804,58 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="9"/>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="80"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="82"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="9"/>
-    </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="80"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="82"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="9"/>
-    </row>
-    <row r="16" spans="2:22">
-      <c r="B16" s="80"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="82"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14603,7 +14868,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="61" t="s">
         <v>120</v>
       </c>
       <c r="P16" s="22"/>
@@ -14611,88 +14876,84 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="83" t="s">
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="83"/>
-      <c r="C18" s="86" t="s">
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="87"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84" t="s">
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="86"/>
+      <c r="C19" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="83"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="86"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -14707,17 +14968,16 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="57" t="s">
+      <c r="Q20" s="54" t="s">
         <v>120</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="68" t="s">
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="70" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="22"/>
@@ -14732,19 +14992,18 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="69"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="71"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -14754,22 +15013,21 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="69"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="71"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -14779,22 +15037,21 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="73" t="s">
+      <c r="L23" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="9"/>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="70"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="72"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -14811,15 +15068,14 @@
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="58" t="s">
+      <c r="S24" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="76" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="78" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="22"/>
@@ -14828,125 +15084,120 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="78"/>
-    </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="76"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="80"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="78"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="79" t="s">
+      <c r="I26" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="78"/>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27" s="48"/>
-      <c r="C27" s="63" t="s">
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="80"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="46"/>
+      <c r="C27" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="9"/>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="48"/>
-      <c r="C28" s="66" t="s">
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="46"/>
+      <c r="C28" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="9"/>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29" s="48"/>
-      <c r="C29" s="67" t="s">
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="46"/>
+      <c r="C29" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="9"/>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="48"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="46"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -14964,45 +15215,41 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="59" t="s">
+      <c r="T30" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="62" t="s">
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="2:21" ht="15.75" thickBot="1">
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="59" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="R4:S4"/>
+  <mergeCells count="30">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P2:T2"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:F6"/>
@@ -15016,20 +15263,864 @@
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="I15:O15"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:R17"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="C19:R19"/>
+    <mergeCell ref="C17:M17"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:P28"/>
-    <mergeCell ref="C29:T29"/>
+    <mergeCell ref="C29:S29"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="L23:S23"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I25:V25"/>
-    <mergeCell ref="I26:V26"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="I26:U26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:21">
+      <c r="B2" s="44"/>
+      <c r="C2" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="122"/>
+      <c r="U2" s="123"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="46"/>
+      <c r="C3" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="91"/>
+      <c r="C6" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="91"/>
+      <c r="C7" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="92"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="99"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="99"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="99"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="132"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="132"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="133"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="86"/>
+      <c r="C19" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="86"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="71"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="71"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="72"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="80"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="127"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="80"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="46"/>
+      <c r="C27" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="46"/>
+      <c r="C28" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="46"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="2:21" ht="15.75" thickBot="1">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:R19"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="K4" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="144">
   <si>
     <t>Desenvolvimento de Banco de Dados</t>
   </si>
@@ -1161,6 +1161,116 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,114 +1322,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1327,6 +1329,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,22 +1349,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9031,7 +9031,7 @@
   <dimension ref="A1:H1266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="F139" sqref="F139:F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10587,7 +10587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" s="18" t="s">
         <v>31</v>
       </c>
@@ -10595,9 +10595,11 @@
         <v>15</v>
       </c>
       <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" s="18" t="s">
         <v>32</v>
       </c>
@@ -10605,9 +10607,11 @@
         <v>7</v>
       </c>
       <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="D134" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="18" t="s">
         <v>33</v>
       </c>
@@ -10615,9 +10619,11 @@
         <v>20</v>
       </c>
       <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="D135" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="18" t="s">
         <v>34</v>
       </c>
@@ -10625,9 +10631,11 @@
         <v>3</v>
       </c>
       <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="D136" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="18" t="s">
         <v>31</v>
       </c>
@@ -10635,9 +10643,11 @@
         <v>16</v>
       </c>
       <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="D137" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="18" t="s">
         <v>32</v>
       </c>
@@ -10645,7 +10655,9 @@
         <v>8</v>
       </c>
       <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
+      <c r="D138" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="18" t="s">
@@ -14421,7 +14433,7 @@
   <dimension ref="B1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14434,32 +14446,32 @@
     <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:21">
       <c r="B2" s="44"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="45" t="s">
         <v>78</v>
       </c>
@@ -14511,7 +14523,7 @@
       <c r="Q3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="65" t="s">
         <v>94</v>
       </c>
       <c r="S3" s="47" t="s">
@@ -14571,7 +14583,7 @@
       <c r="Q4" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="125" t="s">
+      <c r="R4" s="66" t="s">
         <v>113</v>
       </c>
       <c r="S4" s="50" t="s">
@@ -14585,14 +14597,14 @@
       </c>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -14611,13 +14623,13 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="91"/>
-      <c r="C6" s="95" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -14635,14 +14647,14 @@
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="91"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -14659,7 +14671,7 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="92"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -14683,18 +14695,18 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -14709,17 +14721,17 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="99"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -14733,18 +14745,18 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="99"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -14757,7 +14769,7 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="99"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -14781,7 +14793,7 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="95" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="22"/>
@@ -14792,11 +14804,11 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -14807,21 +14819,21 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="82"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -14831,22 +14843,22 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="82"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
@@ -14855,7 +14867,7 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="82"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14879,22 +14891,22 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
@@ -14905,55 +14917,55 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="86"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="86"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -14977,7 +14989,7 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="108" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="22"/>
@@ -14992,18 +15004,18 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="71"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -15013,21 +15025,21 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="71"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -15037,21 +15049,21 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="115"/>
       <c r="T23" s="22"/>
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="72"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -15075,7 +15087,7 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="116" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="22"/>
@@ -15084,63 +15096,63 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="79" t="s">
+      <c r="I25" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="80"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="118"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="78"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="80"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="118"/>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="46"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="105"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
@@ -15150,22 +15162,22 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="46"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
@@ -15174,25 +15186,25 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="46"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
       <c r="T29" s="22"/>
       <c r="U29" s="9"/>
     </row>
@@ -15246,27 +15258,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:R19"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:P28"/>
     <mergeCell ref="C29:S29"/>
     <mergeCell ref="B21:B24"/>
@@ -15276,6 +15267,27 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="I25:U25"/>
     <mergeCell ref="I26:U26"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:R19"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -15299,35 +15311,35 @@
     <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:21">
       <c r="B2" s="44"/>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119" t="s">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="128" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="121" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="122"/>
-      <c r="U2" s="123"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="128"/>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="46"/>
@@ -15376,7 +15388,7 @@
       <c r="Q3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="65" t="s">
         <v>94</v>
       </c>
       <c r="S3" s="63" t="s">
@@ -15430,7 +15442,7 @@
       <c r="O4" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="P4" s="66" t="s">
         <v>100</v>
       </c>
       <c r="Q4" s="62" t="s">
@@ -15450,14 +15462,14 @@
       </c>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -15476,13 +15488,13 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="91"/>
-      <c r="C6" s="95" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -15500,14 +15512,14 @@
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="91"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -15524,7 +15536,7 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="92"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -15548,18 +15560,18 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="88" t="s">
         <v>139</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -15574,17 +15586,17 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="99"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -15598,18 +15610,18 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="99"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -15622,7 +15634,7 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="99"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -15657,11 +15669,11 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -15679,14 +15691,14 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -15703,15 +15715,15 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
@@ -15744,22 +15756,22 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
@@ -15770,55 +15782,55 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="86"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="86"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -15842,7 +15854,7 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="108" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="22"/>
@@ -15857,18 +15869,18 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="71"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -15878,21 +15890,21 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="71"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -15902,21 +15914,21 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="115"/>
       <c r="T23" s="22"/>
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="72"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -15940,7 +15952,7 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="129" t="s">
         <v>141</v>
       </c>
       <c r="C25" s="22"/>
@@ -15949,63 +15961,63 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="79" t="s">
+      <c r="I25" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="80"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="118"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="80"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="118"/>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="46"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="105"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
@@ -16015,25 +16027,25 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="46"/>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
       <c r="T28" s="22"/>
       <c r="U28" s="9"/>
     </row>
@@ -16087,20 +16099,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C27:O27"/>
-    <mergeCell ref="C28:S28"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I25:U25"/>
-    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:K11"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="I14:N14"/>
@@ -16109,14 +16115,20 @@
     <mergeCell ref="C17:M17"/>
     <mergeCell ref="C18:Q18"/>
     <mergeCell ref="C19:R19"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:U25"/>
+    <mergeCell ref="I26:U26"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
